--- a/Data/Bandit paper Key.xlsx
+++ b/Data/Bandit paper Key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gowustl-my.sharepoint.com/personal/murrell_wustl_edu/Documents/Documents/Github/Murrell2025/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8E0B11F-43C0-4782-8D95-C5B9BD28F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{F8E0B11F-43C0-4782-8D95-C5B9BD28F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4972876C-6AEF-4E87-8C73-69DFEC56751B}"/>
   <bookViews>
-    <workbookView xWindow="-20805" yWindow="1380" windowWidth="23505" windowHeight="13800" xr2:uid="{D69361D2-749D-4D5A-8D7C-5685B1F0A3DD}"/>
+    <workbookView xWindow="-26085" yWindow="975" windowWidth="23505" windowHeight="13800" xr2:uid="{D69361D2-749D-4D5A-8D7C-5685B1F0A3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="134">
   <si>
     <t>Mouse_ID</t>
   </si>
@@ -65,20 +65,389 @@
     <t>FED_Startdate</t>
   </si>
   <si>
-    <t>Start_weight</t>
-  </si>
-  <si>
-    <t>End_weight</t>
-  </si>
-  <si>
     <t>for Bandot100 and FR1 this is weight 1 and 2 for bandit 80 this is weight 3 and 4</t>
+  </si>
+  <si>
+    <t>MYT1L_001_1_1</t>
+  </si>
+  <si>
+    <t>MYT1L</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Wt</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>MYT1L_001_1_3</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>MYT1L_001_1_4</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>MYT1L_001_10_42</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>MYT1L_001_10_44</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>MYT1L_001_12_45</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>MYT1L_001_12_48</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>MYT1L_001_2_6</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>MYT1L_001_2_9</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>MYT1L_001_3_19</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>MYT1L_001_5_22</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>MYT1L_001_5_23</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>MYT1L_001_5_26</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>MYT1L_001_5_27</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>MYT1L_001_7_30</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>MYT1L_001_7_32</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>MYT1L_001_8_34</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>MYT1L_001_8_36</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>MYT1L_001_8_41</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>MYT1L_001_9_11</t>
+  </si>
+  <si>
+    <t>Bandit100</t>
+  </si>
+  <si>
+    <t>Weight1_Friday</t>
+  </si>
+  <si>
+    <t>Weight2_Monday</t>
+  </si>
+  <si>
+    <t>Weight3_Friday</t>
+  </si>
+  <si>
+    <t>Weight4_Monday</t>
+  </si>
+  <si>
+    <t>Weight5_Friday</t>
+  </si>
+  <si>
+    <t>DNMT3A_002_19_45</t>
+  </si>
+  <si>
+    <t>DNMT3A</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>DNMT3A_002_19_47</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>DNMT3A_002_19_49</t>
+  </si>
+  <si>
+    <t>DNMT3A_002_19_53</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>DNMT3A_002_22_11</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>DNMT3A_002_22_12</t>
+  </si>
+  <si>
+    <t>DNMT3A_002_22_9</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>DNMT3A_002_23_5</t>
+  </si>
+  <si>
+    <t>DNMT3A_002_24_2</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>DNMT3A_002_25_24</t>
+  </si>
+  <si>
+    <t>DNMT3A_002_25_27</t>
+  </si>
+  <si>
+    <t>DNMT3A_002_25_29</t>
+  </si>
+  <si>
+    <t>DNMT3A_002_26_55</t>
+  </si>
+  <si>
+    <t>DNMT3A_002_26_56</t>
+  </si>
+  <si>
+    <t>DNMT3A_002_26_59</t>
+  </si>
+  <si>
+    <t>DNMT3A_002_27_40</t>
+  </si>
+  <si>
+    <t>DNMT3A_002_28_30</t>
+  </si>
+  <si>
+    <t>DNMT3A_002_28_31</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>DNMT3A_002_29_20</t>
+  </si>
+  <si>
+    <t>DNMT3A_002_30_66</t>
+  </si>
+  <si>
+    <t>NF1_003_140_11</t>
+  </si>
+  <si>
+    <t>NF1</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>NF1_003_140_12</t>
+  </si>
+  <si>
+    <t>NF1_003_140_15</t>
+  </si>
+  <si>
+    <t>NF1_003_140_8</t>
+  </si>
+  <si>
+    <t>NF1_003_141_19</t>
+  </si>
+  <si>
+    <t>NF1_003_141_20</t>
+  </si>
+  <si>
+    <t>29 + 30</t>
+  </si>
+  <si>
+    <t>NF1_003_141_23</t>
+  </si>
+  <si>
+    <t>NF1_003_142_55</t>
+  </si>
+  <si>
+    <t>NF1_003_144_26</t>
+  </si>
+  <si>
+    <t>NF1_003_144_28</t>
+  </si>
+  <si>
+    <t>NF1_003_145_34</t>
+  </si>
+  <si>
+    <t>NF1_003_145_39</t>
+  </si>
+  <si>
+    <t>NF1_003_146_42</t>
+  </si>
+  <si>
+    <t>NF1_003_146_43</t>
+  </si>
+  <si>
+    <t>NF1_003_146_46</t>
+  </si>
+  <si>
+    <t>NF1_003_146_47</t>
+  </si>
+  <si>
+    <t>NF1_003_146_50</t>
+  </si>
+  <si>
+    <t>NF1_003_147_2</t>
+  </si>
+  <si>
+    <t>NF1_003_147_4</t>
+  </si>
+  <si>
+    <t>NF1_003_147_7</t>
+  </si>
+  <si>
+    <t>SHANK3B_004_115_85</t>
+  </si>
+  <si>
+    <t>SHANK3B</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>SHANK3B_004_120_1</t>
+  </si>
+  <si>
+    <t>SHANK3B_004_120_96</t>
+  </si>
+  <si>
+    <t>SHANK3B_004_122_12</t>
+  </si>
+  <si>
+    <t>SHANK3B_004_122_15</t>
+  </si>
+  <si>
+    <t>SHANK3B_004_122_17</t>
+  </si>
+  <si>
+    <t>SHANK3B_004_126_28</t>
+  </si>
+  <si>
+    <t>SHANK3B_004_126_31</t>
+  </si>
+  <si>
+    <t>SHANK3B_004_67_3</t>
+  </si>
+  <si>
+    <t>SHANK3B_004_68_23</t>
+  </si>
+  <si>
+    <t>SHANK3B_004_69_32</t>
+  </si>
+  <si>
+    <t>SHANK3B_004_69_33</t>
+  </si>
+  <si>
+    <t>SHANK3B_004_70_4</t>
+  </si>
+  <si>
+    <t>SHANK3B_004_71_38</t>
+  </si>
+  <si>
+    <t>SHANK3B_004_72_63</t>
+  </si>
+  <si>
+    <t>SHANK3B_004_73_12</t>
+  </si>
+  <si>
+    <t>SHANK3B_004_73_16</t>
+  </si>
+  <si>
+    <t>SHANK3B_004_75_47</t>
+  </si>
+  <si>
+    <t>SHANK3B_004_77_56</t>
+  </si>
+  <si>
+    <t>SHANK3B_004_78_70</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,13 +455,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2F2FE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCD2"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,8 +498,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,6 +531,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,15 +854,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF4FCBB-AC4B-4BE1-B463-C994B1598E3A}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60:C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -468,10 +883,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -480,18 +895,3246 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45719</v>
+      </c>
+      <c r="J2" s="1">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1">
+        <v>19.53</v>
+      </c>
+      <c r="M2" s="1">
+        <v>18.34</v>
+      </c>
+      <c r="N2" s="1">
+        <v>20.07</v>
+      </c>
+      <c r="Q2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3">
+        <v>45719</v>
+      </c>
+      <c r="J3" s="1">
+        <v>24.61</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>24.56</v>
+      </c>
+      <c r="M3" s="1">
+        <v>24.21</v>
+      </c>
+      <c r="N3" s="1">
+        <v>24.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3">
+        <v>45719</v>
+      </c>
+      <c r="J4" s="1">
+        <v>18.46</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="M4" s="1">
+        <v>19.87</v>
+      </c>
+      <c r="N4" s="1">
+        <v>19.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45719</v>
+      </c>
+      <c r="J5" s="1">
+        <v>20.25</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
+        <v>21.56</v>
+      </c>
+      <c r="M5" s="1">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="N5" s="1">
+        <v>20.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3">
+        <v>45719</v>
+      </c>
+      <c r="J6" s="1">
+        <v>27.54</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1">
+        <v>28.15</v>
+      </c>
+      <c r="M6" s="1">
+        <v>27.22</v>
+      </c>
+      <c r="N6" s="1">
+        <v>27.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="3">
+        <v>45719</v>
+      </c>
+      <c r="J7" s="1">
+        <v>26.44</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
+        <v>26.37</v>
+      </c>
+      <c r="M7" s="1">
+        <v>25.59</v>
+      </c>
+      <c r="N7" s="1">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="3">
+        <v>45719</v>
+      </c>
+      <c r="J8" s="1">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="M8" s="1">
+        <v>18.53</v>
+      </c>
+      <c r="N8" s="1">
+        <v>20.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="3">
+        <v>45719</v>
+      </c>
+      <c r="J9" s="1">
+        <v>19.91</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1">
+        <v>21.59</v>
+      </c>
+      <c r="M9" s="1">
+        <v>20.03</v>
+      </c>
+      <c r="N9" s="1">
+        <v>20.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="3">
+        <v>45719</v>
+      </c>
+      <c r="J10" s="1">
+        <v>23.28</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <v>24.43</v>
+      </c>
+      <c r="M10" s="1">
+        <v>22.71</v>
+      </c>
+      <c r="N10" s="1">
+        <v>23.59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="3">
+        <v>45719</v>
+      </c>
+      <c r="J11" s="1">
+        <v>26.74</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <v>26.88</v>
+      </c>
+      <c r="M11" s="1">
+        <v>25.92</v>
+      </c>
+      <c r="N11" s="1">
+        <v>26.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="3">
+        <v>45719</v>
+      </c>
+      <c r="J12" s="1">
+        <v>26.66</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
+        <v>26.44</v>
+      </c>
+      <c r="M12" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="N12" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="3">
+        <v>45719</v>
+      </c>
+      <c r="J13" s="1">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="M13" s="1">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="N13" s="1">
+        <v>19.809999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="3">
+        <v>45719</v>
+      </c>
+      <c r="J14" s="1">
+        <v>24.43</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
+        <v>24.94</v>
+      </c>
+      <c r="M14" s="1">
+        <v>23.09</v>
+      </c>
+      <c r="N14" s="1">
+        <v>23.87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="3">
+        <v>45719</v>
+      </c>
+      <c r="J15" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="M15" s="1">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="N15" s="1">
+        <v>20.07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="3">
+        <v>45719</v>
+      </c>
+      <c r="J16" s="1">
+        <v>26.96</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
+        <v>27.54</v>
+      </c>
+      <c r="M16" s="1">
+        <v>26.16</v>
+      </c>
+      <c r="N16" s="1">
+        <v>25.54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="3">
+        <v>45719</v>
+      </c>
+      <c r="J17" s="1">
+        <v>19.95</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1">
+        <v>20.89</v>
+      </c>
+      <c r="M17" s="1">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="N17" s="1">
+        <v>20.420000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="3">
+        <v>45719</v>
+      </c>
+      <c r="J18" s="1">
+        <v>24.15</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1">
+        <v>24.07</v>
+      </c>
+      <c r="M18" s="1">
+        <v>22.89</v>
+      </c>
+      <c r="N18" s="1">
+        <v>23.06</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="3">
+        <v>45719</v>
+      </c>
+      <c r="J19" s="1">
+        <v>26.43</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1">
+        <v>26.85</v>
+      </c>
+      <c r="M19" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="N19" s="1">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="3">
+        <v>45719</v>
+      </c>
+      <c r="J20" s="1">
+        <v>17.53</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1">
+        <v>19.03</v>
+      </c>
+      <c r="M20" s="1">
+        <v>18.21</v>
+      </c>
+      <c r="N20" s="1">
+        <v>20.079999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="3">
+        <v>45719</v>
+      </c>
+      <c r="J21" s="1">
+        <v>18.48</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1">
+        <v>19.05</v>
+      </c>
+      <c r="M21" s="1">
+        <v>18.84</v>
+      </c>
+      <c r="N21" s="1">
+        <v>19.68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="3">
+        <v>45768</v>
+      </c>
+      <c r="J22" s="1">
+        <v>23.89</v>
+      </c>
+      <c r="K22" s="1">
+        <v>23.01</v>
+      </c>
+      <c r="L22" s="1">
+        <v>23.22</v>
+      </c>
+      <c r="M22" s="1">
+        <v>23.34</v>
+      </c>
+      <c r="N22" s="1">
+        <v>24.28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="3">
+        <v>45768</v>
+      </c>
+      <c r="J23" s="1">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="K23" s="1">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="L23" s="1">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="M23" s="1">
+        <v>18.21</v>
+      </c>
+      <c r="N23" s="1">
+        <v>19.64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="3">
+        <v>45768</v>
+      </c>
+      <c r="J24" s="1">
+        <v>20.38</v>
+      </c>
+      <c r="K24" s="1">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="L24" s="1">
+        <v>19.32</v>
+      </c>
+      <c r="M24" s="1">
+        <v>19.84</v>
+      </c>
+      <c r="N24" s="1">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="3">
+        <v>45768</v>
+      </c>
+      <c r="J25" s="1">
+        <v>18.05</v>
+      </c>
+      <c r="K25" s="1">
+        <v>16.87</v>
+      </c>
+      <c r="L25" s="1">
+        <v>17.07</v>
+      </c>
+      <c r="M25" s="1">
+        <v>17.22</v>
+      </c>
+      <c r="N25" s="1">
+        <v>18.350000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="3">
+        <v>45747</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1">
+        <v>17.48</v>
+      </c>
+      <c r="L26" s="1">
+        <v>17.97</v>
+      </c>
+      <c r="M26" s="1">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="N26" s="1">
+        <v>18.43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="3">
+        <v>45747</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1">
+        <v>24.16</v>
+      </c>
+      <c r="L27" s="1">
+        <v>25.55</v>
+      </c>
+      <c r="M27" s="1">
+        <v>25.11</v>
+      </c>
+      <c r="N27" s="1">
+        <v>25.66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="3">
+        <v>45747</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1">
+        <v>18.03</v>
+      </c>
+      <c r="L28" s="1">
+        <v>18.72</v>
+      </c>
+      <c r="M28" s="1">
+        <v>17.86</v>
+      </c>
+      <c r="N28" s="1">
+        <v>19.38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="3">
+        <v>45747</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1">
+        <v>17.72</v>
+      </c>
+      <c r="L29" s="1">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="M29" s="1">
+        <v>17.57</v>
+      </c>
+      <c r="N29" s="1">
+        <v>17.850000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="3">
+        <v>45747</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1">
+        <v>20.45</v>
+      </c>
+      <c r="L30" s="1">
+        <v>21.05</v>
+      </c>
+      <c r="M30" s="1">
+        <v>20.68</v>
+      </c>
+      <c r="N30" s="1">
+        <v>21.05</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="3">
+        <v>45747</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1">
+        <v>21.54</v>
+      </c>
+      <c r="L31" s="1">
+        <v>22.32</v>
+      </c>
+      <c r="M31" s="1">
+        <v>22.31</v>
+      </c>
+      <c r="N31" s="1">
+        <v>23.02</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="3">
+        <v>45747</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1">
+        <v>21.7</v>
+      </c>
+      <c r="L32" s="1">
+        <v>22.09</v>
+      </c>
+      <c r="M32" s="1">
+        <v>21.7</v>
+      </c>
+      <c r="N32" s="1">
+        <v>22.12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="3">
+        <v>45747</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1">
+        <v>21.37</v>
+      </c>
+      <c r="L33" s="1">
+        <v>22.87</v>
+      </c>
+      <c r="M33" s="1">
+        <v>21.49</v>
+      </c>
+      <c r="N33" s="1">
+        <v>22.38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="3">
+        <v>45768</v>
+      </c>
+      <c r="J34" s="1">
+        <v>19.52</v>
+      </c>
+      <c r="K34" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="L34" s="1">
+        <v>18.64</v>
+      </c>
+      <c r="M34" s="1">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="N34" s="1">
+        <v>19.62</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="3">
+        <v>45768</v>
+      </c>
+      <c r="J35" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="K35" s="1">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="L35" s="1">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="M35" s="1">
+        <v>18.91</v>
+      </c>
+      <c r="N35" s="1">
+        <v>19.72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="3">
+        <v>45768</v>
+      </c>
+      <c r="J36" s="1">
+        <v>25.04</v>
+      </c>
+      <c r="K36" s="1">
+        <v>25.41</v>
+      </c>
+      <c r="L36" s="1">
+        <v>25.03</v>
+      </c>
+      <c r="M36" s="1">
+        <v>25.84</v>
+      </c>
+      <c r="N36" s="1">
+        <v>25.36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="3">
+        <v>45768</v>
+      </c>
+      <c r="J37" s="1">
+        <v>24.85</v>
+      </c>
+      <c r="K37" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="L37" s="1">
+        <v>25.24</v>
+      </c>
+      <c r="M37" s="1">
+        <v>24.94</v>
+      </c>
+      <c r="N37" s="1">
+        <v>25.25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="3">
+        <v>45747</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="L38" s="1">
+        <v>17.34</v>
+      </c>
+      <c r="M38" s="1">
+        <v>16.93</v>
+      </c>
+      <c r="N38" s="1">
+        <v>17.86</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="3">
+        <v>45768</v>
+      </c>
+      <c r="J39" s="1">
+        <v>25.87</v>
+      </c>
+      <c r="K39" s="1">
+        <v>25.3</v>
+      </c>
+      <c r="L39" s="1">
+        <v>25</v>
+      </c>
+      <c r="M39" s="1">
+        <v>24.78</v>
+      </c>
+      <c r="N39" s="1">
+        <v>25.36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="3">
+        <v>45747</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1">
+        <v>24.51</v>
+      </c>
+      <c r="L40" s="1">
+        <v>25.13</v>
+      </c>
+      <c r="M40" s="1">
+        <v>24.63</v>
+      </c>
+      <c r="N40" s="1">
+        <v>24.89</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="3">
+        <v>45768</v>
+      </c>
+      <c r="J41" s="1">
+        <v>26.89</v>
+      </c>
+      <c r="K41" s="1">
+        <v>26.54</v>
+      </c>
+      <c r="L41" s="1">
+        <v>26.73</v>
+      </c>
+      <c r="M41" s="1">
+        <v>27.57</v>
+      </c>
+      <c r="N41" s="1">
+        <v>27.32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="1">
+        <v>27</v>
+      </c>
+      <c r="I42" s="3">
+        <v>45873</v>
+      </c>
+      <c r="J42" s="1">
+        <v>20.02</v>
+      </c>
+      <c r="K42" s="1">
+        <v>18.28</v>
+      </c>
+      <c r="L42" s="1">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="M42" s="1">
+        <v>19.13</v>
+      </c>
+      <c r="N42" s="1">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="1">
+        <v>35</v>
+      </c>
+      <c r="I43" s="3">
+        <v>45873</v>
+      </c>
+      <c r="J43" s="1">
+        <v>19.53</v>
+      </c>
+      <c r="K43" s="1">
+        <v>19.11</v>
+      </c>
+      <c r="L43" s="1">
+        <v>20.59</v>
+      </c>
+      <c r="M43" s="1">
+        <v>19.89</v>
+      </c>
+      <c r="N43" s="1">
+        <v>20.71</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="1">
+        <v>39</v>
+      </c>
+      <c r="I44" s="3">
+        <v>45873</v>
+      </c>
+      <c r="J44" s="1">
+        <v>18.32</v>
+      </c>
+      <c r="K44" s="1">
+        <v>17.47</v>
+      </c>
+      <c r="L44" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="M44" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="N44" s="1">
+        <v>18.97</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="1">
+        <v>26</v>
+      </c>
+      <c r="I45" s="3">
+        <v>45873</v>
+      </c>
+      <c r="J45" s="1">
+        <v>18.93</v>
+      </c>
+      <c r="K45" s="1">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="L45" s="1">
+        <v>20.52</v>
+      </c>
+      <c r="M45" s="1">
+        <v>18.93</v>
+      </c>
+      <c r="N45" s="1">
+        <v>18.84</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="1">
+        <v>28</v>
+      </c>
+      <c r="I46" s="3">
+        <v>45873</v>
+      </c>
+      <c r="J46" s="1">
+        <v>20.34</v>
+      </c>
+      <c r="K46" s="1">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="L46" s="1">
+        <v>21.03</v>
+      </c>
+      <c r="M46" s="1">
+        <v>21.07</v>
+      </c>
+      <c r="N46" s="1">
+        <v>21.47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I47" s="3">
+        <v>45873</v>
+      </c>
+      <c r="J47" s="1">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="K47" s="1">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="L47" s="1">
+        <v>21.48</v>
+      </c>
+      <c r="M47" s="1">
+        <v>20.04</v>
+      </c>
+      <c r="N47" s="1">
+        <v>21.21</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="1">
+        <v>68</v>
+      </c>
+      <c r="I48" s="3">
+        <v>45873</v>
+      </c>
+      <c r="J48" s="1">
+        <v>27.55</v>
+      </c>
+      <c r="K48" s="1">
+        <v>25.74</v>
+      </c>
+      <c r="L48" s="1">
+        <v>27.31</v>
+      </c>
+      <c r="M48" s="1">
+        <v>26.02</v>
+      </c>
+      <c r="N48" s="1">
+        <v>26.39</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="1">
+        <v>74</v>
+      </c>
+      <c r="I49" s="3">
+        <v>45873</v>
+      </c>
+      <c r="J49" s="1">
+        <v>24.73</v>
+      </c>
+      <c r="K49" s="1">
+        <v>24.43</v>
+      </c>
+      <c r="L49" s="1">
+        <v>25.49</v>
+      </c>
+      <c r="M49" s="1">
+        <v>25.09</v>
+      </c>
+      <c r="N49" s="1">
+        <v>25.88</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="1">
+        <v>75</v>
+      </c>
+      <c r="I50" s="3">
+        <v>45873</v>
+      </c>
+      <c r="J50" s="1">
+        <v>26.89</v>
+      </c>
+      <c r="K50" s="1">
+        <v>25.78</v>
+      </c>
+      <c r="L50" s="1">
+        <v>25.59</v>
+      </c>
+      <c r="M50" s="1">
+        <v>25.14</v>
+      </c>
+      <c r="N50" s="1">
+        <v>24.56</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="1">
+        <v>76</v>
+      </c>
+      <c r="I51" s="3">
+        <v>45873</v>
+      </c>
+      <c r="J51" s="1">
+        <v>25.36</v>
+      </c>
+      <c r="K51" s="1">
+        <v>23.89</v>
+      </c>
+      <c r="L51" s="1">
+        <v>25.51</v>
+      </c>
+      <c r="M51" s="1">
+        <v>24.06</v>
+      </c>
+      <c r="N51" s="1">
+        <v>24.38</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="1">
+        <v>70</v>
+      </c>
+      <c r="I52" s="3">
+        <v>45873</v>
+      </c>
+      <c r="J52" s="1">
+        <v>30.04</v>
+      </c>
+      <c r="K52" s="1">
+        <v>28.23</v>
+      </c>
+      <c r="L52" s="1">
+        <v>29.48</v>
+      </c>
+      <c r="M52" s="1">
+        <v>28.14</v>
+      </c>
+      <c r="N52" s="1">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="1">
+        <v>69</v>
+      </c>
+      <c r="I53" s="3">
+        <v>45873</v>
+      </c>
+      <c r="J53" s="1">
+        <v>29.7</v>
+      </c>
+      <c r="K53" s="1">
+        <v>28.72</v>
+      </c>
+      <c r="L53" s="1">
+        <v>28.28</v>
+      </c>
+      <c r="M53" s="1">
+        <v>29.31</v>
+      </c>
+      <c r="N53" s="1">
+        <v>27.91</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="1">
+        <v>40</v>
+      </c>
+      <c r="I54" s="3">
+        <v>45873</v>
+      </c>
+      <c r="J54" s="1">
+        <v>17.54</v>
+      </c>
+      <c r="K54" s="1">
+        <v>17.22</v>
+      </c>
+      <c r="L54" s="1">
+        <v>18.91</v>
+      </c>
+      <c r="M54" s="1">
+        <v>17.53</v>
+      </c>
+      <c r="N54" s="1">
+        <v>19.079999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="1">
+        <v>47</v>
+      </c>
+      <c r="I55" s="3">
+        <v>45873</v>
+      </c>
+      <c r="J55" s="1">
+        <v>19.71</v>
+      </c>
+      <c r="K55" s="1">
+        <v>18.38</v>
+      </c>
+      <c r="L55" s="1">
+        <v>20</v>
+      </c>
+      <c r="M55" s="1">
+        <v>18.75</v>
+      </c>
+      <c r="N55" s="1">
+        <v>19.77</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="1">
+        <v>77</v>
+      </c>
+      <c r="I56" s="3">
+        <v>45873</v>
+      </c>
+      <c r="J56" s="1">
+        <v>26.71</v>
+      </c>
+      <c r="K56" s="1">
+        <v>25.98</v>
+      </c>
+      <c r="L56" s="1">
+        <v>27.29</v>
+      </c>
+      <c r="M56" s="1">
+        <v>25.78</v>
+      </c>
+      <c r="N56" s="1">
+        <v>26.07</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="1">
+        <v>51</v>
+      </c>
+      <c r="I57" s="3">
+        <v>45873</v>
+      </c>
+      <c r="J57" s="1">
+        <v>18.32</v>
+      </c>
+      <c r="K57" s="1">
+        <v>18.41</v>
+      </c>
+      <c r="L57" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="M57" s="1">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="N57" s="1">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="1">
+        <v>79</v>
+      </c>
+      <c r="I58" s="3">
+        <v>45873</v>
+      </c>
+      <c r="J58" s="1">
+        <v>22.73</v>
+      </c>
+      <c r="K58" s="1">
+        <v>22.18</v>
+      </c>
+      <c r="L58" s="1">
+        <v>22.95</v>
+      </c>
+      <c r="M58" s="1">
+        <v>21.98</v>
+      </c>
+      <c r="N58" s="1">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="1">
+        <v>32</v>
+      </c>
+      <c r="I59" s="3">
+        <v>45873</v>
+      </c>
+      <c r="J59" s="1">
+        <v>20.16</v>
+      </c>
+      <c r="K59" s="1">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="L59" s="1">
+        <v>20.45</v>
+      </c>
+      <c r="M59" s="1">
+        <v>20.07</v>
+      </c>
+      <c r="N59" s="1">
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="1">
+        <v>71</v>
+      </c>
+      <c r="I60" s="3">
+        <v>45873</v>
+      </c>
+      <c r="J60" s="1">
+        <v>24.16</v>
+      </c>
+      <c r="K60" s="1">
+        <v>23.31</v>
+      </c>
+      <c r="L60" s="1">
+        <v>23.81</v>
+      </c>
+      <c r="M60" s="1">
+        <v>23.93</v>
+      </c>
+      <c r="N60" s="1">
+        <v>23.01</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="1">
+        <v>72</v>
+      </c>
+      <c r="I61" s="3">
+        <v>45873</v>
+      </c>
+      <c r="J61" s="1">
+        <v>23.45</v>
+      </c>
+      <c r="K61" s="1">
+        <v>22.48</v>
+      </c>
+      <c r="L61" s="1">
+        <v>22.99</v>
+      </c>
+      <c r="M61" s="1">
+        <v>22.27</v>
+      </c>
+      <c r="N61" s="1">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="1">
+        <v>23</v>
+      </c>
+      <c r="I62" s="4">
+        <v>45887</v>
+      </c>
+      <c r="J62" s="1">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="K62" s="1">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="L62" s="1">
+        <v>20.36</v>
+      </c>
+      <c r="M62" s="1">
+        <v>18.55</v>
+      </c>
+      <c r="N62" s="1">
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="1">
+        <v>52</v>
+      </c>
+      <c r="I63" s="4">
+        <v>45887</v>
+      </c>
+      <c r="J63" s="1">
+        <v>23.06</v>
+      </c>
+      <c r="K63" s="1">
+        <v>22.23</v>
+      </c>
+      <c r="L63" s="1">
+        <v>23.01</v>
+      </c>
+      <c r="M63" s="1">
+        <v>22.04</v>
+      </c>
+      <c r="N63" s="1">
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="1">
+        <v>51</v>
+      </c>
+      <c r="I64" s="4">
+        <v>45887</v>
+      </c>
+      <c r="J64" s="5">
+        <v>24.77</v>
+      </c>
+      <c r="K64" s="1">
+        <v>23.89</v>
+      </c>
+      <c r="L64" s="1">
+        <v>24.12</v>
+      </c>
+      <c r="M64" s="1">
+        <v>23.51</v>
+      </c>
+      <c r="N64" s="1">
+        <v>23.76</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="1">
+        <v>24</v>
+      </c>
+      <c r="I65" s="4">
+        <v>45887</v>
+      </c>
+      <c r="J65" s="1">
+        <v>20.46</v>
+      </c>
+      <c r="K65" s="1">
+        <v>20.27</v>
+      </c>
+      <c r="L65" s="1">
+        <v>21.1</v>
+      </c>
+      <c r="M65" s="1">
+        <v>20.02</v>
+      </c>
+      <c r="N65" s="1">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="1">
+        <v>25</v>
+      </c>
+      <c r="I66" s="4">
+        <v>45887</v>
+      </c>
+      <c r="J66" s="1">
+        <v>20.66</v>
+      </c>
+      <c r="K66" s="1">
+        <v>19.91</v>
+      </c>
+      <c r="L66" s="1">
+        <v>21.55</v>
+      </c>
+      <c r="M66" s="1">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="N66" s="1">
+        <v>20.309999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="1">
+        <v>16</v>
+      </c>
+      <c r="I67" s="4">
+        <v>45887</v>
+      </c>
+      <c r="J67" s="1">
+        <v>20.28</v>
+      </c>
+      <c r="K67" s="1">
+        <v>19.22</v>
+      </c>
+      <c r="L67" s="1">
+        <v>20.05</v>
+      </c>
+      <c r="M67" s="1">
+        <v>19.7</v>
+      </c>
+      <c r="N67" s="1">
+        <v>20.95</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="1">
+        <v>17</v>
+      </c>
+      <c r="I68" s="4">
+        <v>45887</v>
+      </c>
+      <c r="J68" s="1">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="K68" s="1">
+        <v>19.14</v>
+      </c>
+      <c r="L68" s="1">
+        <v>20.67</v>
+      </c>
+      <c r="M68" s="1">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="N68" s="1">
+        <v>19.559999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="1">
+        <v>53</v>
+      </c>
+      <c r="I69" s="4">
+        <v>45887</v>
+      </c>
+      <c r="J69" s="1">
+        <v>24.74</v>
+      </c>
+      <c r="K69" s="1">
+        <v>23.87</v>
+      </c>
+      <c r="L69" s="1">
+        <v>25.07</v>
+      </c>
+      <c r="M69" s="1">
+        <v>23.61</v>
+      </c>
+      <c r="N69" s="1">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="1">
+        <v>7</v>
+      </c>
+      <c r="I70" s="4">
+        <v>45887</v>
+      </c>
+      <c r="J70" s="1">
+        <v>20.98</v>
+      </c>
+      <c r="K70" s="1">
+        <v>20.03</v>
+      </c>
+      <c r="L70" s="1">
+        <v>21.24</v>
+      </c>
+      <c r="M70" s="1">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="N70" s="1">
+        <v>21.11</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="1">
+        <v>33</v>
+      </c>
+      <c r="I71" s="4">
+        <v>45887</v>
+      </c>
+      <c r="J71" s="1">
+        <v>26.92</v>
+      </c>
+      <c r="K71" s="1">
+        <v>26.24</v>
+      </c>
+      <c r="L71" s="1">
+        <v>27</v>
+      </c>
+      <c r="M71" s="1">
+        <v>25.56</v>
+      </c>
+      <c r="N71" s="1">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="6">
+        <v>34</v>
+      </c>
+      <c r="I72" s="4">
+        <v>45887</v>
+      </c>
+      <c r="J72" s="6">
+        <v>27.08</v>
+      </c>
+      <c r="K72" s="6">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="L72" s="6">
+        <v>27.11</v>
+      </c>
+      <c r="M72" s="6">
+        <v>27.21</v>
+      </c>
+      <c r="N72" s="6">
+        <v>26.94</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="1">
+        <v>6</v>
+      </c>
+      <c r="I73" s="4">
+        <v>45887</v>
+      </c>
+      <c r="J73" s="1">
+        <v>19.96</v>
+      </c>
+      <c r="K73" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="L73" s="1">
+        <v>20.59</v>
+      </c>
+      <c r="M73" s="1">
+        <v>19.36</v>
+      </c>
+      <c r="N73" s="1">
+        <v>20.45</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="1">
+        <v>35</v>
+      </c>
+      <c r="I74" s="4">
+        <v>45887</v>
+      </c>
+      <c r="J74" s="1">
+        <v>27.11</v>
+      </c>
+      <c r="K74" s="1">
+        <v>25.47</v>
+      </c>
+      <c r="L74" s="1">
+        <v>26.88</v>
+      </c>
+      <c r="M74" s="1">
+        <v>26.22</v>
+      </c>
+      <c r="N74" s="1">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" t="s">
+        <v>55</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="1">
+        <v>8</v>
+      </c>
+      <c r="I75" s="4">
+        <v>45887</v>
+      </c>
+      <c r="J75" s="1">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="K75" s="1">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="L75" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="M75" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="N75" s="1">
+        <v>18.86</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="1">
+        <v>38</v>
+      </c>
+      <c r="I76" s="4">
+        <v>45887</v>
+      </c>
+      <c r="J76" s="1">
+        <v>25.91</v>
+      </c>
+      <c r="K76" s="1">
+        <v>24.79</v>
+      </c>
+      <c r="L76" s="1">
+        <v>26.04</v>
+      </c>
+      <c r="M76" s="1">
+        <v>25.42</v>
+      </c>
+      <c r="N76" s="1">
+        <v>24.83</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="1">
+        <v>9</v>
+      </c>
+      <c r="I77" s="4">
+        <v>45887</v>
+      </c>
+      <c r="J77" s="1">
+        <v>20.27</v>
+      </c>
+      <c r="K77" s="1">
+        <v>19.54</v>
+      </c>
+      <c r="L77" s="1">
+        <v>20.25</v>
+      </c>
+      <c r="M77" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="N77" s="1">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L2" t="s">
-        <v>11</v>
+      <c r="I78" s="4">
+        <v>45887</v>
+      </c>
+      <c r="J78" s="1">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="K78" s="1">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="L78" s="1">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="M78" s="1">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="N78" s="1">
+        <v>18.48</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="1">
+        <v>36</v>
+      </c>
+      <c r="I79" s="4">
+        <v>45887</v>
+      </c>
+      <c r="J79" s="1">
+        <v>28.22</v>
+      </c>
+      <c r="K79" s="1">
+        <v>26.99</v>
+      </c>
+      <c r="L79" s="1">
+        <v>28.16</v>
+      </c>
+      <c r="M79" s="1">
+        <v>27.15</v>
+      </c>
+      <c r="N79" s="1">
+        <v>26.41</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="1">
+        <v>37</v>
+      </c>
+      <c r="I80" s="4">
+        <v>45887</v>
+      </c>
+      <c r="J80" s="1">
+        <v>23.06</v>
+      </c>
+      <c r="K80" s="1">
+        <v>22.83</v>
+      </c>
+      <c r="L80" s="1">
+        <v>23.79</v>
+      </c>
+      <c r="M80" s="1">
+        <v>23.32</v>
+      </c>
+      <c r="N80" s="1">
+        <v>24.48</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="1">
+        <v>39</v>
+      </c>
+      <c r="I81" s="4">
+        <v>45887</v>
+      </c>
+      <c r="J81" s="1">
+        <v>24.96</v>
+      </c>
+      <c r="K81" s="1">
+        <v>24.34</v>
+      </c>
+      <c r="L81" s="1">
+        <v>25.53</v>
+      </c>
+      <c r="M81" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="N81" s="1">
+        <v>25.53</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Bandit paper Key.xlsx
+++ b/Data/Bandit paper Key.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gowustl-my.sharepoint.com/personal/sebastiana_wustl_edu/Documents/Documents/GitHub/Murrell2025/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gowustl-my.sharepoint.com/personal/murrell_wustl_edu/Documents/Documents/Github/Murrell2025/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{F8E0B11F-43C0-4782-8D95-C5B9BD28F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1A38F5B-7028-40AB-AC0A-9135F9BBDD0F}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="8_{F8E0B11F-43C0-4782-8D95-C5B9BD28F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{839A5803-3A9F-456A-AF55-A2A4E4E690A0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3990" windowWidth="13740" windowHeight="23640" xr2:uid="{D69361D2-749D-4D5A-8D7C-5685B1F0A3DD}"/>
+    <workbookView xWindow="-26025" yWindow="900" windowWidth="23505" windowHeight="13800" xr2:uid="{D69361D2-749D-4D5A-8D7C-5685B1F0A3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="206">
   <si>
     <t>Mouse_ID</t>
   </si>
@@ -299,12 +299,6 @@
     <t>8/18/25</t>
   </si>
   <si>
-    <t>NF1 Cohort 1</t>
-  </si>
-  <si>
-    <t>NF1 Cohort 2</t>
-  </si>
-  <si>
     <t>03/05/2024</t>
   </si>
   <si>
@@ -341,253 +335,325 @@
     <t>09/08/2024</t>
   </si>
   <si>
-    <t>NF1_Cohort1_222_6930-21</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6931-30</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6928-14</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6928-15</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6925-2</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6935-56</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6935-59</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6935-61</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6928-16</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6926-11</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6925-1</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6925-3</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6935-57</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6931-32</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6939-13</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6939-14</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6940-30</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6941-29</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6960-42</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6944-19</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6948-2</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6960-44</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6949-10</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6961-4</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6955-11</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6955-12</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6955-15</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6953-18</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6953-20</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6953-22</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6959-27</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6961-1</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6961-2</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6955-9</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6953-16</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6953-21</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6952-23</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6958-40</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6958-43</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6956-50</t>
-  </si>
-  <si>
-    <t>NF1_Cohort1_222_6956-51</t>
-  </si>
-  <si>
-    <t>NF1_Cohort2_03_141_19</t>
-  </si>
-  <si>
-    <t>NF1_Cohort2_03_141_20</t>
-  </si>
-  <si>
-    <t>NF1_Cohort2_03_147_2</t>
-  </si>
-  <si>
-    <t>NF1_Cohort2_03_140_12</t>
-  </si>
-  <si>
-    <t>NF1_Cohort2_03_140_15</t>
-  </si>
-  <si>
-    <t>NF1_Cohort2_03_146_42</t>
-  </si>
-  <si>
-    <t>NF1_Cohort2_03_146_43</t>
-  </si>
-  <si>
-    <t>NF1_Cohort2_03_146_47</t>
-  </si>
-  <si>
-    <t>NF1_Cohort2_03_141_23</t>
-  </si>
-  <si>
-    <t>NF1_Cohort2_03_145_39</t>
-  </si>
-  <si>
-    <t>NF1_Cohort2_03_147_7</t>
-  </si>
-  <si>
-    <t>NF1_Cohort2_03_147_4</t>
-  </si>
-  <si>
-    <t>NF1_Cohort2_03_145_34</t>
-  </si>
-  <si>
-    <t>NF1_Cohort2_03_146_46</t>
-  </si>
-  <si>
-    <t>NF1_Cohort2_03_144_26</t>
-  </si>
-  <si>
-    <t>NF1_Cohort2_03_142_55</t>
-  </si>
-  <si>
-    <t>NF1_Cohort2_03_144_28</t>
-  </si>
-  <si>
-    <t>NF1_Cohort2_03_146_50</t>
-  </si>
-  <si>
-    <t>NF1_Cohort2_03_140_8</t>
-  </si>
-  <si>
-    <t>NF1_Cohort2_03_140_11</t>
-  </si>
-  <si>
-    <t>C57_HFD_333_191</t>
-  </si>
-  <si>
-    <t>C57_HFD_333_189</t>
-  </si>
-  <si>
-    <t>C57_HFD_333_190</t>
-  </si>
-  <si>
-    <t>C57_HFD_333_672</t>
-  </si>
-  <si>
-    <t>C57_HFD_333_670</t>
-  </si>
-  <si>
-    <t>C57_HFD_333_671</t>
-  </si>
-  <si>
-    <t>C57_HFD_333_183</t>
-  </si>
-  <si>
-    <t>C57_HFD_333_186</t>
-  </si>
-  <si>
-    <t>C57_HFD_333_674</t>
-  </si>
-  <si>
-    <t>C57_HFD_333_188</t>
-  </si>
-  <si>
-    <t>C57_HFD_333_673</t>
-  </si>
-  <si>
-    <t>C57_HFD_333_182</t>
-  </si>
-  <si>
-    <t>C57_HFD_333_187</t>
-  </si>
-  <si>
-    <t>C57_HFD_333_180</t>
-  </si>
-  <si>
-    <t>C57_HFD_333_177</t>
-  </si>
-  <si>
-    <t>C57_HFD_333_181</t>
-  </si>
-  <si>
-    <t>C57_HFD_333_179</t>
-  </si>
-  <si>
-    <t>C57_HFD_333_178</t>
-  </si>
-  <si>
-    <t>C57_HFD_333_185</t>
-  </si>
-  <si>
-    <t>C57_HFD_333_184</t>
-  </si>
-  <si>
-    <t>C57_HFD</t>
-  </si>
-  <si>
     <t>7/21/25</t>
+  </si>
+  <si>
+    <t>NF1Cohort 2</t>
+  </si>
+  <si>
+    <t>NF1Cohort 1</t>
+  </si>
+  <si>
+    <t>C57HFD</t>
+  </si>
+  <si>
+    <t>NF1Cohort2_003_140_8</t>
+  </si>
+  <si>
+    <t>NF1Cohort2_003_140_11</t>
+  </si>
+  <si>
+    <t>NF1Cohort2_003_141_19</t>
+  </si>
+  <si>
+    <t>NF1Cohort2_003_141_20</t>
+  </si>
+  <si>
+    <t>NF1Cohort2_003_147_2</t>
+  </si>
+  <si>
+    <t>NF1Cohort2_003_140_12</t>
+  </si>
+  <si>
+    <t>NF1Cohort2_003_140_15</t>
+  </si>
+  <si>
+    <t>NF1Cohort2_003_146_42</t>
+  </si>
+  <si>
+    <t>NF1Cohort2_003_146_43</t>
+  </si>
+  <si>
+    <t>NF1Cohort2_003_146_47</t>
+  </si>
+  <si>
+    <t>NF1Cohort2_003_141_23</t>
+  </si>
+  <si>
+    <t>NF1Cohort2_003_145_39</t>
+  </si>
+  <si>
+    <t>NF1Cohort2_003_147_7</t>
+  </si>
+  <si>
+    <t>NF1Cohort2_003_147_4</t>
+  </si>
+  <si>
+    <t>NF1Cohort2_003_145_34</t>
+  </si>
+  <si>
+    <t>NF1Cohort2_003_146_46</t>
+  </si>
+  <si>
+    <t>NF1Cohort2_003_144_26</t>
+  </si>
+  <si>
+    <t>NF1Cohort2_003_142_55</t>
+  </si>
+  <si>
+    <t>NF1Cohort2_003_144_28</t>
+  </si>
+  <si>
+    <t>NF1Cohort2_003_146_50</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6930-21</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6931-30</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6928-14</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6928-15</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6925-2</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6935-56</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6935-59</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6935-61</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6928-16</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6926-11</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6925-1</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6925-3</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6935-57</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6931-32</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6939-13</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6939-14</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6940-30</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6941-29</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6960-42</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6944-19</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6948-2</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6960-44</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6949-10</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6961-4</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6955-11</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6955-12</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6955-15</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6953-18</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6953-20</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6953-22</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6959-27</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6961-1</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6961-2</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6955-9</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6953-16</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6953-21</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6952-23</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6958-40</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6958-43</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6956-50</t>
+  </si>
+  <si>
+    <t>NF1Cohort1_222_6956-51</t>
+  </si>
+  <si>
+    <t>C57HFD_333_191</t>
+  </si>
+  <si>
+    <t>C57HFD_333_189</t>
+  </si>
+  <si>
+    <t>C57HFD_333_190</t>
+  </si>
+  <si>
+    <t>C57HFD_333_672</t>
+  </si>
+  <si>
+    <t>C57HFD_333_670</t>
+  </si>
+  <si>
+    <t>C57HFD_333_671</t>
+  </si>
+  <si>
+    <t>C57HFD_333_183</t>
+  </si>
+  <si>
+    <t>C57HFD_333_186</t>
+  </si>
+  <si>
+    <t>C57HFD_333_674</t>
+  </si>
+  <si>
+    <t>C57HFD_333_188</t>
+  </si>
+  <si>
+    <t>C57HFD_333_673</t>
+  </si>
+  <si>
+    <t>C57HFD_333_182</t>
+  </si>
+  <si>
+    <t>C57HFD_333_187</t>
+  </si>
+  <si>
+    <t>C57HFD_333_180</t>
+  </si>
+  <si>
+    <t>C57HFD_333_177</t>
+  </si>
+  <si>
+    <t>C57HFD_333_181</t>
+  </si>
+  <si>
+    <t>C57HFD_333_179</t>
+  </si>
+  <si>
+    <t>C57HFD_333_178</t>
+  </si>
+  <si>
+    <t>C57HFD_333_185</t>
+  </si>
+  <si>
+    <t>C57HFD_333_184</t>
+  </si>
+  <si>
+    <t>CDKL5_005_178_78</t>
+  </si>
+  <si>
+    <t>CDKL5</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>CDKL5_005_178_83</t>
+  </si>
+  <si>
+    <t>CDKL5_005_179_14</t>
+  </si>
+  <si>
+    <t>CDKL5_005_179_20</t>
+  </si>
+  <si>
+    <t>CDKL5_005_180_66</t>
+  </si>
+  <si>
+    <t>CDKL5_005_182_64</t>
+  </si>
+  <si>
+    <t>CDKL5_005_182_65</t>
+  </si>
+  <si>
+    <t>CDKL5_005_183_74</t>
+  </si>
+  <si>
+    <t>CDKL5_005_183_75</t>
+  </si>
+  <si>
+    <t>CDKL5_005_184_3</t>
+  </si>
+  <si>
+    <t>CDKL5_005_179_17</t>
+  </si>
+  <si>
+    <t>CDKL5_005_180_67</t>
+  </si>
+  <si>
+    <t>CDKL5_005_180_69</t>
+  </si>
+  <si>
+    <t>CDKL5_005_182_57</t>
+  </si>
+  <si>
+    <t>CDKL5_005_186_53</t>
+  </si>
+  <si>
+    <t>CDKL5_005_186_55</t>
+  </si>
+  <si>
+    <t>CDKL5_005_275_28</t>
+  </si>
+  <si>
+    <t>CDKL5_005_275_29</t>
+  </si>
+  <si>
+    <t>CDKL5_005_281_35</t>
+  </si>
+  <si>
+    <t>CDKL5_005_281_36</t>
   </si>
 </sst>
 </file>
@@ -631,7 +697,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -639,11 +705,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -657,6 +738,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,11 +1077,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF4FCBB-AC4B-4BE1-B463-C994B1598E3A}">
-  <dimension ref="A1:L142"/>
+  <dimension ref="A1:L162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H84" sqref="H84"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O154" sqref="O154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1095,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1046,8 +1132,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1065,7 +1151,7 @@
       <c r="F2" s="2">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H2" s="2">
@@ -1081,8 +1167,8 @@
         <v>20.07</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1100,7 +1186,7 @@
       <c r="F3" s="2">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H3" s="2">
@@ -1116,8 +1202,8 @@
         <v>19.809999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1135,7 +1221,7 @@
       <c r="F4" s="2">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H4" s="2">
@@ -1151,8 +1237,8 @@
         <v>20.07</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1170,7 +1256,7 @@
       <c r="F5" s="2">
         <v>14</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H5" s="2">
@@ -1186,8 +1272,8 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1205,7 +1291,7 @@
       <c r="F6" s="2">
         <v>15</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H6" s="2">
@@ -1221,8 +1307,8 @@
         <v>20.39</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1240,7 +1326,7 @@
       <c r="F7" s="2">
         <v>16</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H7" s="2">
@@ -1256,8 +1342,8 @@
         <v>19.68</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1275,7 +1361,7 @@
       <c r="F8" s="2">
         <v>17</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H8" s="2">
@@ -1291,8 +1377,8 @@
         <v>20.420000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1310,7 +1396,7 @@
       <c r="F9" s="2">
         <v>18</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H9" s="2">
@@ -1326,8 +1412,8 @@
         <v>20.079999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1345,7 +1431,7 @@
       <c r="F10" s="2">
         <v>19</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H10" s="2">
@@ -1361,8 +1447,8 @@
         <v>20.63</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1380,7 +1466,7 @@
       <c r="F11" s="2">
         <v>20</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H11" s="2">
@@ -1396,8 +1482,8 @@
         <v>20.23</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1415,7 +1501,7 @@
       <c r="F12" s="2">
         <v>31</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H12" s="2">
@@ -1431,8 +1517,8 @@
         <v>26.05</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1450,7 +1536,7 @@
       <c r="F13" s="2">
         <v>32</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H13" s="2">
@@ -1466,8 +1552,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1485,7 +1571,7 @@
       <c r="F14" s="2">
         <v>33</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H14" s="2">
@@ -1501,8 +1587,8 @@
         <v>23.87</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1520,7 +1606,7 @@
       <c r="F15" s="2">
         <v>34</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H15" s="2">
@@ -1536,8 +1622,8 @@
         <v>24.52</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1555,7 +1641,7 @@
       <c r="F16" s="2">
         <v>35</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H16" s="2">
@@ -1571,8 +1657,8 @@
         <v>23.59</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1590,7 +1676,7 @@
       <c r="F17" s="2">
         <v>36</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H17" s="2">
@@ -1606,8 +1692,8 @@
         <v>25.54</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1625,7 +1711,7 @@
       <c r="F18" s="2">
         <v>37</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H18" s="2">
@@ -1641,8 +1727,8 @@
         <v>23.06</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1660,7 +1746,7 @@
       <c r="F19" s="2">
         <v>38</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H19" s="2">
@@ -1676,8 +1762,8 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1695,7 +1781,7 @@
       <c r="F20" s="2">
         <v>39</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H20" s="2">
@@ -1711,8 +1797,8 @@
         <v>27.35</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1730,7 +1816,7 @@
       <c r="F21" s="2">
         <v>40</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H21" s="2">
@@ -1746,8 +1832,8 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1765,7 +1851,7 @@
       <c r="F22" s="2">
         <v>6</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I22" s="2">
@@ -1781,8 +1867,8 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1800,7 +1886,7 @@
       <c r="F23" s="2">
         <v>7</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I23" s="2">
@@ -1816,8 +1902,8 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1835,7 +1921,7 @@
       <c r="F24" s="2">
         <v>7</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="4" t="s">
         <v>68</v>
       </c>
       <c r="H24" s="2">
@@ -1854,8 +1940,8 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1873,7 +1959,7 @@
       <c r="F25" s="2">
         <v>8</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I25" s="2">
@@ -1889,8 +1975,8 @@
         <v>19.38</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1908,7 +1994,7 @@
       <c r="F26" s="2">
         <v>9</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I26" s="2">
@@ -1924,8 +2010,8 @@
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1943,7 +2029,7 @@
       <c r="F27" s="2">
         <v>9</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="4" t="s">
         <v>68</v>
       </c>
       <c r="H27" s="2">
@@ -1962,8 +2048,8 @@
         <v>18.350000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1981,7 +2067,7 @@
       <c r="F28" s="2">
         <v>10</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I28" s="2">
@@ -1997,8 +2083,8 @@
         <v>17.86</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2016,7 +2102,7 @@
       <c r="F29" s="2">
         <v>10</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="4" t="s">
         <v>68</v>
       </c>
       <c r="H29" s="2">
@@ -2035,8 +2121,8 @@
         <v>19.64</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2054,7 +2140,7 @@
       <c r="F30" s="2">
         <v>11</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="4" t="s">
         <v>68</v>
       </c>
       <c r="H30" s="2">
@@ -2073,8 +2159,8 @@
         <v>19.72</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2092,7 +2178,7 @@
       <c r="F31" s="2">
         <v>12</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="4" t="s">
         <v>68</v>
       </c>
       <c r="H31" s="2">
@@ -2111,8 +2197,8 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2130,7 +2216,7 @@
       <c r="F32" s="2">
         <v>15</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I32" s="2">
@@ -2146,8 +2232,8 @@
         <v>25.66</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2165,7 +2251,7 @@
       <c r="F33" s="2">
         <v>17</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I33" s="2">
@@ -2181,8 +2267,8 @@
         <v>23.02</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2200,7 +2286,7 @@
       <c r="F34" s="2">
         <v>17</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="4" t="s">
         <v>68</v>
       </c>
       <c r="H34" s="2">
@@ -2219,8 +2305,8 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2238,7 +2324,7 @@
       <c r="F35" s="2">
         <v>18</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I35" s="2">
@@ -2254,8 +2340,8 @@
         <v>22.12</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2273,7 +2359,7 @@
       <c r="F36" s="2">
         <v>18</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="4" t="s">
         <v>68</v>
       </c>
       <c r="H36" s="2">
@@ -2292,8 +2378,8 @@
         <v>27.32</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2311,7 +2397,7 @@
       <c r="F37" s="2">
         <v>19</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I37" s="2">
@@ -2327,8 +2413,8 @@
         <v>22.38</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2346,7 +2432,7 @@
       <c r="F38" s="2">
         <v>19</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="4" t="s">
         <v>68</v>
       </c>
       <c r="H38" s="2">
@@ -2365,8 +2451,8 @@
         <v>24.28</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2384,7 +2470,7 @@
       <c r="F39" s="2">
         <v>20</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="4" t="s">
         <v>68</v>
       </c>
       <c r="H39" s="2">
@@ -2403,8 +2489,8 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2422,7 +2508,7 @@
       <c r="F40" s="2">
         <v>22</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="4" t="s">
         <v>68</v>
       </c>
       <c r="H40" s="2">
@@ -2441,12 +2527,12 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>160</v>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>37</v>
@@ -2460,7 +2546,7 @@
       <c r="F41" s="2">
         <v>26</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H41" s="2">
@@ -2479,12 +2565,12 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>161</v>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>37</v>
@@ -2498,7 +2584,7 @@
       <c r="F42" s="2">
         <v>27</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H42" s="2">
@@ -2517,12 +2603,12 @@
         <v>18.559999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>142</v>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>37</v>
@@ -2536,7 +2622,7 @@
       <c r="F43" s="2">
         <v>28</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H43" s="2">
@@ -2555,12 +2641,12 @@
         <v>21.47</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>143</v>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>37</v>
@@ -2574,7 +2660,7 @@
       <c r="F44" s="2">
         <v>30</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H44" s="2">
@@ -2593,12 +2679,12 @@
         <v>21.21</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>144</v>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>37</v>
@@ -2612,7 +2698,7 @@
       <c r="F45" s="2">
         <v>32</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H45" s="2">
@@ -2631,12 +2717,12 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>145</v>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>37</v>
@@ -2650,7 +2736,7 @@
       <c r="F46" s="2">
         <v>35</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H46" s="2">
@@ -2669,12 +2755,12 @@
         <v>20.71</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>146</v>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>37</v>
@@ -2688,7 +2774,7 @@
       <c r="F47" s="2">
         <v>39</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H47" s="2">
@@ -2707,12 +2793,12 @@
         <v>18.97</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>147</v>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>37</v>
@@ -2726,7 +2812,7 @@
       <c r="F48" s="2">
         <v>40</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H48" s="2">
@@ -2745,12 +2831,12 @@
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>148</v>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>37</v>
@@ -2764,7 +2850,7 @@
       <c r="F49" s="2">
         <v>47</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H49" s="2">
@@ -2783,12 +2869,12 @@
         <v>19.77</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>149</v>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>37</v>
@@ -2802,7 +2888,7 @@
       <c r="F50" s="2">
         <v>51</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H50" s="2">
@@ -2821,12 +2907,12 @@
         <v>18.88</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>150</v>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>37</v>
@@ -2840,7 +2926,7 @@
       <c r="F51" s="2">
         <v>68</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H51" s="2">
@@ -2859,12 +2945,12 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>151</v>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>37</v>
@@ -2878,7 +2964,7 @@
       <c r="F52" s="2">
         <v>69</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H52" s="2">
@@ -2897,12 +2983,12 @@
         <v>27.91</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>152</v>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>37</v>
@@ -2916,7 +3002,7 @@
       <c r="F53" s="2">
         <v>72</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H53" s="2">
@@ -2935,12 +3021,12 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>153</v>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>37</v>
@@ -2954,7 +3040,7 @@
       <c r="F54" s="2">
         <v>71</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H54" s="2">
@@ -2973,12 +3059,12 @@
         <v>23.01</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>154</v>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>37</v>
@@ -2992,7 +3078,7 @@
       <c r="F55" s="2">
         <v>70</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H55" s="2">
@@ -3011,12 +3097,12 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>155</v>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>37</v>
@@ -3030,7 +3116,7 @@
       <c r="F56" s="2">
         <v>77</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H56" s="2">
@@ -3049,12 +3135,12 @@
         <v>26.07</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>156</v>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>37</v>
@@ -3068,7 +3154,7 @@
       <c r="F57" s="2">
         <v>75</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H57" s="2">
@@ -3087,12 +3173,12 @@
         <v>24.56</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>157</v>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>37</v>
@@ -3106,7 +3192,7 @@
       <c r="F58" s="2">
         <v>74</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H58" s="2">
@@ -3125,12 +3211,12 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>158</v>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>37</v>
@@ -3144,7 +3230,7 @@
       <c r="F59" s="2">
         <v>76</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H59" s="2">
@@ -3163,12 +3249,12 @@
         <v>24.38</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>159</v>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>37</v>
@@ -3182,7 +3268,7 @@
       <c r="F60" s="2">
         <v>79</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H60" s="2">
@@ -3201,12 +3287,12 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>160</v>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>37</v>
@@ -3220,7 +3306,7 @@
       <c r="F61" s="2">
         <v>26</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H61" s="2">
@@ -3239,8 +3325,8 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -3258,7 +3344,7 @@
       <c r="F62" s="2">
         <v>39</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H62" s="2">
@@ -3277,8 +3363,8 @@
         <v>25.53</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -3296,7 +3382,7 @@
       <c r="F63" s="2">
         <v>37</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H63" s="2">
@@ -3315,8 +3401,8 @@
         <v>24.48</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -3334,7 +3420,7 @@
       <c r="F64" s="2">
         <v>36</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H64" s="2">
@@ -3353,8 +3439,8 @@
         <v>26.41</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -3372,7 +3458,7 @@
       <c r="F65" s="2">
         <v>10</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H65" s="2">
@@ -3391,8 +3477,8 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -3410,7 +3496,7 @@
       <c r="F66" s="2">
         <v>9</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H66" s="2">
@@ -3429,8 +3515,8 @@
         <v>20.22</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -3448,7 +3534,7 @@
       <c r="F67" s="2">
         <v>38</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H67" s="2">
@@ -3467,8 +3553,8 @@
         <v>24.83</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -3486,7 +3572,7 @@
       <c r="F68" s="2">
         <v>8</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H68" s="2">
@@ -3505,8 +3591,8 @@
         <v>18.86</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -3524,7 +3610,7 @@
       <c r="F69" s="2">
         <v>35</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H69" s="2">
@@ -3543,8 +3629,8 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -3562,7 +3648,7 @@
       <c r="F70" s="2">
         <v>6</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H70" s="2">
@@ -3581,8 +3667,8 @@
         <v>20.45</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -3600,7 +3686,7 @@
       <c r="F71" s="2">
         <v>34</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H71" s="2">
@@ -3619,8 +3705,8 @@
         <v>26.94</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -3638,7 +3724,7 @@
       <c r="F72" s="2">
         <v>33</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H72" s="2">
@@ -3657,8 +3743,8 @@
         <v>26.04</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -3676,7 +3762,7 @@
       <c r="F73" s="2">
         <v>7</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H73" s="2">
@@ -3695,8 +3781,8 @@
         <v>21.11</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -3714,7 +3800,7 @@
       <c r="F74" s="2">
         <v>53</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H74" s="2">
@@ -3733,8 +3819,8 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -3752,7 +3838,7 @@
       <c r="F75" s="2">
         <v>17</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H75" s="2">
@@ -3771,8 +3857,8 @@
         <v>19.559999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -3790,7 +3876,7 @@
       <c r="F76" s="2">
         <v>16</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H76" s="2">
@@ -3809,8 +3895,8 @@
         <v>20.95</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -3828,7 +3914,7 @@
       <c r="F77" s="2">
         <v>25</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H77" s="2">
@@ -3847,8 +3933,8 @@
         <v>20.309999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -3866,7 +3952,7 @@
       <c r="F78" s="2">
         <v>24</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H78" s="2">
@@ -3885,8 +3971,8 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -3904,7 +3990,7 @@
       <c r="F79" s="2">
         <v>51</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H79" s="2">
@@ -3923,8 +4009,8 @@
         <v>23.76</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -3942,7 +4028,7 @@
       <c r="F80" s="2">
         <v>52</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H80" s="2">
@@ -3961,8 +4047,8 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -3980,7 +4066,7 @@
       <c r="F81" s="2">
         <v>23</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" s="4" t="s">
         <v>86</v>
       </c>
       <c r="H81" s="2">
@@ -3999,12 +4085,12 @@
         <v>19.41</v>
       </c>
     </row>
-    <row r="82" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="C82" s="2">
         <v>222</v>
@@ -4018,16 +4104,16 @@
       <c r="F82" s="2">
         <v>14</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>102</v>
+      <c r="G82" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C83" s="2">
         <v>222</v>
@@ -4041,16 +4127,16 @@
       <c r="F83" s="2">
         <v>21</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>103</v>
+      <c r="G83" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C84" s="2">
         <v>222</v>
@@ -4064,16 +4150,16 @@
       <c r="F84" s="2">
         <v>24</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>104</v>
+      <c r="G84" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C85" s="2">
         <v>222</v>
@@ -4087,16 +4173,16 @@
       <c r="F85" s="2">
         <v>25</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>105</v>
+      <c r="G85" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C86" s="2">
         <v>222</v>
@@ -4110,16 +4196,16 @@
       <c r="F86" s="2">
         <v>31</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>106</v>
+      <c r="G86" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C87" s="2">
         <v>222</v>
@@ -4133,16 +4219,16 @@
       <c r="F87" s="2">
         <v>42</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>107</v>
+      <c r="G87" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C88" s="2">
         <v>222</v>
@@ -4156,16 +4242,16 @@
       <c r="F88" s="2">
         <v>43</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>108</v>
+      <c r="G88" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C89" s="2">
         <v>222</v>
@@ -4179,16 +4265,16 @@
       <c r="F89" s="2">
         <v>45</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>109</v>
+      <c r="G89" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C90" s="2">
         <v>222</v>
@@ -4202,16 +4288,16 @@
       <c r="F90" s="2">
         <v>51</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>110</v>
+      <c r="G90" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C91" s="2">
         <v>222</v>
@@ -4225,16 +4311,16 @@
       <c r="F91" s="2">
         <v>64</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>111</v>
+      <c r="G91" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C92" s="2">
         <v>222</v>
@@ -4248,16 +4334,16 @@
       <c r="F92" s="2">
         <v>91</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>112</v>
+      <c r="G92" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C93" s="2">
         <v>222</v>
@@ -4271,16 +4357,16 @@
       <c r="F93" s="2">
         <v>92</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>113</v>
+      <c r="G93" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C94" s="2">
         <v>222</v>
@@ -4294,16 +4380,16 @@
       <c r="F94" s="2">
         <v>94</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>114</v>
+      <c r="G94" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C95" s="2">
         <v>222</v>
@@ -4317,16 +4403,16 @@
       <c r="F95" s="2">
         <v>113</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>115</v>
+      <c r="G95" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C96" s="2">
         <v>222</v>
@@ -4340,16 +4426,16 @@
       <c r="F96" s="2">
         <v>151</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>116</v>
+      <c r="G96" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C97" s="2">
         <v>222</v>
@@ -4363,16 +4449,16 @@
       <c r="F97" s="2">
         <v>152</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>117</v>
+      <c r="G97" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C98" s="2">
         <v>222</v>
@@ -4386,16 +4472,16 @@
       <c r="F98" s="2">
         <v>153</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>118</v>
+      <c r="G98" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C99" s="2">
         <v>222</v>
@@ -4409,16 +4495,16 @@
       <c r="F99" s="2">
         <v>161</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>119</v>
+      <c r="G99" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C100" s="2">
         <v>222</v>
@@ -4432,16 +4518,16 @@
       <c r="F100" s="2">
         <v>164</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>120</v>
+      <c r="G100" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C101" s="2">
         <v>222</v>
@@ -4455,16 +4541,16 @@
       <c r="F101" s="2">
         <v>171</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>121</v>
+      <c r="G101" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C102" s="2">
         <v>222</v>
@@ -4478,16 +4564,16 @@
       <c r="F102" s="2">
         <v>173</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>122</v>
+      <c r="G102" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C103" s="2">
         <v>222</v>
@@ -4501,16 +4587,16 @@
       <c r="F103" s="2">
         <v>174</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>123</v>
+      <c r="G103" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C104" s="2">
         <v>222</v>
@@ -4524,16 +4610,16 @@
       <c r="F104" s="2">
         <v>175</v>
       </c>
-      <c r="G104" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>124</v>
+      <c r="G104" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C105" s="2">
         <v>222</v>
@@ -4547,16 +4633,16 @@
       <c r="F105" s="2">
         <v>251</v>
       </c>
-      <c r="G105" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>125</v>
+      <c r="G105" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C106" s="2">
         <v>222</v>
@@ -4570,16 +4656,16 @@
       <c r="F106" s="2">
         <v>252</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>126</v>
+      <c r="G106" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C107" s="2">
         <v>222</v>
@@ -4593,16 +4679,16 @@
       <c r="F107" s="2">
         <v>253</v>
       </c>
-      <c r="G107" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>127</v>
+      <c r="G107" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C108" s="2">
         <v>222</v>
@@ -4616,16 +4702,16 @@
       <c r="F108" s="2">
         <v>254</v>
       </c>
-      <c r="G108" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>128</v>
+      <c r="G108" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C109" s="2">
         <v>222</v>
@@ -4639,16 +4725,16 @@
       <c r="F109" s="2">
         <v>261</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>129</v>
+      <c r="G109" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C110" s="2">
         <v>222</v>
@@ -4662,16 +4748,16 @@
       <c r="F110" s="2">
         <v>262</v>
       </c>
-      <c r="G110" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>130</v>
+      <c r="G110" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C111" s="2">
         <v>222</v>
@@ -4685,16 +4771,16 @@
       <c r="F111" s="2">
         <v>263</v>
       </c>
-      <c r="G111" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>131</v>
+      <c r="G111" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C112" s="2">
         <v>222</v>
@@ -4708,16 +4794,16 @@
       <c r="F112" s="2">
         <v>264</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>132</v>
+      <c r="G112" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C113" s="2">
         <v>222</v>
@@ -4731,16 +4817,16 @@
       <c r="F113" s="2">
         <v>291</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>133</v>
+      <c r="G113" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C114" s="2">
         <v>222</v>
@@ -4754,16 +4840,16 @@
       <c r="F114" s="2">
         <v>292</v>
       </c>
-      <c r="G114" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>134</v>
+      <c r="G114" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C115" s="2">
         <v>222</v>
@@ -4777,16 +4863,16 @@
       <c r="F115" s="2">
         <v>293</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>135</v>
+      <c r="G115" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C116" s="2">
         <v>222</v>
@@ -4800,16 +4886,16 @@
       <c r="F116" s="2">
         <v>294</v>
       </c>
-      <c r="G116" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>136</v>
+      <c r="G116" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C117" s="2">
         <v>222</v>
@@ -4823,16 +4909,16 @@
       <c r="F117" s="2">
         <v>295</v>
       </c>
-      <c r="G117" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>137</v>
+      <c r="G117" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C118" s="2">
         <v>222</v>
@@ -4846,16 +4932,16 @@
       <c r="F118" s="2">
         <v>301</v>
       </c>
-      <c r="G118" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>138</v>
+      <c r="G118" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C119" s="2">
         <v>222</v>
@@ -4869,16 +4955,16 @@
       <c r="F119" s="2">
         <v>302</v>
       </c>
-      <c r="G119" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>139</v>
+      <c r="G119" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C120" s="2">
         <v>222</v>
@@ -4892,16 +4978,16 @@
       <c r="F120" s="2">
         <v>303</v>
       </c>
-      <c r="G120" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>140</v>
+      <c r="G120" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C121" s="2">
         <v>222</v>
@@ -4915,16 +5001,16 @@
       <c r="F121" s="2">
         <v>304</v>
       </c>
-      <c r="G121" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>141</v>
+      <c r="G121" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C122" s="2">
         <v>222</v>
@@ -4938,16 +5024,16 @@
       <c r="F122" s="2">
         <v>305</v>
       </c>
-      <c r="G122" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>162</v>
+      <c r="G122" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C123" s="2">
         <v>333</v>
@@ -4965,12 +5051,12 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="124" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>163</v>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C124" s="2">
         <v>333</v>
@@ -4984,16 +5070,16 @@
       <c r="F124" s="2">
         <v>59</v>
       </c>
-      <c r="G124" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>164</v>
+      <c r="G124" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C125" s="2">
         <v>333</v>
@@ -5007,16 +5093,16 @@
       <c r="F125" s="2">
         <v>60</v>
       </c>
-      <c r="G125" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>165</v>
+      <c r="G125" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C126" s="2">
         <v>333</v>
@@ -5030,16 +5116,16 @@
       <c r="F126" s="2">
         <v>61</v>
       </c>
-      <c r="G126" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>166</v>
+      <c r="G126" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C127" s="2">
         <v>333</v>
@@ -5053,16 +5139,16 @@
       <c r="F127" s="2">
         <v>62</v>
       </c>
-      <c r="G127" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>167</v>
+      <c r="G127" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C128" s="2">
         <v>333</v>
@@ -5076,16 +5162,16 @@
       <c r="F128" s="2">
         <v>63</v>
       </c>
-      <c r="G128" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>168</v>
+      <c r="G128" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C129" s="2">
         <v>333</v>
@@ -5099,16 +5185,16 @@
       <c r="F129" s="2">
         <v>65</v>
       </c>
-      <c r="G129" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>169</v>
+      <c r="G129" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C130" s="2">
         <v>333</v>
@@ -5122,16 +5208,16 @@
       <c r="F130" s="2">
         <v>66</v>
       </c>
-      <c r="G130" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>170</v>
+      <c r="G130" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C131" s="2">
         <v>333</v>
@@ -5145,16 +5231,16 @@
       <c r="F131" s="2">
         <v>67</v>
       </c>
-      <c r="G131" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>171</v>
+      <c r="G131" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C132" s="2">
         <v>333</v>
@@ -5168,16 +5254,16 @@
       <c r="F132" s="2">
         <v>68</v>
       </c>
-      <c r="G132" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>172</v>
+      <c r="G132" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C133" s="2">
         <v>333</v>
@@ -5191,16 +5277,16 @@
       <c r="F133" s="2">
         <v>69</v>
       </c>
-      <c r="G133" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>173</v>
+      <c r="G133" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C134" s="2">
         <v>333</v>
@@ -5214,16 +5300,16 @@
       <c r="F134" s="2">
         <v>70</v>
       </c>
-      <c r="G134" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>174</v>
+      <c r="G134" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C135" s="2">
         <v>333</v>
@@ -5237,16 +5323,16 @@
       <c r="F135" s="2">
         <v>71</v>
       </c>
-      <c r="G135" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>175</v>
+      <c r="G135" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C136" s="2">
         <v>333</v>
@@ -5260,16 +5346,16 @@
       <c r="F136" s="2">
         <v>72</v>
       </c>
-      <c r="G136" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>176</v>
+      <c r="G136" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C137" s="2">
         <v>333</v>
@@ -5283,16 +5369,16 @@
       <c r="F137" s="2">
         <v>74</v>
       </c>
-      <c r="G137" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>177</v>
+      <c r="G137" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C138" s="2">
         <v>333</v>
@@ -5306,16 +5392,16 @@
       <c r="F138" s="2">
         <v>75</v>
       </c>
-      <c r="G138" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>178</v>
+      <c r="G138" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C139" s="2">
         <v>333</v>
@@ -5329,16 +5415,16 @@
       <c r="F139" s="2">
         <v>76</v>
       </c>
-      <c r="G139" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>179</v>
+      <c r="G139" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C140" s="2">
         <v>333</v>
@@ -5352,16 +5438,16 @@
       <c r="F140" s="2">
         <v>77</v>
       </c>
-      <c r="G140" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>180</v>
+      <c r="G140" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C141" s="2">
         <v>333</v>
@@ -5375,16 +5461,16 @@
       <c r="F141" s="2">
         <v>79</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="G141" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="B142" s="2" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C142" s="2">
         <v>333</v>
@@ -5398,8 +5484,768 @@
       <c r="F142" s="2">
         <v>80</v>
       </c>
-      <c r="G142" s="2" t="s">
-        <v>183</v>
+      <c r="G142" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="2">
+        <v>33</v>
+      </c>
+      <c r="G143" s="7">
+        <v>45936</v>
+      </c>
+      <c r="H143" s="5">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="I143" s="5">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="J143" s="5">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="K143" s="5">
+        <v>18.98</v>
+      </c>
+      <c r="L143" s="5">
+        <v>19.61</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="2">
+        <v>36</v>
+      </c>
+      <c r="G144" s="7">
+        <v>45936</v>
+      </c>
+      <c r="H144" s="5">
+        <v>18.73</v>
+      </c>
+      <c r="I144" s="5">
+        <v>18.22</v>
+      </c>
+      <c r="J144" s="5">
+        <v>19.32</v>
+      </c>
+      <c r="K144" s="5">
+        <v>18.86</v>
+      </c>
+      <c r="L144" s="5">
+        <v>18.84</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" s="2">
+        <v>34</v>
+      </c>
+      <c r="G145" s="7">
+        <v>45936</v>
+      </c>
+      <c r="H145" s="5">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="I145" s="5">
+        <v>16.63</v>
+      </c>
+      <c r="J145" s="5">
+        <v>17.79</v>
+      </c>
+      <c r="K145" s="5">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="L145" s="5">
+        <v>18.670000000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146" s="2">
+        <v>35</v>
+      </c>
+      <c r="G146" s="7">
+        <v>45936</v>
+      </c>
+      <c r="H146" s="5">
+        <v>15.93</v>
+      </c>
+      <c r="I146" s="5">
+        <v>15.61</v>
+      </c>
+      <c r="J146" s="5">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="K146" s="5">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="L146" s="5">
+        <v>17.38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147" s="2">
+        <v>27</v>
+      </c>
+      <c r="G147" s="7">
+        <v>45936</v>
+      </c>
+      <c r="H147" s="5">
+        <v>19</v>
+      </c>
+      <c r="I147" s="5">
+        <v>19.27</v>
+      </c>
+      <c r="J147" s="5">
+        <v>19.73</v>
+      </c>
+      <c r="K147" s="5">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="L147" s="5">
+        <v>19.559999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148" s="2">
+        <v>28</v>
+      </c>
+      <c r="G148" s="7">
+        <v>45936</v>
+      </c>
+      <c r="H148" s="5">
+        <v>19.32</v>
+      </c>
+      <c r="I148" s="5">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="J148" s="5">
+        <v>20.61</v>
+      </c>
+      <c r="K148" s="5">
+        <v>19.16</v>
+      </c>
+      <c r="L148" s="5">
+        <v>20.21</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="2">
+        <v>45</v>
+      </c>
+      <c r="G149" s="7">
+        <v>45936</v>
+      </c>
+      <c r="H149" s="5">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="I149" s="5">
+        <v>19.05</v>
+      </c>
+      <c r="J149" s="5">
+        <v>20.04</v>
+      </c>
+      <c r="K149" s="5">
+        <v>19.66</v>
+      </c>
+      <c r="L149" s="5">
+        <v>20.74</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="2">
+        <v>50</v>
+      </c>
+      <c r="G150" s="7">
+        <v>45936</v>
+      </c>
+      <c r="H150" s="5">
+        <v>19.29</v>
+      </c>
+      <c r="I150" s="5">
+        <v>18.43</v>
+      </c>
+      <c r="J150" s="5">
+        <v>20.53</v>
+      </c>
+      <c r="K150" s="5">
+        <v>18.98</v>
+      </c>
+      <c r="L150" s="5">
+        <v>21.04</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="2">
+        <v>26</v>
+      </c>
+      <c r="G151" s="7">
+        <v>45936</v>
+      </c>
+      <c r="H151" s="5">
+        <v>20.41</v>
+      </c>
+      <c r="I151" s="5">
+        <v>19.37</v>
+      </c>
+      <c r="J151" s="5">
+        <v>20.59</v>
+      </c>
+      <c r="K151" s="5">
+        <v>20.38</v>
+      </c>
+      <c r="L151" s="5">
+        <v>21.01</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="2">
+        <v>37</v>
+      </c>
+      <c r="G152" s="7">
+        <v>45936</v>
+      </c>
+      <c r="H152" s="5">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="I152" s="5">
+        <v>17.23</v>
+      </c>
+      <c r="J152" s="5">
+        <v>19.18</v>
+      </c>
+      <c r="K152" s="5">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="L152" s="5">
+        <v>19.27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="2">
+        <v>38</v>
+      </c>
+      <c r="G153" s="7">
+        <v>45936</v>
+      </c>
+      <c r="H153" s="5">
+        <v>23.03</v>
+      </c>
+      <c r="I153" s="5">
+        <v>22.24</v>
+      </c>
+      <c r="J153" s="5">
+        <v>22.4</v>
+      </c>
+      <c r="K153" s="5">
+        <v>22.23</v>
+      </c>
+      <c r="L153" s="5">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="2">
+        <v>53</v>
+      </c>
+      <c r="G154" s="7">
+        <v>45936</v>
+      </c>
+      <c r="H154" s="5">
+        <v>25.27</v>
+      </c>
+      <c r="I154" s="5">
+        <v>24.61</v>
+      </c>
+      <c r="J154" s="5">
+        <v>25.7</v>
+      </c>
+      <c r="K154" s="5">
+        <v>24.89</v>
+      </c>
+      <c r="L154" s="5">
+        <v>24.67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="2">
+        <v>19</v>
+      </c>
+      <c r="G155" s="7">
+        <v>45936</v>
+      </c>
+      <c r="H155" s="5">
+        <v>24.76</v>
+      </c>
+      <c r="I155" s="5">
+        <v>23.8</v>
+      </c>
+      <c r="J155" s="5">
+        <v>25.98</v>
+      </c>
+      <c r="K155" s="5">
+        <v>23.86</v>
+      </c>
+      <c r="L155" s="5">
+        <v>24.06</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="2">
+        <v>20</v>
+      </c>
+      <c r="G156" s="7">
+        <v>45936</v>
+      </c>
+      <c r="H156" s="5">
+        <v>25.52</v>
+      </c>
+      <c r="I156" s="5">
+        <v>24.94</v>
+      </c>
+      <c r="J156" s="5">
+        <v>25.74</v>
+      </c>
+      <c r="K156" s="5">
+        <v>24.85</v>
+      </c>
+      <c r="L156" s="5">
+        <v>25.21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="2">
+        <v>52</v>
+      </c>
+      <c r="G157" s="7">
+        <v>45936</v>
+      </c>
+      <c r="H157" s="5">
+        <v>25.14</v>
+      </c>
+      <c r="I157" s="5">
+        <v>24.64</v>
+      </c>
+      <c r="J157" s="5">
+        <v>25.32</v>
+      </c>
+      <c r="K157" s="5">
+        <v>24.47</v>
+      </c>
+      <c r="L157" s="5">
+        <v>24.92</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="2">
+        <v>18</v>
+      </c>
+      <c r="G158" s="7">
+        <v>45936</v>
+      </c>
+      <c r="H158" s="5">
+        <v>27.26</v>
+      </c>
+      <c r="I158" s="5">
+        <v>26.57</v>
+      </c>
+      <c r="J158" s="5">
+        <v>26.7</v>
+      </c>
+      <c r="K158" s="5">
+        <v>25.9</v>
+      </c>
+      <c r="L158" s="5">
+        <v>25.38</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="2">
+        <v>40</v>
+      </c>
+      <c r="G159" s="7">
+        <v>45936</v>
+      </c>
+      <c r="H159" s="5">
+        <v>23.52</v>
+      </c>
+      <c r="I159" s="5">
+        <v>22.96</v>
+      </c>
+      <c r="J159" s="5">
+        <v>23.92</v>
+      </c>
+      <c r="K159" s="5">
+        <v>23.18</v>
+      </c>
+      <c r="L159" s="5">
+        <v>23.86</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="2">
+        <v>46</v>
+      </c>
+      <c r="G160" s="7">
+        <v>45936</v>
+      </c>
+      <c r="H160" s="5">
+        <v>22.71</v>
+      </c>
+      <c r="I160" s="5">
+        <v>21.77</v>
+      </c>
+      <c r="J160" s="5">
+        <v>22.82</v>
+      </c>
+      <c r="K160" s="5">
+        <v>21.97</v>
+      </c>
+      <c r="L160" s="5">
+        <v>22.45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="2">
+        <v>25</v>
+      </c>
+      <c r="G161" s="7">
+        <v>45936</v>
+      </c>
+      <c r="H161" s="5">
+        <v>22.58</v>
+      </c>
+      <c r="I161" s="5">
+        <v>22.24</v>
+      </c>
+      <c r="J161" s="5">
+        <v>23.03</v>
+      </c>
+      <c r="K161" s="5">
+        <v>22.39</v>
+      </c>
+      <c r="L161" s="5">
+        <v>23.56</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" s="2">
+        <v>39</v>
+      </c>
+      <c r="G162" s="7">
+        <v>45936</v>
+      </c>
+      <c r="H162" s="5">
+        <v>22.69</v>
+      </c>
+      <c r="I162" s="5">
+        <v>22.13</v>
+      </c>
+      <c r="J162" s="5">
+        <v>22.67</v>
+      </c>
+      <c r="K162" s="5">
+        <v>22.31</v>
+      </c>
+      <c r="L162" s="5">
+        <v>22.78</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Bandit paper Key.xlsx
+++ b/Data/Bandit paper Key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gowustl-my.sharepoint.com/personal/murrell_wustl_edu/Documents/Documents/Github/Murrell2025/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="8_{F8E0B11F-43C0-4782-8D95-C5B9BD28F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{839A5803-3A9F-456A-AF55-A2A4E4E690A0}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="8_{F8E0B11F-43C0-4782-8D95-C5B9BD28F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34656A20-6417-4378-82CB-7C38FFE50D46}"/>
   <bookViews>
-    <workbookView xWindow="-26025" yWindow="900" windowWidth="23505" windowHeight="13800" xr2:uid="{D69361D2-749D-4D5A-8D7C-5685B1F0A3DD}"/>
+    <workbookView xWindow="-24240" yWindow="960" windowWidth="23505" windowHeight="13800" xr2:uid="{D69361D2-749D-4D5A-8D7C-5685B1F0A3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="205">
   <si>
     <t>Mouse_ID</t>
   </si>
@@ -56,9 +56,6 @@
     <t>FED3</t>
   </si>
   <si>
-    <t>FED_Startdate</t>
-  </si>
-  <si>
     <t>MYT1L_001_1_1</t>
   </si>
   <si>
@@ -335,9 +332,6 @@
     <t>09/08/2024</t>
   </si>
   <si>
-    <t>7/21/25</t>
-  </si>
-  <si>
     <t>NF1Cohort 2</t>
   </si>
   <si>
@@ -654,6 +648,9 @@
   </si>
   <si>
     <t>CDKL5_005_281_36</t>
+  </si>
+  <si>
+    <t>FED_StartDate</t>
   </si>
 </sst>
 </file>
@@ -724,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -738,7 +735,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -758,6 +754,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1080,8 +1080,8 @@
   <dimension ref="A1:L162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O154" sqref="O154"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G123" sqref="G123:G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,13 +1089,13 @@
     <col min="1" max="1" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1114,45 +1114,45 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2">
         <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2">
         <v>18.260000000000002</v>
@@ -1168,26 +1168,26 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>22</v>
+      <c r="A3" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2">
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2">
         <v>18.350000000000001</v>
@@ -1203,26 +1203,26 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>24</v>
+      <c r="A4" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2">
         <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2">
         <v>18.5</v>
@@ -1238,26 +1238,26 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
+      <c r="A5" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2">
         <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="2">
         <v>18.46</v>
@@ -1273,26 +1273,26 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>18</v>
+      <c r="A6" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2">
         <v>15</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" s="2">
         <v>19.91</v>
@@ -1308,26 +1308,26 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>30</v>
+      <c r="A7" t="s">
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2">
         <v>16</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" s="2">
         <v>18.48</v>
@@ -1343,26 +1343,26 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>26</v>
+      <c r="A8" t="s">
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2">
         <v>17</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" s="2">
         <v>19.95</v>
@@ -1378,26 +1378,26 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>29</v>
+      <c r="A9" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2">
         <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="2">
         <v>17.53</v>
@@ -1413,26 +1413,26 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
+      <c r="A10" t="s">
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2">
         <v>19</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" s="2">
         <v>20.25</v>
@@ -1448,26 +1448,26 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>17</v>
+      <c r="A11" t="s">
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2">
         <v>20</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H11" s="2">
         <v>19.239999999999998</v>
@@ -1483,26 +1483,26 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>20</v>
+      <c r="A12" t="s">
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2">
         <v>31</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="2">
         <v>26.74</v>
@@ -1518,26 +1518,26 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
+      <c r="A13" t="s">
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2">
         <v>32</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="2">
         <v>26.66</v>
@@ -1553,26 +1553,26 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>23</v>
+      <c r="A14" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2">
         <v>33</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H14" s="2">
         <v>24.43</v>
@@ -1588,26 +1588,26 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>12</v>
+      <c r="A15" t="s">
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2">
         <v>34</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="2">
         <v>24.61</v>
@@ -1623,26 +1623,26 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>19</v>
+      <c r="A16" t="s">
+        <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="2">
         <v>35</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" s="2">
         <v>23.28</v>
@@ -1658,26 +1658,26 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>25</v>
+      <c r="A17" t="s">
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2">
         <v>36</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" s="2">
         <v>26.96</v>
@@ -1693,26 +1693,26 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>27</v>
+      <c r="A18" t="s">
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2">
         <v>37</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H18" s="2">
         <v>24.15</v>
@@ -1728,26 +1728,26 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>28</v>
+      <c r="A19" t="s">
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="2">
         <v>38</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H19" s="2">
         <v>26.43</v>
@@ -1763,26 +1763,26 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>15</v>
+      <c r="A20" t="s">
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="2">
         <v>39</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" s="2">
         <v>27.54</v>
@@ -1798,26 +1798,26 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>16</v>
+      <c r="A21" t="s">
+        <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="2">
         <v>40</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="2">
         <v>26.44</v>
@@ -1833,26 +1833,26 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="2">
         <v>6</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I22" s="2">
         <v>20.45</v>
@@ -1868,26 +1868,26 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>66</v>
+      <c r="A23" t="s">
+        <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="2">
         <v>7</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I23" s="2">
         <v>17.48</v>
@@ -1903,26 +1903,26 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>67</v>
+      <c r="A24" t="s">
+        <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="2">
         <v>7</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H24" s="2">
         <v>19.52</v>
@@ -1941,26 +1941,26 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>69</v>
+      <c r="A25" t="s">
+        <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="2">
         <v>8</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I25" s="2">
         <v>18.03</v>
@@ -1976,26 +1976,26 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>70</v>
+      <c r="A26" t="s">
+        <v>69</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="2">
         <v>9</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I26" s="2">
         <v>17.72</v>
@@ -2011,26 +2011,26 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>71</v>
+      <c r="A27" t="s">
+        <v>70</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="2">
         <v>9</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H27" s="2">
         <v>18.05</v>
@@ -2049,26 +2049,26 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>72</v>
+      <c r="A28" t="s">
+        <v>71</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2">
+        <v>10</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="2">
-        <v>10</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="I28" s="2">
         <v>16.920000000000002</v>
@@ -2084,26 +2084,26 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>73</v>
+      <c r="A29" t="s">
+        <v>72</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="2">
         <v>10</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H29" s="2">
         <v>18.809999999999999</v>
@@ -2122,26 +2122,26 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>74</v>
+      <c r="A30" t="s">
+        <v>73</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="2">
         <v>11</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H30" s="2">
         <v>19.2</v>
@@ -2160,26 +2160,26 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>75</v>
+      <c r="A31" t="s">
+        <v>74</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" s="2">
         <v>12</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H31" s="2">
         <v>20.38</v>
@@ -2198,26 +2198,26 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>76</v>
+      <c r="A32" t="s">
+        <v>75</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="2">
         <v>15</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I32" s="2">
         <v>24.16</v>
@@ -2233,26 +2233,26 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>77</v>
+      <c r="A33" t="s">
+        <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" s="2">
         <v>17</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I33" s="2">
         <v>21.54</v>
@@ -2268,26 +2268,26 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>78</v>
+      <c r="A34" t="s">
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" s="2">
         <v>17</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H34" s="2">
         <v>25.04</v>
@@ -2306,26 +2306,26 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>79</v>
+      <c r="A35" t="s">
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35" s="2">
         <v>18</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I35" s="2">
         <v>21.7</v>
@@ -2341,26 +2341,26 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>80</v>
+      <c r="A36" t="s">
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" s="2">
         <v>18</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" s="2">
         <v>26.89</v>
@@ -2379,26 +2379,26 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>81</v>
+      <c r="A37" t="s">
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" s="2">
         <v>19</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I37" s="2">
         <v>21.37</v>
@@ -2414,26 +2414,26 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>82</v>
+      <c r="A38" t="s">
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" s="2">
         <v>19</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" s="2">
         <v>23.89</v>
@@ -2452,26 +2452,26 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>83</v>
+      <c r="A39" t="s">
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F39" s="2">
         <v>20</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H39" s="2">
         <v>24.85</v>
@@ -2490,26 +2490,26 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>84</v>
+      <c r="A40" t="s">
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" s="2">
         <v>22</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" s="2">
         <v>25.87</v>
@@ -2528,26 +2528,26 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>103</v>
+      <c r="A41" t="s">
+        <v>101</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F41" s="2">
         <v>26</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H41" s="2">
         <v>18.93</v>
@@ -2566,26 +2566,26 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>104</v>
+      <c r="A42" t="s">
+        <v>102</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F42" s="2">
         <v>27</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H42" s="2">
         <v>20.02</v>
@@ -2604,26 +2604,26 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>105</v>
+      <c r="A43" t="s">
+        <v>103</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43" s="2">
         <v>28</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H43" s="2">
         <v>20.34</v>
@@ -2642,26 +2642,26 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>106</v>
+      <c r="A44" t="s">
+        <v>104</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F44" s="2">
         <v>30</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H44" s="2">
         <v>20.059999999999999</v>
@@ -2680,26 +2680,26 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>107</v>
+      <c r="A45" t="s">
+        <v>105</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F45" s="2">
         <v>32</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H45" s="2">
         <v>20.16</v>
@@ -2718,26 +2718,26 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>108</v>
+      <c r="A46" t="s">
+        <v>106</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" s="2">
         <v>35</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H46" s="2">
         <v>19.53</v>
@@ -2756,26 +2756,26 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>109</v>
+      <c r="A47" t="s">
+        <v>107</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F47" s="2">
         <v>39</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H47" s="2">
         <v>18.32</v>
@@ -2794,26 +2794,26 @@
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>110</v>
+      <c r="A48" t="s">
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F48" s="2">
         <v>40</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H48" s="2">
         <v>17.54</v>
@@ -2832,26 +2832,26 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>111</v>
+      <c r="A49" t="s">
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F49" s="2">
         <v>47</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H49" s="2">
         <v>19.71</v>
@@ -2870,26 +2870,26 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>112</v>
+      <c r="A50" t="s">
+        <v>110</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F50" s="2">
         <v>51</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H50" s="2">
         <v>18.32</v>
@@ -2908,26 +2908,26 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>113</v>
+      <c r="A51" t="s">
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F51" s="2">
         <v>68</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H51" s="2">
         <v>27.55</v>
@@ -2946,26 +2946,26 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>114</v>
+      <c r="A52" t="s">
+        <v>112</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52" s="2">
         <v>69</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H52" s="2">
         <v>29.7</v>
@@ -2984,26 +2984,26 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>115</v>
+      <c r="A53" t="s">
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53" s="2">
         <v>72</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H53" s="2">
         <v>23.45</v>
@@ -3022,26 +3022,26 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>116</v>
+      <c r="A54" t="s">
+        <v>114</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F54" s="2">
         <v>71</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H54" s="2">
         <v>24.16</v>
@@ -3060,26 +3060,26 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>117</v>
+      <c r="A55" t="s">
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F55" s="2">
         <v>70</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H55" s="2">
         <v>30.04</v>
@@ -3098,26 +3098,26 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>118</v>
+      <c r="A56" t="s">
+        <v>116</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F56" s="2">
         <v>77</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H56" s="2">
         <v>26.71</v>
@@ -3136,26 +3136,26 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>119</v>
+      <c r="A57" t="s">
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F57" s="2">
         <v>75</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H57" s="2">
         <v>26.89</v>
@@ -3174,26 +3174,26 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>120</v>
+      <c r="A58" t="s">
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F58" s="2">
         <v>74</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H58" s="2">
         <v>24.73</v>
@@ -3212,26 +3212,26 @@
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>121</v>
+      <c r="A59" t="s">
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F59" s="2">
         <v>76</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H59" s="2">
         <v>25.36</v>
@@ -3250,26 +3250,26 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>122</v>
+      <c r="A60" t="s">
+        <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F60" s="2">
         <v>79</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H60" s="2">
         <v>22.73</v>
@@ -3288,26 +3288,26 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>103</v>
+      <c r="A61" t="s">
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F61" s="2">
         <v>26</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H61" s="2">
         <v>18.93</v>
@@ -3326,26 +3326,26 @@
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>59</v>
+      <c r="A62" t="s">
+        <v>58</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D62" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F62" s="2">
         <v>39</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H62" s="2">
         <v>24.96</v>
@@ -3364,26 +3364,26 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>58</v>
+      <c r="A63" t="s">
+        <v>57</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D63" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F63" s="2">
         <v>37</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H63" s="2">
         <v>23.06</v>
@@ -3402,26 +3402,26 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>57</v>
+      <c r="A64" t="s">
+        <v>56</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F64" s="2">
         <v>36</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H64" s="2">
         <v>28.22</v>
@@ -3440,26 +3440,26 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>56</v>
+      <c r="A65" t="s">
+        <v>55</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F65" s="2">
         <v>10</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H65" s="2">
         <v>18.579999999999998</v>
@@ -3478,26 +3478,26 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>55</v>
+      <c r="A66" t="s">
+        <v>54</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F66" s="2">
         <v>9</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H66" s="2">
         <v>20.27</v>
@@ -3516,26 +3516,26 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>54</v>
+      <c r="A67" t="s">
+        <v>53</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D67" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F67" s="2">
         <v>38</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H67" s="2">
         <v>25.91</v>
@@ -3554,26 +3554,26 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>53</v>
+      <c r="A68" t="s">
+        <v>52</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D68" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F68" s="2">
         <v>8</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H68" s="2">
         <v>19.079999999999998</v>
@@ -3592,26 +3592,26 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>52</v>
+      <c r="A69" t="s">
+        <v>51</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D69" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F69" s="2">
         <v>35</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H69" s="2">
         <v>27.11</v>
@@ -3630,26 +3630,26 @@
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>51</v>
+      <c r="A70" t="s">
+        <v>50</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D70" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F70" s="2">
         <v>6</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H70" s="2">
         <v>19.96</v>
@@ -3668,26 +3668,26 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>50</v>
+      <c r="A71" t="s">
+        <v>49</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D71" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F71" s="2">
         <v>34</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H71" s="2">
         <v>27.08</v>
@@ -3706,26 +3706,26 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>49</v>
+      <c r="A72" t="s">
+        <v>48</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D72" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F72" s="2">
         <v>33</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H72" s="2">
         <v>26.92</v>
@@ -3744,26 +3744,26 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>48</v>
+      <c r="A73" t="s">
+        <v>47</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D73" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F73" s="2">
         <v>7</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H73" s="2">
         <v>20.98</v>
@@ -3782,26 +3782,26 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>47</v>
+      <c r="A74" t="s">
+        <v>46</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D74" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F74" s="2">
         <v>53</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H74" s="2">
         <v>24.74</v>
@@ -3820,26 +3820,26 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>46</v>
+      <c r="A75" t="s">
+        <v>45</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D75" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F75" s="2">
         <v>17</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H75" s="2">
         <v>19.350000000000001</v>
@@ -3858,26 +3858,26 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>45</v>
+      <c r="A76" t="s">
+        <v>44</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D76" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F76" s="2">
         <v>16</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H76" s="2">
         <v>20.28</v>
@@ -3896,26 +3896,26 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>44</v>
+      <c r="A77" t="s">
+        <v>43</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D77" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F77" s="2">
         <v>25</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H77" s="2">
         <v>20.66</v>
@@ -3934,26 +3934,26 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>43</v>
+      <c r="A78" t="s">
+        <v>42</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D78" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F78" s="2">
         <v>24</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H78" s="2">
         <v>20.46</v>
@@ -3972,26 +3972,26 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>42</v>
+      <c r="A79" t="s">
+        <v>41</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D79" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F79" s="2">
         <v>51</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H79" s="2">
         <v>24.77</v>
@@ -4010,26 +4010,26 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>41</v>
+      <c r="A80" t="s">
+        <v>40</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D80" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F80" s="2">
         <v>52</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H80" s="2">
         <v>23.06</v>
@@ -4048,26 +4048,26 @@
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="A81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D81" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F81" s="2">
         <v>23</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H81" s="2">
         <v>18.420000000000002</v>
@@ -4086,963 +4086,963 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>123</v>
+      <c r="A82" t="s">
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C82" s="2">
         <v>222</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F82" s="2">
         <v>14</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>124</v>
+      <c r="A83" t="s">
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C83" s="2">
         <v>222</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F83" s="2">
         <v>21</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>125</v>
+      <c r="A84" t="s">
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C84" s="2">
         <v>222</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F84" s="2">
         <v>24</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>126</v>
+      <c r="A85" t="s">
+        <v>124</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C85" s="2">
         <v>222</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F85" s="2">
         <v>25</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>127</v>
+      <c r="A86" t="s">
+        <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C86" s="2">
         <v>222</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F86" s="2">
         <v>31</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>128</v>
+      <c r="A87" t="s">
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C87" s="2">
         <v>222</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F87" s="2">
         <v>42</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>129</v>
+      <c r="A88" t="s">
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C88" s="2">
         <v>222</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F88" s="2">
         <v>43</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>130</v>
+      <c r="A89" t="s">
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C89" s="2">
         <v>222</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F89" s="2">
         <v>45</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>131</v>
+      <c r="A90" t="s">
+        <v>129</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C90" s="2">
         <v>222</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F90" s="2">
         <v>51</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>132</v>
+      <c r="A91" t="s">
+        <v>130</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C91" s="2">
         <v>222</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F91" s="2">
         <v>64</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>133</v>
+      <c r="A92" t="s">
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C92" s="2">
         <v>222</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F92" s="2">
         <v>91</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>134</v>
+      <c r="A93" t="s">
+        <v>132</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C93" s="2">
         <v>222</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F93" s="2">
         <v>92</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>135</v>
+      <c r="A94" t="s">
+        <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C94" s="2">
         <v>222</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F94" s="2">
         <v>94</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>136</v>
+      <c r="A95" t="s">
+        <v>134</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C95" s="2">
         <v>222</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F95" s="2">
         <v>113</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>137</v>
+      <c r="A96" t="s">
+        <v>135</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C96" s="2">
         <v>222</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F96" s="2">
         <v>151</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>138</v>
+      <c r="A97" t="s">
+        <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C97" s="2">
         <v>222</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F97" s="2">
         <v>152</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>139</v>
+      <c r="A98" t="s">
+        <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C98" s="2">
         <v>222</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F98" s="2">
         <v>153</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>140</v>
+      <c r="A99" t="s">
+        <v>138</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C99" s="2">
         <v>222</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F99" s="2">
         <v>161</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>141</v>
+      <c r="A100" t="s">
+        <v>139</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C100" s="2">
         <v>222</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F100" s="2">
         <v>164</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>142</v>
+      <c r="A101" t="s">
+        <v>140</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C101" s="2">
         <v>222</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F101" s="2">
         <v>171</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>143</v>
+      <c r="A102" t="s">
+        <v>141</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C102" s="2">
         <v>222</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F102" s="2">
         <v>173</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>144</v>
+      <c r="A103" t="s">
+        <v>142</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C103" s="2">
         <v>222</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F103" s="2">
         <v>174</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>145</v>
+      <c r="A104" t="s">
+        <v>143</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C104" s="2">
         <v>222</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F104" s="2">
         <v>175</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>146</v>
+      <c r="A105" t="s">
+        <v>144</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C105" s="2">
         <v>222</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F105" s="2">
         <v>251</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>147</v>
+      <c r="A106" t="s">
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C106" s="2">
         <v>222</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F106" s="2">
         <v>252</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>148</v>
+      <c r="A107" t="s">
+        <v>146</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C107" s="2">
         <v>222</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F107" s="2">
         <v>253</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>149</v>
+      <c r="A108" t="s">
+        <v>147</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C108" s="2">
         <v>222</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F108" s="2">
         <v>254</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>150</v>
+      <c r="A109" t="s">
+        <v>148</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C109" s="2">
         <v>222</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F109" s="2">
         <v>261</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>151</v>
+      <c r="A110" t="s">
+        <v>149</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C110" s="2">
         <v>222</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F110" s="2">
         <v>262</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>152</v>
+      <c r="A111" t="s">
+        <v>150</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C111" s="2">
         <v>222</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F111" s="2">
         <v>263</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
-        <v>153</v>
+      <c r="A112" t="s">
+        <v>151</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C112" s="2">
         <v>222</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F112" s="2">
         <v>264</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>154</v>
+      <c r="A113" t="s">
+        <v>152</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C113" s="2">
         <v>222</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F113" s="2">
         <v>291</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>155</v>
+      <c r="A114" t="s">
+        <v>153</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C114" s="2">
         <v>222</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F114" s="2">
         <v>292</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>156</v>
+      <c r="A115" t="s">
+        <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C115" s="2">
         <v>222</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F115" s="2">
         <v>293</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>157</v>
+      <c r="A116" t="s">
+        <v>155</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C116" s="2">
         <v>222</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F116" s="2">
         <v>294</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>158</v>
+      <c r="A117" t="s">
+        <v>156</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C117" s="2">
         <v>222</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F117" s="2">
         <v>295</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>159</v>
+      <c r="A118" t="s">
+        <v>157</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C118" s="2">
         <v>222</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F118" s="2">
         <v>301</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>160</v>
+      <c r="A119" t="s">
+        <v>158</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C119" s="2">
         <v>222</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F119" s="2">
         <v>302</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>161</v>
+      <c r="A120" t="s">
+        <v>159</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C120" s="2">
         <v>222</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F120" s="2">
         <v>303</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>162</v>
+      <c r="A121" t="s">
+        <v>160</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C121" s="2">
         <v>222</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F121" s="2">
         <v>304</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>163</v>
+      <c r="A122" t="s">
+        <v>161</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C122" s="2">
         <v>222</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F122" s="2">
         <v>305</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>164</v>
+      <c r="A123" t="s">
+        <v>162</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C123" s="2">
         <v>333</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F123" s="2">
         <v>40</v>
@@ -5052,1199 +5052,1199 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>165</v>
+      <c r="A124" t="s">
+        <v>163</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C124" s="2">
         <v>333</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F124" s="2">
         <v>59</v>
       </c>
-      <c r="G124" s="4" t="s">
-        <v>99</v>
+      <c r="G124" s="4">
+        <v>45859</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>166</v>
+      <c r="A125" t="s">
+        <v>164</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C125" s="2">
         <v>333</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F125" s="2">
         <v>60</v>
       </c>
-      <c r="G125" s="4" t="s">
-        <v>99</v>
+      <c r="G125" s="4">
+        <v>45859</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>167</v>
+      <c r="A126" t="s">
+        <v>165</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C126" s="2">
         <v>333</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F126" s="2">
         <v>61</v>
       </c>
-      <c r="G126" s="4" t="s">
-        <v>99</v>
+      <c r="G126" s="4">
+        <v>45859</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>168</v>
+      <c r="A127" t="s">
+        <v>166</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C127" s="2">
         <v>333</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F127" s="2">
         <v>62</v>
       </c>
-      <c r="G127" s="4" t="s">
-        <v>99</v>
+      <c r="G127" s="4">
+        <v>45859</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>169</v>
+      <c r="A128" t="s">
+        <v>167</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C128" s="2">
         <v>333</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F128" s="2">
         <v>63</v>
       </c>
-      <c r="G128" s="4" t="s">
-        <v>99</v>
+      <c r="G128" s="4">
+        <v>45859</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>170</v>
+      <c r="A129" t="s">
+        <v>168</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C129" s="2">
         <v>333</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F129" s="2">
         <v>65</v>
       </c>
-      <c r="G129" s="4" t="s">
-        <v>99</v>
+      <c r="G129" s="4">
+        <v>45859</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>171</v>
+      <c r="A130" t="s">
+        <v>169</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C130" s="2">
         <v>333</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F130" s="2">
         <v>66</v>
       </c>
-      <c r="G130" s="4" t="s">
-        <v>99</v>
+      <c r="G130" s="4">
+        <v>45859</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>172</v>
+      <c r="A131" t="s">
+        <v>170</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C131" s="2">
         <v>333</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F131" s="2">
         <v>67</v>
       </c>
-      <c r="G131" s="4" t="s">
-        <v>99</v>
+      <c r="G131" s="4">
+        <v>45859</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>173</v>
+      <c r="A132" t="s">
+        <v>171</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C132" s="2">
         <v>333</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F132" s="2">
         <v>68</v>
       </c>
-      <c r="G132" s="4" t="s">
-        <v>99</v>
+      <c r="G132" s="4">
+        <v>45859</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>174</v>
+      <c r="A133" t="s">
+        <v>172</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C133" s="2">
         <v>333</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F133" s="2">
         <v>69</v>
       </c>
-      <c r="G133" s="4" t="s">
-        <v>99</v>
+      <c r="G133" s="4">
+        <v>45859</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>175</v>
+      <c r="A134" t="s">
+        <v>173</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C134" s="2">
         <v>333</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F134" s="2">
         <v>70</v>
       </c>
-      <c r="G134" s="4" t="s">
-        <v>99</v>
+      <c r="G134" s="4">
+        <v>45859</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>176</v>
+      <c r="A135" t="s">
+        <v>174</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C135" s="2">
         <v>333</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F135" s="2">
         <v>71</v>
       </c>
-      <c r="G135" s="4" t="s">
-        <v>99</v>
+      <c r="G135" s="4">
+        <v>45859</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>177</v>
+      <c r="A136" t="s">
+        <v>175</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C136" s="2">
         <v>333</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F136" s="2">
         <v>72</v>
       </c>
-      <c r="G136" s="4" t="s">
-        <v>99</v>
+      <c r="G136" s="4">
+        <v>45859</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>178</v>
+      <c r="A137" t="s">
+        <v>176</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C137" s="2">
         <v>333</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F137" s="2">
         <v>74</v>
       </c>
-      <c r="G137" s="4" t="s">
-        <v>99</v>
+      <c r="G137" s="4">
+        <v>45859</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
-        <v>179</v>
+      <c r="A138" t="s">
+        <v>177</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C138" s="2">
         <v>333</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F138" s="2">
         <v>75</v>
       </c>
-      <c r="G138" s="4" t="s">
-        <v>99</v>
+      <c r="G138" s="4">
+        <v>45859</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>180</v>
+      <c r="A139" t="s">
+        <v>178</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C139" s="2">
         <v>333</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F139" s="2">
         <v>76</v>
       </c>
-      <c r="G139" s="4" t="s">
-        <v>99</v>
+      <c r="G139" s="4">
+        <v>45859</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>181</v>
+      <c r="A140" t="s">
+        <v>179</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C140" s="2">
         <v>333</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F140" s="2">
         <v>77</v>
       </c>
-      <c r="G140" s="4" t="s">
-        <v>99</v>
+      <c r="G140" s="4">
+        <v>45859</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>182</v>
+      <c r="A141" t="s">
+        <v>180</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C141" s="2">
         <v>333</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F141" s="2">
         <v>79</v>
       </c>
-      <c r="G141" s="4" t="s">
-        <v>99</v>
+      <c r="G141" s="4">
+        <v>45859</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
-        <v>183</v>
+      <c r="A142" t="s">
+        <v>181</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C142" s="2">
         <v>333</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F142" s="2">
         <v>80</v>
       </c>
-      <c r="G142" s="4" t="s">
-        <v>99</v>
+      <c r="G142" s="4">
+        <v>45859</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
+      <c r="A143" t="s">
+        <v>182</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="D143" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F143" s="2">
         <v>33</v>
       </c>
-      <c r="G143" s="7">
+      <c r="G143" s="6">
         <v>45936</v>
       </c>
-      <c r="H143" s="5">
+      <c r="H143">
         <v>18.690000000000001</v>
       </c>
-      <c r="I143" s="5">
+      <c r="I143">
         <v>18.829999999999998</v>
       </c>
-      <c r="J143" s="5">
+      <c r="J143">
         <v>19.579999999999998</v>
       </c>
-      <c r="K143" s="5">
+      <c r="K143">
         <v>18.98</v>
       </c>
-      <c r="L143" s="5">
+      <c r="L143">
         <v>19.61</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
-        <v>187</v>
+      <c r="A144" t="s">
+        <v>185</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F144" s="2">
         <v>36</v>
       </c>
-      <c r="G144" s="7">
+      <c r="G144" s="6">
         <v>45936</v>
       </c>
-      <c r="H144" s="5">
+      <c r="H144">
         <v>18.73</v>
       </c>
-      <c r="I144" s="5">
+      <c r="I144">
         <v>18.22</v>
       </c>
-      <c r="J144" s="5">
+      <c r="J144">
         <v>19.32</v>
       </c>
-      <c r="K144" s="5">
+      <c r="K144">
         <v>18.86</v>
       </c>
-      <c r="L144" s="5">
+      <c r="L144">
         <v>18.84</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
-        <v>188</v>
+      <c r="A145" t="s">
+        <v>186</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F145" s="2">
         <v>34</v>
       </c>
-      <c r="G145" s="7">
+      <c r="G145" s="6">
         <v>45936</v>
       </c>
-      <c r="H145" s="5">
+      <c r="H145">
         <v>16.920000000000002</v>
       </c>
-      <c r="I145" s="5">
+      <c r="I145">
         <v>16.63</v>
       </c>
-      <c r="J145" s="5">
+      <c r="J145">
         <v>17.79</v>
       </c>
-      <c r="K145" s="5">
+      <c r="K145">
         <v>17.059999999999999</v>
       </c>
-      <c r="L145" s="5">
+      <c r="L145">
         <v>18.670000000000002</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
-        <v>189</v>
+      <c r="A146" t="s">
+        <v>187</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F146" s="2">
         <v>35</v>
       </c>
-      <c r="G146" s="7">
+      <c r="G146" s="6">
         <v>45936</v>
       </c>
-      <c r="H146" s="5">
+      <c r="H146">
         <v>15.93</v>
       </c>
-      <c r="I146" s="5">
+      <c r="I146">
         <v>15.61</v>
       </c>
-      <c r="J146" s="5">
+      <c r="J146">
         <v>16.670000000000002</v>
       </c>
-      <c r="K146" s="5">
+      <c r="K146">
         <v>16.260000000000002</v>
       </c>
-      <c r="L146" s="5">
+      <c r="L146">
         <v>17.38</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>190</v>
+      <c r="A147" t="s">
+        <v>188</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F147" s="2">
         <v>27</v>
       </c>
-      <c r="G147" s="7">
+      <c r="G147" s="6">
         <v>45936</v>
       </c>
-      <c r="H147" s="5">
+      <c r="H147">
         <v>19</v>
       </c>
-      <c r="I147" s="5">
+      <c r="I147">
         <v>19.27</v>
       </c>
-      <c r="J147" s="5">
+      <c r="J147">
         <v>19.73</v>
       </c>
-      <c r="K147" s="5">
+      <c r="K147">
         <v>19.059999999999999</v>
       </c>
-      <c r="L147" s="5">
+      <c r="L147">
         <v>19.559999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>191</v>
+      <c r="A148" t="s">
+        <v>189</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F148" s="2">
         <v>28</v>
       </c>
-      <c r="G148" s="7">
+      <c r="G148" s="6">
         <v>45936</v>
       </c>
-      <c r="H148" s="5">
+      <c r="H148">
         <v>19.32</v>
       </c>
-      <c r="I148" s="5">
+      <c r="I148">
         <v>19.260000000000002</v>
       </c>
-      <c r="J148" s="5">
+      <c r="J148">
         <v>20.61</v>
       </c>
-      <c r="K148" s="5">
+      <c r="K148">
         <v>19.16</v>
       </c>
-      <c r="L148" s="5">
+      <c r="L148">
         <v>20.21</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>192</v>
+      <c r="A149" t="s">
+        <v>190</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F149" s="2">
         <v>45</v>
       </c>
-      <c r="G149" s="7">
+      <c r="G149" s="6">
         <v>45936</v>
       </c>
-      <c r="H149" s="5">
+      <c r="H149">
         <v>19.239999999999998</v>
       </c>
-      <c r="I149" s="5">
+      <c r="I149">
         <v>19.05</v>
       </c>
-      <c r="J149" s="5">
+      <c r="J149">
         <v>20.04</v>
       </c>
-      <c r="K149" s="5">
+      <c r="K149">
         <v>19.66</v>
       </c>
-      <c r="L149" s="5">
+      <c r="L149">
         <v>20.74</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>193</v>
+      <c r="A150" t="s">
+        <v>191</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F150" s="2">
         <v>50</v>
       </c>
-      <c r="G150" s="7">
+      <c r="G150" s="6">
         <v>45936</v>
       </c>
-      <c r="H150" s="5">
+      <c r="H150">
         <v>19.29</v>
       </c>
-      <c r="I150" s="5">
+      <c r="I150">
         <v>18.43</v>
       </c>
-      <c r="J150" s="5">
+      <c r="J150">
         <v>20.53</v>
       </c>
-      <c r="K150" s="5">
+      <c r="K150">
         <v>18.98</v>
       </c>
-      <c r="L150" s="5">
+      <c r="L150">
         <v>21.04</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>194</v>
+      <c r="A151" t="s">
+        <v>192</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F151" s="2">
         <v>26</v>
       </c>
-      <c r="G151" s="7">
+      <c r="G151" s="6">
         <v>45936</v>
       </c>
-      <c r="H151" s="5">
+      <c r="H151">
         <v>20.41</v>
       </c>
-      <c r="I151" s="5">
+      <c r="I151">
         <v>19.37</v>
       </c>
-      <c r="J151" s="5">
+      <c r="J151">
         <v>20.59</v>
       </c>
-      <c r="K151" s="5">
+      <c r="K151">
         <v>20.38</v>
       </c>
-      <c r="L151" s="5">
+      <c r="L151">
         <v>21.01</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
-        <v>195</v>
+      <c r="A152" t="s">
+        <v>193</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F152" s="2">
         <v>37</v>
       </c>
-      <c r="G152" s="7">
+      <c r="G152" s="6">
         <v>45936</v>
       </c>
-      <c r="H152" s="5">
+      <c r="H152">
         <v>17.829999999999998</v>
       </c>
-      <c r="I152" s="5">
+      <c r="I152">
         <v>17.23</v>
       </c>
-      <c r="J152" s="5">
+      <c r="J152">
         <v>19.18</v>
       </c>
-      <c r="K152" s="5">
+      <c r="K152">
         <v>18.399999999999999</v>
       </c>
-      <c r="L152" s="5">
+      <c r="L152">
         <v>19.27</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
-        <v>196</v>
+      <c r="A153" t="s">
+        <v>194</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F153" s="2">
         <v>38</v>
       </c>
-      <c r="G153" s="7">
+      <c r="G153" s="6">
         <v>45936</v>
       </c>
-      <c r="H153" s="5">
+      <c r="H153">
         <v>23.03</v>
       </c>
-      <c r="I153" s="5">
+      <c r="I153">
         <v>22.24</v>
       </c>
-      <c r="J153" s="5">
+      <c r="J153">
         <v>22.4</v>
       </c>
-      <c r="K153" s="5">
+      <c r="K153">
         <v>22.23</v>
       </c>
-      <c r="L153" s="5">
+      <c r="L153">
         <v>22.7</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="5" t="s">
-        <v>197</v>
+      <c r="A154" t="s">
+        <v>195</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F154" s="2">
         <v>53</v>
       </c>
-      <c r="G154" s="7">
+      <c r="G154" s="6">
         <v>45936</v>
       </c>
-      <c r="H154" s="5">
+      <c r="H154">
         <v>25.27</v>
       </c>
-      <c r="I154" s="5">
+      <c r="I154">
         <v>24.61</v>
       </c>
-      <c r="J154" s="5">
+      <c r="J154">
         <v>25.7</v>
       </c>
-      <c r="K154" s="5">
+      <c r="K154">
         <v>24.89</v>
       </c>
-      <c r="L154" s="5">
+      <c r="L154">
         <v>24.67</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
-        <v>198</v>
+      <c r="A155" t="s">
+        <v>196</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F155" s="2">
         <v>19</v>
       </c>
-      <c r="G155" s="7">
+      <c r="G155" s="6">
         <v>45936</v>
       </c>
-      <c r="H155" s="5">
+      <c r="H155">
         <v>24.76</v>
       </c>
-      <c r="I155" s="5">
+      <c r="I155">
         <v>23.8</v>
       </c>
-      <c r="J155" s="5">
+      <c r="J155">
         <v>25.98</v>
       </c>
-      <c r="K155" s="5">
+      <c r="K155">
         <v>23.86</v>
       </c>
-      <c r="L155" s="5">
+      <c r="L155">
         <v>24.06</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" s="5" t="s">
-        <v>199</v>
+      <c r="A156" t="s">
+        <v>197</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F156" s="2">
         <v>20</v>
       </c>
-      <c r="G156" s="7">
+      <c r="G156" s="6">
         <v>45936</v>
       </c>
-      <c r="H156" s="5">
+      <c r="H156">
         <v>25.52</v>
       </c>
-      <c r="I156" s="5">
+      <c r="I156">
         <v>24.94</v>
       </c>
-      <c r="J156" s="5">
+      <c r="J156">
         <v>25.74</v>
       </c>
-      <c r="K156" s="5">
+      <c r="K156">
         <v>24.85</v>
       </c>
-      <c r="L156" s="5">
+      <c r="L156">
         <v>25.21</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
-        <v>200</v>
+      <c r="A157" t="s">
+        <v>198</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F157" s="2">
         <v>52</v>
       </c>
-      <c r="G157" s="7">
+      <c r="G157" s="6">
         <v>45936</v>
       </c>
-      <c r="H157" s="5">
+      <c r="H157">
         <v>25.14</v>
       </c>
-      <c r="I157" s="5">
+      <c r="I157">
         <v>24.64</v>
       </c>
-      <c r="J157" s="5">
+      <c r="J157">
         <v>25.32</v>
       </c>
-      <c r="K157" s="5">
+      <c r="K157">
         <v>24.47</v>
       </c>
-      <c r="L157" s="5">
+      <c r="L157">
         <v>24.92</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
-        <v>201</v>
+      <c r="A158" t="s">
+        <v>199</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F158" s="2">
         <v>18</v>
       </c>
-      <c r="G158" s="7">
+      <c r="G158" s="6">
         <v>45936</v>
       </c>
-      <c r="H158" s="5">
+      <c r="H158">
         <v>27.26</v>
       </c>
-      <c r="I158" s="5">
+      <c r="I158">
         <v>26.57</v>
       </c>
-      <c r="J158" s="5">
+      <c r="J158">
         <v>26.7</v>
       </c>
-      <c r="K158" s="5">
+      <c r="K158">
         <v>25.9</v>
       </c>
-      <c r="L158" s="5">
+      <c r="L158">
         <v>25.38</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
-        <v>202</v>
+      <c r="A159" t="s">
+        <v>200</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F159" s="2">
         <v>40</v>
       </c>
-      <c r="G159" s="7">
+      <c r="G159" s="6">
         <v>45936</v>
       </c>
-      <c r="H159" s="5">
+      <c r="H159">
         <v>23.52</v>
       </c>
-      <c r="I159" s="5">
+      <c r="I159">
         <v>22.96</v>
       </c>
-      <c r="J159" s="5">
+      <c r="J159">
         <v>23.92</v>
       </c>
-      <c r="K159" s="5">
+      <c r="K159">
         <v>23.18</v>
       </c>
-      <c r="L159" s="5">
+      <c r="L159">
         <v>23.86</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
-        <v>203</v>
+      <c r="A160" t="s">
+        <v>201</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F160" s="2">
         <v>46</v>
       </c>
-      <c r="G160" s="7">
+      <c r="G160" s="6">
         <v>45936</v>
       </c>
-      <c r="H160" s="5">
+      <c r="H160">
         <v>22.71</v>
       </c>
-      <c r="I160" s="5">
+      <c r="I160">
         <v>21.77</v>
       </c>
-      <c r="J160" s="5">
+      <c r="J160">
         <v>22.82</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160">
         <v>21.97</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160">
         <v>22.45</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
-        <v>204</v>
+      <c r="A161" t="s">
+        <v>202</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F161" s="2">
         <v>25</v>
       </c>
-      <c r="G161" s="7">
+      <c r="G161" s="6">
         <v>45936</v>
       </c>
-      <c r="H161" s="5">
+      <c r="H161">
         <v>22.58</v>
       </c>
-      <c r="I161" s="5">
+      <c r="I161">
         <v>22.24</v>
       </c>
-      <c r="J161" s="5">
+      <c r="J161">
         <v>23.03</v>
       </c>
-      <c r="K161" s="5">
+      <c r="K161">
         <v>22.39</v>
       </c>
-      <c r="L161" s="5">
+      <c r="L161">
         <v>23.56</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
-        <v>205</v>
+      <c r="A162" t="s">
+        <v>203</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F162" s="2">
         <v>39</v>
       </c>
-      <c r="G162" s="7">
+      <c r="G162" s="6">
         <v>45936</v>
       </c>
-      <c r="H162" s="5">
+      <c r="H162">
         <v>22.69</v>
       </c>
-      <c r="I162" s="5">
+      <c r="I162">
         <v>22.13</v>
       </c>
-      <c r="J162" s="5">
+      <c r="J162">
         <v>22.67</v>
       </c>
-      <c r="K162" s="5">
+      <c r="K162">
         <v>22.31</v>
       </c>
-      <c r="L162" s="5">
+      <c r="L162">
         <v>22.78</v>
       </c>
     </row>

--- a/Data/Bandit paper Key.xlsx
+++ b/Data/Bandit paper Key.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gowustl-my.sharepoint.com/personal/murrell_wustl_edu/Documents/Documents/Github/Murrell2025/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gowustl-my.sharepoint.com/personal/sebastiana_wustl_edu/Documents/Documents/GitHub/Murrell2025/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="8_{F8E0B11F-43C0-4782-8D95-C5B9BD28F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34656A20-6417-4378-82CB-7C38FFE50D46}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{F8E0B11F-43C0-4782-8D95-C5B9BD28F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B85C2E5E-8E87-42EE-B55E-7E56D2C4685E}"/>
   <bookViews>
-    <workbookView xWindow="-24240" yWindow="960" windowWidth="23505" windowHeight="13800" xr2:uid="{D69361D2-749D-4D5A-8D7C-5685B1F0A3DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D69361D2-749D-4D5A-8D7C-5685B1F0A3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$162</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -721,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -739,6 +742,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,10 +758,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1077,11 +1077,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF4FCBB-AC4B-4BE1-B463-C994B1598E3A}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G123" sqref="G123:G142"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1170,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -1178,33 +1179,33 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H3" s="2">
-        <v>18.350000000000001</v>
+        <v>24.61</v>
       </c>
       <c r="J3" s="2">
-        <v>19.149999999999999</v>
+        <v>24.56</v>
       </c>
       <c r="K3" s="2">
-        <v>18.350000000000001</v>
+        <v>24.21</v>
       </c>
       <c r="L3" s="2">
-        <v>19.809999999999999</v>
+        <v>24.52</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -1219,27 +1220,27 @@
         <v>10</v>
       </c>
       <c r="F4" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H4" s="2">
-        <v>18.5</v>
+        <v>18.46</v>
       </c>
       <c r="J4" s="2">
-        <v>19.690000000000001</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="K4" s="2">
-        <v>18.600000000000001</v>
+        <v>19.87</v>
       </c>
       <c r="L4" s="2">
-        <v>20.07</v>
+        <v>19.48</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -1254,27 +1255,27 @@
         <v>10</v>
       </c>
       <c r="F5" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H5" s="2">
-        <v>18.46</v>
+        <v>20.25</v>
       </c>
       <c r="J5" s="2">
-        <v>19.739999999999998</v>
+        <v>21.56</v>
       </c>
       <c r="K5" s="2">
-        <v>19.87</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="L5" s="2">
-        <v>19.48</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1283,33 +1284,33 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H6" s="2">
-        <v>19.91</v>
+        <v>27.54</v>
       </c>
       <c r="J6" s="2">
-        <v>21.59</v>
+        <v>28.15</v>
       </c>
       <c r="K6" s="2">
-        <v>20.03</v>
+        <v>27.22</v>
       </c>
       <c r="L6" s="2">
-        <v>20.39</v>
+        <v>27.35</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -1318,33 +1319,33 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="2">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H7" s="2">
-        <v>18.48</v>
+        <v>26.44</v>
       </c>
       <c r="J7" s="2">
-        <v>19.05</v>
+        <v>26.37</v>
       </c>
       <c r="K7" s="2">
-        <v>18.84</v>
+        <v>25.59</v>
       </c>
       <c r="L7" s="2">
-        <v>19.68</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -1359,27 +1360,27 @@
         <v>10</v>
       </c>
       <c r="F8" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H8" s="2">
-        <v>19.95</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="J8" s="2">
-        <v>20.89</v>
+        <v>19.309999999999999</v>
       </c>
       <c r="K8" s="2">
-        <v>20.100000000000001</v>
+        <v>18.53</v>
       </c>
       <c r="L8" s="2">
-        <v>20.420000000000002</v>
+        <v>20.23</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -1394,27 +1395,27 @@
         <v>10</v>
       </c>
       <c r="F9" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H9" s="2">
-        <v>17.53</v>
+        <v>19.91</v>
       </c>
       <c r="J9" s="2">
-        <v>19.03</v>
+        <v>21.59</v>
       </c>
       <c r="K9" s="2">
-        <v>18.21</v>
+        <v>20.03</v>
       </c>
       <c r="L9" s="2">
-        <v>20.079999999999998</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -1423,33 +1424,33 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="2">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H10" s="2">
-        <v>20.25</v>
+        <v>23.28</v>
       </c>
       <c r="J10" s="2">
-        <v>21.56</v>
+        <v>24.43</v>
       </c>
       <c r="K10" s="2">
-        <v>20.149999999999999</v>
+        <v>22.71</v>
       </c>
       <c r="L10" s="2">
-        <v>20.63</v>
+        <v>23.59</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -1458,33 +1459,33 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H11" s="2">
-        <v>19.239999999999998</v>
+        <v>26.74</v>
       </c>
       <c r="J11" s="2">
-        <v>19.309999999999999</v>
+        <v>26.88</v>
       </c>
       <c r="K11" s="2">
-        <v>18.53</v>
+        <v>25.92</v>
       </c>
       <c r="L11" s="2">
-        <v>20.23</v>
+        <v>26.05</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -1499,27 +1500,27 @@
         <v>10</v>
       </c>
       <c r="F12" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H12" s="2">
-        <v>26.74</v>
+        <v>26.66</v>
       </c>
       <c r="J12" s="2">
-        <v>26.88</v>
+        <v>26.44</v>
       </c>
       <c r="K12" s="2">
-        <v>25.92</v>
+        <v>25.4</v>
       </c>
       <c r="L12" s="2">
-        <v>26.05</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -1528,28 +1529,28 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="2">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H13" s="2">
-        <v>26.66</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="J13" s="2">
-        <v>26.44</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="K13" s="2">
-        <v>25.4</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="L13" s="2">
-        <v>26</v>
+        <v>19.809999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1589,7 +1590,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -1598,33 +1599,33 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="2">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H15" s="2">
-        <v>24.61</v>
+        <v>18.5</v>
       </c>
       <c r="J15" s="2">
-        <v>24.56</v>
+        <v>19.690000000000001</v>
       </c>
       <c r="K15" s="2">
-        <v>24.21</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="L15" s="2">
-        <v>24.52</v>
+        <v>20.07</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -1639,27 +1640,27 @@
         <v>10</v>
       </c>
       <c r="F16" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H16" s="2">
-        <v>23.28</v>
+        <v>26.96</v>
       </c>
       <c r="J16" s="2">
-        <v>24.43</v>
+        <v>27.54</v>
       </c>
       <c r="K16" s="2">
-        <v>22.71</v>
+        <v>26.16</v>
       </c>
       <c r="L16" s="2">
-        <v>23.59</v>
+        <v>25.54</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -1668,28 +1669,28 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="2">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H17" s="2">
-        <v>26.96</v>
+        <v>19.95</v>
       </c>
       <c r="J17" s="2">
-        <v>27.54</v>
+        <v>20.89</v>
       </c>
       <c r="K17" s="2">
-        <v>26.16</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="L17" s="2">
-        <v>25.54</v>
+        <v>20.420000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1764,7 +1765,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -1773,33 +1774,33 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="2">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H20" s="2">
-        <v>27.54</v>
+        <v>17.53</v>
       </c>
       <c r="J20" s="2">
-        <v>28.15</v>
+        <v>19.03</v>
       </c>
       <c r="K20" s="2">
-        <v>27.22</v>
+        <v>18.21</v>
       </c>
       <c r="L20" s="2">
-        <v>27.35</v>
+        <v>20.079999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -1808,31 +1809,31 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="2">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>60</v>
       </c>
       <c r="H21" s="2">
-        <v>26.44</v>
+        <v>18.48</v>
       </c>
       <c r="J21" s="2">
-        <v>26.37</v>
+        <v>19.05</v>
       </c>
       <c r="K21" s="2">
-        <v>25.59</v>
+        <v>18.84</v>
       </c>
       <c r="L21" s="2">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19.68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -1867,7 +1868,7 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1902,7 +1903,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>19.38</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -2010,7 +2011,7 @@
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>18.350000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>17.86</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -2121,7 +2122,7 @@
         <v>19.64</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>19.72</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -2232,7 +2233,7 @@
         <v>25.66</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>23.02</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -2340,7 +2341,7 @@
         <v>22.12</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2378,7 +2379,7 @@
         <v>27.32</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>22.38</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -2451,7 +2452,7 @@
         <v>24.28</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -2489,7 +2490,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -2527,7 +2528,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>18.559999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -2641,7 +2642,7 @@
         <v>21.47</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>21.21</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -2717,7 +2718,7 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -2755,7 +2756,7 @@
         <v>20.71</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>18.97</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>19.77</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -2907,7 +2908,7 @@
         <v>18.88</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -2945,7 +2946,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>27.91</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -3021,7 +3022,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>23.01</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -3097,7 +3098,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -3135,7 +3136,7 @@
         <v>26.07</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>117</v>
       </c>
@@ -3173,7 +3174,7 @@
         <v>24.56</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -3211,7 +3212,7 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>24.38</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -3287,7 +3288,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -3325,9 +3326,9 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>38</v>
@@ -3336,36 +3337,36 @@
         <v>39</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F62" s="2">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H62" s="2">
-        <v>24.96</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="I62" s="2">
-        <v>24.34</v>
+        <v>18.579999999999998</v>
       </c>
       <c r="J62" s="2">
-        <v>25.53</v>
+        <v>20.36</v>
       </c>
       <c r="K62" s="2">
-        <v>24.6</v>
+        <v>18.55</v>
       </c>
       <c r="L62" s="2">
-        <v>25.53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>57</v>
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>38</v>
@@ -3380,7 +3381,7 @@
         <v>10</v>
       </c>
       <c r="F63" s="2">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>85</v>
@@ -3389,21 +3390,21 @@
         <v>23.06</v>
       </c>
       <c r="I63" s="2">
-        <v>22.83</v>
+        <v>22.23</v>
       </c>
       <c r="J63" s="2">
-        <v>23.79</v>
+        <v>23.01</v>
       </c>
       <c r="K63" s="2">
-        <v>23.32</v>
+        <v>22.04</v>
       </c>
       <c r="L63" s="2">
-        <v>24.48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>56</v>
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>38</v>
@@ -3418,30 +3419,30 @@
         <v>10</v>
       </c>
       <c r="F64" s="2">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H64" s="2">
-        <v>28.22</v>
+        <v>24.77</v>
       </c>
       <c r="I64" s="2">
-        <v>26.99</v>
+        <v>23.89</v>
       </c>
       <c r="J64" s="2">
-        <v>28.16</v>
+        <v>24.12</v>
       </c>
       <c r="K64" s="2">
-        <v>27.15</v>
+        <v>23.51</v>
       </c>
       <c r="L64" s="2">
-        <v>26.41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>55</v>
+        <v>23.76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>38</v>
@@ -3456,30 +3457,30 @@
         <v>10</v>
       </c>
       <c r="F65" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H65" s="2">
-        <v>18.579999999999998</v>
+        <v>20.46</v>
       </c>
       <c r="I65" s="2">
-        <v>17.260000000000002</v>
+        <v>20.27</v>
       </c>
       <c r="J65" s="2">
-        <v>18.690000000000001</v>
+        <v>21.1</v>
       </c>
       <c r="K65" s="2">
-        <v>18.350000000000001</v>
+        <v>20.02</v>
       </c>
       <c r="L65" s="2">
-        <v>18.48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>54</v>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>38</v>
@@ -3494,30 +3495,30 @@
         <v>10</v>
       </c>
       <c r="F66" s="2">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H66" s="2">
-        <v>20.27</v>
+        <v>20.66</v>
       </c>
       <c r="I66" s="2">
-        <v>19.54</v>
+        <v>19.91</v>
       </c>
       <c r="J66" s="2">
-        <v>20.25</v>
+        <v>21.55</v>
       </c>
       <c r="K66" s="2">
-        <v>19.3</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="L66" s="2">
-        <v>20.22</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>53</v>
+        <v>20.309999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>38</v>
@@ -3526,36 +3527,36 @@
         <v>39</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F67" s="2">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H67" s="2">
-        <v>25.91</v>
+        <v>20.28</v>
       </c>
       <c r="I67" s="2">
-        <v>24.79</v>
+        <v>19.22</v>
       </c>
       <c r="J67" s="2">
-        <v>26.04</v>
+        <v>20.05</v>
       </c>
       <c r="K67" s="2">
-        <v>25.42</v>
+        <v>19.7</v>
       </c>
       <c r="L67" s="2">
-        <v>24.83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20.95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>38</v>
@@ -3570,30 +3571,30 @@
         <v>10</v>
       </c>
       <c r="F68" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H68" s="2">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="I68" s="2">
+        <v>19.14</v>
+      </c>
+      <c r="J68" s="2">
+        <v>20.67</v>
+      </c>
+      <c r="K68" s="2">
         <v>19.079999999999998</v>
       </c>
-      <c r="I68" s="2">
-        <v>18.149999999999999</v>
-      </c>
-      <c r="J68" s="2">
-        <v>18.8</v>
-      </c>
-      <c r="K68" s="2">
-        <v>18.5</v>
-      </c>
       <c r="L68" s="2">
-        <v>18.86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19.559999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>38</v>
@@ -3608,30 +3609,30 @@
         <v>10</v>
       </c>
       <c r="F69" s="2">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H69" s="2">
-        <v>27.11</v>
+        <v>24.74</v>
       </c>
       <c r="I69" s="2">
-        <v>25.47</v>
+        <v>23.87</v>
       </c>
       <c r="J69" s="2">
-        <v>26.88</v>
+        <v>25.07</v>
       </c>
       <c r="K69" s="2">
-        <v>26.22</v>
+        <v>23.61</v>
       </c>
       <c r="L69" s="2">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>38</v>
@@ -3646,30 +3647,30 @@
         <v>10</v>
       </c>
       <c r="F70" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H70" s="2">
-        <v>19.96</v>
+        <v>20.98</v>
       </c>
       <c r="I70" s="2">
-        <v>18.899999999999999</v>
+        <v>20.03</v>
       </c>
       <c r="J70" s="2">
-        <v>20.59</v>
+        <v>21.24</v>
       </c>
       <c r="K70" s="2">
-        <v>19.36</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="L70" s="2">
-        <v>20.45</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21.11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>38</v>
@@ -3684,30 +3685,30 @@
         <v>10</v>
       </c>
       <c r="F71" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H71" s="2">
-        <v>27.08</v>
+        <v>26.92</v>
       </c>
       <c r="I71" s="2">
-        <v>20.420000000000002</v>
+        <v>26.24</v>
       </c>
       <c r="J71" s="2">
-        <v>27.11</v>
+        <v>27</v>
       </c>
       <c r="K71" s="2">
-        <v>27.21</v>
+        <v>25.56</v>
       </c>
       <c r="L71" s="2">
-        <v>26.94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>38</v>
@@ -3722,30 +3723,30 @@
         <v>10</v>
       </c>
       <c r="F72" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H72" s="2">
-        <v>26.92</v>
+        <v>27.08</v>
       </c>
       <c r="I72" s="2">
-        <v>26.24</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="J72" s="2">
-        <v>27</v>
+        <v>27.11</v>
       </c>
       <c r="K72" s="2">
-        <v>25.56</v>
+        <v>27.21</v>
       </c>
       <c r="L72" s="2">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>26.94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>38</v>
@@ -3760,30 +3761,30 @@
         <v>10</v>
       </c>
       <c r="F73" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H73" s="2">
-        <v>20.98</v>
+        <v>19.96</v>
       </c>
       <c r="I73" s="2">
-        <v>20.03</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="J73" s="2">
-        <v>21.24</v>
+        <v>20.59</v>
       </c>
       <c r="K73" s="2">
-        <v>20.079999999999998</v>
+        <v>19.36</v>
       </c>
       <c r="L73" s="2">
-        <v>21.11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20.45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>38</v>
@@ -3798,30 +3799,30 @@
         <v>10</v>
       </c>
       <c r="F74" s="2">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H74" s="2">
-        <v>24.74</v>
+        <v>27.11</v>
       </c>
       <c r="I74" s="2">
-        <v>23.87</v>
+        <v>25.47</v>
       </c>
       <c r="J74" s="2">
-        <v>25.07</v>
+        <v>26.88</v>
       </c>
       <c r="K74" s="2">
-        <v>23.61</v>
+        <v>26.22</v>
       </c>
       <c r="L74" s="2">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>38</v>
@@ -3836,30 +3837,30 @@
         <v>10</v>
       </c>
       <c r="F75" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H75" s="2">
-        <v>19.350000000000001</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="I75" s="2">
-        <v>19.14</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="J75" s="2">
-        <v>20.67</v>
+        <v>18.8</v>
       </c>
       <c r="K75" s="2">
-        <v>19.079999999999998</v>
+        <v>18.5</v>
       </c>
       <c r="L75" s="2">
-        <v>19.559999999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18.86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>38</v>
@@ -3868,36 +3869,36 @@
         <v>39</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F76" s="2">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H76" s="2">
-        <v>20.28</v>
+        <v>25.91</v>
       </c>
       <c r="I76" s="2">
-        <v>19.22</v>
+        <v>24.79</v>
       </c>
       <c r="J76" s="2">
-        <v>20.05</v>
+        <v>26.04</v>
       </c>
       <c r="K76" s="2">
-        <v>19.7</v>
+        <v>25.42</v>
       </c>
       <c r="L76" s="2">
-        <v>20.95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>24.83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>38</v>
@@ -3912,30 +3913,30 @@
         <v>10</v>
       </c>
       <c r="F77" s="2">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H77" s="2">
-        <v>20.66</v>
+        <v>20.27</v>
       </c>
       <c r="I77" s="2">
-        <v>19.91</v>
+        <v>19.54</v>
       </c>
       <c r="J77" s="2">
-        <v>21.55</v>
+        <v>20.25</v>
       </c>
       <c r="K77" s="2">
-        <v>20.309999999999999</v>
+        <v>19.3</v>
       </c>
       <c r="L77" s="2">
-        <v>20.309999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>38</v>
@@ -3950,30 +3951,30 @@
         <v>10</v>
       </c>
       <c r="F78" s="2">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H78" s="2">
-        <v>20.46</v>
+        <v>18.579999999999998</v>
       </c>
       <c r="I78" s="2">
-        <v>20.27</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="J78" s="2">
-        <v>21.1</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="K78" s="2">
-        <v>20.02</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="L78" s="2">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18.48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>38</v>
@@ -3988,30 +3989,30 @@
         <v>10</v>
       </c>
       <c r="F79" s="2">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H79" s="2">
-        <v>24.77</v>
+        <v>28.22</v>
       </c>
       <c r="I79" s="2">
-        <v>23.89</v>
+        <v>26.99</v>
       </c>
       <c r="J79" s="2">
-        <v>24.12</v>
+        <v>28.16</v>
       </c>
       <c r="K79" s="2">
-        <v>23.51</v>
+        <v>27.15</v>
       </c>
       <c r="L79" s="2">
-        <v>23.76</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>26.41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>38</v>
@@ -4026,7 +4027,7 @@
         <v>10</v>
       </c>
       <c r="F80" s="2">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>85</v>
@@ -4035,21 +4036,21 @@
         <v>23.06</v>
       </c>
       <c r="I80" s="2">
-        <v>22.23</v>
+        <v>22.83</v>
       </c>
       <c r="J80" s="2">
-        <v>23.01</v>
+        <v>23.79</v>
       </c>
       <c r="K80" s="2">
-        <v>22.04</v>
+        <v>23.32</v>
       </c>
       <c r="L80" s="2">
-        <v>22.89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+        <v>24.48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>38</v>
@@ -4058,34 +4059,34 @@
         <v>39</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F81" s="2">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>85</v>
       </c>
       <c r="H81" s="2">
-        <v>18.420000000000002</v>
+        <v>24.96</v>
       </c>
       <c r="I81" s="2">
-        <v>18.579999999999998</v>
+        <v>24.34</v>
       </c>
       <c r="J81" s="2">
-        <v>20.36</v>
+        <v>25.53</v>
       </c>
       <c r="K81" s="2">
-        <v>18.55</v>
+        <v>24.6</v>
       </c>
       <c r="L81" s="2">
-        <v>19.41</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>25.53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>121</v>
       </c>
@@ -4108,7 +4109,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>122</v>
       </c>
@@ -4131,7 +4132,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>123</v>
       </c>
@@ -4154,7 +4155,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>124</v>
       </c>
@@ -4177,7 +4178,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>125</v>
       </c>
@@ -4200,7 +4201,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>127</v>
       </c>
@@ -4246,7 +4247,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>128</v>
       </c>
@@ -4269,7 +4270,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>129</v>
       </c>
@@ -4292,7 +4293,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>130</v>
       </c>
@@ -4315,7 +4316,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>131</v>
       </c>
@@ -4338,7 +4339,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>132</v>
       </c>
@@ -4361,7 +4362,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>133</v>
       </c>
@@ -4384,7 +4385,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>134</v>
       </c>
@@ -4407,7 +4408,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>135</v>
       </c>
@@ -4430,7 +4431,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>136</v>
       </c>
@@ -4453,7 +4454,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>137</v>
       </c>
@@ -4476,7 +4477,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>138</v>
       </c>
@@ -4499,7 +4500,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>139</v>
       </c>
@@ -4522,7 +4523,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>140</v>
       </c>
@@ -4545,7 +4546,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>141</v>
       </c>
@@ -4568,7 +4569,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>142</v>
       </c>
@@ -4591,7 +4592,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>143</v>
       </c>
@@ -4614,7 +4615,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>144</v>
       </c>
@@ -4637,7 +4638,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>145</v>
       </c>
@@ -4660,7 +4661,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>146</v>
       </c>
@@ -4683,7 +4684,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>147</v>
       </c>
@@ -4706,7 +4707,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>148</v>
       </c>
@@ -4729,7 +4730,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>149</v>
       </c>
@@ -4752,7 +4753,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>150</v>
       </c>
@@ -4775,7 +4776,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>151</v>
       </c>
@@ -4798,7 +4799,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>152</v>
       </c>
@@ -4821,7 +4822,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>153</v>
       </c>
@@ -4844,7 +4845,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>154</v>
       </c>
@@ -4867,7 +4868,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>155</v>
       </c>
@@ -4890,7 +4891,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>156</v>
       </c>
@@ -4913,7 +4914,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>157</v>
       </c>
@@ -4936,7 +4937,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>158</v>
       </c>
@@ -4959,7 +4960,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>159</v>
       </c>
@@ -4982,7 +4983,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>160</v>
       </c>
@@ -5005,7 +5006,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>161</v>
       </c>
@@ -5028,7 +5029,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>162</v>
       </c>
@@ -5051,7 +5052,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>163</v>
       </c>
@@ -5074,7 +5075,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>164</v>
       </c>
@@ -5097,7 +5098,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>165</v>
       </c>
@@ -5120,7 +5121,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>166</v>
       </c>
@@ -5143,7 +5144,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>167</v>
       </c>
@@ -5166,7 +5167,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>168</v>
       </c>
@@ -5189,7 +5190,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>169</v>
       </c>
@@ -5212,7 +5213,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>170</v>
       </c>
@@ -5235,7 +5236,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>171</v>
       </c>
@@ -5258,7 +5259,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>172</v>
       </c>
@@ -5281,7 +5282,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>173</v>
       </c>
@@ -5304,7 +5305,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>174</v>
       </c>
@@ -5327,7 +5328,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>175</v>
       </c>
@@ -5350,7 +5351,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>176</v>
       </c>
@@ -5373,7 +5374,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>177</v>
       </c>
@@ -5396,7 +5397,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>178</v>
       </c>
@@ -5419,7 +5420,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>179</v>
       </c>
@@ -5442,7 +5443,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>180</v>
       </c>
@@ -5465,7 +5466,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>181</v>
       </c>
@@ -5488,7 +5489,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>182</v>
       </c>
@@ -5526,7 +5527,7 @@
         <v>19.61</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>185</v>
       </c>
@@ -5564,7 +5565,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>186</v>
       </c>
@@ -5602,7 +5603,7 @@
         <v>18.670000000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>187</v>
       </c>
@@ -5640,7 +5641,7 @@
         <v>17.38</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>188</v>
       </c>
@@ -5678,7 +5679,7 @@
         <v>19.559999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>189</v>
       </c>
@@ -5716,7 +5717,7 @@
         <v>20.21</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>190</v>
       </c>
@@ -5754,7 +5755,7 @@
         <v>20.74</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>191</v>
       </c>
@@ -5792,7 +5793,7 @@
         <v>21.04</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>192</v>
       </c>
@@ -5830,7 +5831,7 @@
         <v>21.01</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>193</v>
       </c>
@@ -5868,7 +5869,7 @@
         <v>19.27</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>194</v>
       </c>
@@ -5906,7 +5907,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>195</v>
       </c>
@@ -5944,7 +5945,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>196</v>
       </c>
@@ -5982,7 +5983,7 @@
         <v>24.06</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>197</v>
       </c>
@@ -6020,7 +6021,7 @@
         <v>25.21</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>198</v>
       </c>
@@ -6058,7 +6059,7 @@
         <v>24.92</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>199</v>
       </c>
@@ -6096,7 +6097,7 @@
         <v>25.38</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>200</v>
       </c>
@@ -6134,7 +6135,7 @@
         <v>23.86</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>201</v>
       </c>
@@ -6172,7 +6173,7 @@
         <v>22.45</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>202</v>
       </c>
@@ -6210,7 +6211,7 @@
         <v>23.56</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>203</v>
       </c>
@@ -6249,6 +6250,16 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L162" xr:uid="{2BF4FCBB-AC4B-4BE1-B463-C994B1598E3A}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="MYT1L"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:L81">
+      <sortCondition ref="A1:A162"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Bandit paper Key.xlsx
+++ b/Data/Bandit paper Key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gowustl-my.sharepoint.com/personal/sebastiana_wustl_edu/Documents/Documents/GitHub/Murrell2025/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="8_{F8E0B11F-43C0-4782-8D95-C5B9BD28F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B85C2E5E-8E87-42EE-B55E-7E56D2C4685E}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="8_{F8E0B11F-43C0-4782-8D95-C5B9BD28F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DBBA0D4-53C7-48F7-A7E5-291F6E3E412F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D69361D2-749D-4D5A-8D7C-5685B1F0A3DD}"/>
   </bookViews>
@@ -724,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -742,7 +742,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,6 +757,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1133,7 +1136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>20.07</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>24.52</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>20.63</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>27.35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>20.23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>20.39</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>23.59</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>26.05</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1518,7 +1521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1553,7 +1556,7 @@
         <v>19.809999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>23.87</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1623,7 +1626,7 @@
         <v>20.07</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>25.54</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>20.420000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1728,7 +1731,7 @@
         <v>23.06</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1798,7 +1801,7 @@
         <v>20.079999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3326,7 +3329,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>37</v>
       </c>
@@ -3364,8 +3367,8 @@
         <v>19.41</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>40</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -3402,8 +3405,8 @@
         <v>22.89</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>41</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -3440,8 +3443,8 @@
         <v>23.76</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>42</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -3478,8 +3481,8 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>43</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -3516,8 +3519,8 @@
         <v>20.309999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>44</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -3554,7 +3557,7 @@
         <v>20.95</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>45</v>
       </c>
@@ -3592,7 +3595,7 @@
         <v>19.559999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>46</v>
       </c>
@@ -3630,7 +3633,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -3668,7 +3671,7 @@
         <v>21.11</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>48</v>
       </c>
@@ -3706,7 +3709,7 @@
         <v>26.04</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -3744,7 +3747,7 @@
         <v>26.94</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>50</v>
       </c>
@@ -3782,7 +3785,7 @@
         <v>20.45</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>51</v>
       </c>
@@ -3820,7 +3823,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>52</v>
       </c>
@@ -3858,7 +3861,7 @@
         <v>18.86</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>53</v>
       </c>
@@ -3896,7 +3899,7 @@
         <v>24.83</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -3934,7 +3937,7 @@
         <v>20.22</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>55</v>
       </c>
@@ -3972,7 +3975,7 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>56</v>
       </c>
@@ -4010,7 +4013,7 @@
         <v>26.41</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>57</v>
       </c>
@@ -4048,7 +4051,7 @@
         <v>24.48</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>58</v>
       </c>
@@ -6253,7 +6256,7 @@
   <autoFilter ref="A1:L162" xr:uid="{2BF4FCBB-AC4B-4BE1-B463-C994B1598E3A}">
     <filterColumn colId="1">
       <filters>
-        <filter val="MYT1L"/>
+        <filter val="SHANK3B"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:L81">

--- a/Data/Bandit paper Key.xlsx
+++ b/Data/Bandit paper Key.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gowustl-my.sharepoint.com/personal/sebastiana_wustl_edu/Documents/Documents/GitHub/Murrell2025/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gowustl-my.sharepoint.com/personal/murrell_wustl_edu/Documents/Documents/Github/Murrell2025/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="8_{F8E0B11F-43C0-4782-8D95-C5B9BD28F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DBBA0D4-53C7-48F7-A7E5-291F6E3E412F}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="8_{F8E0B11F-43C0-4782-8D95-C5B9BD28F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{726431CA-76D2-426A-BB56-F8F9ACFC2E88}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D69361D2-749D-4D5A-8D7C-5685B1F0A3DD}"/>
+    <workbookView xWindow="5160" yWindow="1155" windowWidth="23505" windowHeight="13800" xr2:uid="{D69361D2-749D-4D5A-8D7C-5685B1F0A3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -757,10 +757,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1080,7 +1076,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF4FCBB-AC4B-4BE1-B463-C994B1598E3A}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1136,7 +1131,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1171,7 +1166,7 @@
         <v>20.07</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1206,7 +1201,7 @@
         <v>24.52</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1241,7 +1236,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1276,7 +1271,7 @@
         <v>20.63</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1311,7 +1306,7 @@
         <v>27.35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1346,7 +1341,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1381,7 +1376,7 @@
         <v>20.23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1416,7 +1411,7 @@
         <v>20.39</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1451,7 +1446,7 @@
         <v>23.59</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1486,7 +1481,7 @@
         <v>26.05</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1521,7 +1516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1556,7 +1551,7 @@
         <v>19.809999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1591,7 +1586,7 @@
         <v>23.87</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1626,7 +1621,7 @@
         <v>20.07</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1661,7 +1656,7 @@
         <v>25.54</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1696,7 +1691,7 @@
         <v>20.420000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1731,7 +1726,7 @@
         <v>23.06</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1766,7 +1761,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1801,7 +1796,7 @@
         <v>20.079999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1836,7 +1831,7 @@
         <v>19.68</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -1871,7 +1866,7 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1906,7 +1901,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1944,7 +1939,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -1979,7 +1974,7 @@
         <v>19.38</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -2014,7 +2009,7 @@
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -2052,7 +2047,7 @@
         <v>18.350000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -2087,7 +2082,7 @@
         <v>17.86</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -2125,7 +2120,7 @@
         <v>19.64</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -2163,7 +2158,7 @@
         <v>19.72</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -2201,7 +2196,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -2236,7 +2231,7 @@
         <v>25.66</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -2271,7 +2266,7 @@
         <v>23.02</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -2309,7 +2304,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -2344,7 +2339,7 @@
         <v>22.12</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2382,7 +2377,7 @@
         <v>27.32</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -2417,7 +2412,7 @@
         <v>22.38</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -2455,7 +2450,7 @@
         <v>24.28</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -2493,7 +2488,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -2531,7 +2526,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -2569,7 +2564,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -2607,7 +2602,7 @@
         <v>18.559999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>103</v>
       </c>
@@ -2645,7 +2640,7 @@
         <v>21.47</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -2683,7 +2678,7 @@
         <v>21.21</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -2721,7 +2716,7 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -2759,7 +2754,7 @@
         <v>20.71</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>107</v>
       </c>
@@ -2797,7 +2792,7 @@
         <v>18.97</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -2835,7 +2830,7 @@
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -2873,7 +2868,7 @@
         <v>19.77</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -2911,7 +2906,7 @@
         <v>18.88</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -2949,7 +2944,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -2987,7 +2982,7 @@
         <v>27.91</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>113</v>
       </c>
@@ -3025,7 +3020,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -3063,7 +3058,7 @@
         <v>23.01</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -3101,7 +3096,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -3139,7 +3134,7 @@
         <v>26.07</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>117</v>
       </c>
@@ -3177,7 +3172,7 @@
         <v>24.56</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -3215,7 +3210,7 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -3253,7 +3248,7 @@
         <v>24.38</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>120</v>
       </c>
@@ -3291,7 +3286,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -4089,7 +4084,7 @@
         <v>25.53</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>121</v>
       </c>
@@ -4112,7 +4107,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>122</v>
       </c>
@@ -4135,7 +4130,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>123</v>
       </c>
@@ -4158,7 +4153,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>124</v>
       </c>
@@ -4181,7 +4176,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>125</v>
       </c>
@@ -4204,7 +4199,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -4227,7 +4222,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>127</v>
       </c>
@@ -4250,7 +4245,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>128</v>
       </c>
@@ -4273,7 +4268,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>129</v>
       </c>
@@ -4296,7 +4291,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>130</v>
       </c>
@@ -4319,7 +4314,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>131</v>
       </c>
@@ -4342,7 +4337,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>132</v>
       </c>
@@ -4365,7 +4360,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>133</v>
       </c>
@@ -4388,7 +4383,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>134</v>
       </c>
@@ -4411,7 +4406,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>135</v>
       </c>
@@ -4434,7 +4429,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>136</v>
       </c>
@@ -4457,7 +4452,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>137</v>
       </c>
@@ -4480,7 +4475,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>138</v>
       </c>
@@ -4503,7 +4498,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>139</v>
       </c>
@@ -4526,7 +4521,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>140</v>
       </c>
@@ -4549,7 +4544,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>141</v>
       </c>
@@ -4572,7 +4567,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>142</v>
       </c>
@@ -4595,7 +4590,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>143</v>
       </c>
@@ -4618,7 +4613,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>144</v>
       </c>
@@ -4641,7 +4636,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>145</v>
       </c>
@@ -4664,7 +4659,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>146</v>
       </c>
@@ -4687,7 +4682,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>147</v>
       </c>
@@ -4710,7 +4705,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>148</v>
       </c>
@@ -4733,7 +4728,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>149</v>
       </c>
@@ -4756,7 +4751,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>150</v>
       </c>
@@ -4779,7 +4774,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>151</v>
       </c>
@@ -4802,7 +4797,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>152</v>
       </c>
@@ -4825,7 +4820,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>153</v>
       </c>
@@ -4848,7 +4843,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>154</v>
       </c>
@@ -4871,7 +4866,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>155</v>
       </c>
@@ -4894,7 +4889,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>156</v>
       </c>
@@ -4917,7 +4912,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>157</v>
       </c>
@@ -4940,7 +4935,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>158</v>
       </c>
@@ -4963,7 +4958,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>159</v>
       </c>
@@ -4986,7 +4981,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>160</v>
       </c>
@@ -5009,7 +5004,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>161</v>
       </c>
@@ -5032,7 +5027,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>162</v>
       </c>
@@ -5055,7 +5050,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>163</v>
       </c>
@@ -5078,7 +5073,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>164</v>
       </c>
@@ -5101,7 +5096,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>165</v>
       </c>
@@ -5124,7 +5119,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>166</v>
       </c>
@@ -5147,7 +5142,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>167</v>
       </c>
@@ -5170,7 +5165,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>168</v>
       </c>
@@ -5193,7 +5188,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>169</v>
       </c>
@@ -5216,7 +5211,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>170</v>
       </c>
@@ -5239,7 +5234,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>171</v>
       </c>
@@ -5262,7 +5257,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>172</v>
       </c>
@@ -5285,7 +5280,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>173</v>
       </c>
@@ -5308,7 +5303,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>174</v>
       </c>
@@ -5331,7 +5326,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>175</v>
       </c>
@@ -5354,7 +5349,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>176</v>
       </c>
@@ -5377,7 +5372,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>177</v>
       </c>
@@ -5400,7 +5395,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>178</v>
       </c>
@@ -5423,7 +5418,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>179</v>
       </c>
@@ -5446,7 +5441,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>180</v>
       </c>
@@ -5469,7 +5464,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>181</v>
       </c>
@@ -5492,7 +5487,7 @@
         <v>45859</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>182</v>
       </c>
@@ -5530,7 +5525,7 @@
         <v>19.61</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>185</v>
       </c>
@@ -5568,7 +5563,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>186</v>
       </c>
@@ -5606,7 +5601,7 @@
         <v>18.670000000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>187</v>
       </c>
@@ -5644,7 +5639,7 @@
         <v>17.38</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>188</v>
       </c>
@@ -5682,7 +5677,7 @@
         <v>19.559999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>189</v>
       </c>
@@ -5720,7 +5715,7 @@
         <v>20.21</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>190</v>
       </c>
@@ -5758,7 +5753,7 @@
         <v>20.74</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>191</v>
       </c>
@@ -5796,7 +5791,7 @@
         <v>21.04</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>192</v>
       </c>
@@ -5834,7 +5829,7 @@
         <v>21.01</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>193</v>
       </c>
@@ -5872,7 +5867,7 @@
         <v>19.27</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>194</v>
       </c>
@@ -5910,7 +5905,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>195</v>
       </c>
@@ -5948,7 +5943,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>196</v>
       </c>
@@ -5986,7 +5981,7 @@
         <v>24.06</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>197</v>
       </c>
@@ -6024,7 +6019,7 @@
         <v>25.21</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>198</v>
       </c>
@@ -6062,7 +6057,7 @@
         <v>24.92</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>199</v>
       </c>
@@ -6100,7 +6095,7 @@
         <v>25.38</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>200</v>
       </c>
@@ -6138,7 +6133,7 @@
         <v>23.86</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>201</v>
       </c>
@@ -6176,7 +6171,7 @@
         <v>22.45</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>202</v>
       </c>
@@ -6214,7 +6209,7 @@
         <v>23.56</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>203</v>
       </c>
@@ -6253,16 +6248,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L162" xr:uid="{2BF4FCBB-AC4B-4BE1-B463-C994B1598E3A}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="SHANK3B"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:L81">
-      <sortCondition ref="A1:A162"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Bandit paper Key.xlsx
+++ b/Data/Bandit paper Key.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gowustl-my.sharepoint.com/personal/murrell_wustl_edu/Documents/Documents/Github/Murrell2025/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gowustl-my.sharepoint.com/personal/sebastiana_wustl_edu/Documents/Documents/GitHub/Murrell2025/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="208" documentId="8_{F8E0B11F-43C0-4782-8D95-C5B9BD28F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{726431CA-76D2-426A-BB56-F8F9ACFC2E88}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="8_{F8E0B11F-43C0-4782-8D95-C5B9BD28F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61EC67B2-6B6B-48BF-9A54-391CF1BFB348}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="1155" windowWidth="23505" windowHeight="13800" xr2:uid="{D69361D2-749D-4D5A-8D7C-5685B1F0A3DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D69361D2-749D-4D5A-8D7C-5685B1F0A3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$161</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="204">
   <si>
     <t>Mouse_ID</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>001</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
   <si>
     <t>Wt</t>
@@ -1076,11 +1073,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF4FCBB-AC4B-4BE1-B463-C994B1598E3A}">
-  <dimension ref="A1:L162"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,25 +1111,25 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1142,16 +1140,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2">
         <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2">
         <v>18.260000000000002</v>
@@ -1166,9 +1164,9 @@
         <v>20.07</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -1177,16 +1175,16 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2">
         <v>34</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2">
         <v>24.61</v>
@@ -1201,9 +1199,9 @@
         <v>24.52</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -1212,16 +1210,16 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2">
         <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2">
         <v>18.46</v>
@@ -1236,9 +1234,9 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -1247,16 +1245,16 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2">
         <v>19</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2">
         <v>20.25</v>
@@ -1271,9 +1269,9 @@
         <v>20.63</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -1282,16 +1280,16 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2">
         <v>39</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2">
         <v>27.54</v>
@@ -1306,9 +1304,9 @@
         <v>27.35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -1317,16 +1315,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2">
         <v>40</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" s="2">
         <v>26.44</v>
@@ -1341,9 +1339,9 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -1352,16 +1350,16 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2">
         <v>20</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="2">
         <v>19.239999999999998</v>
@@ -1376,9 +1374,9 @@
         <v>20.23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -1387,16 +1385,16 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2">
         <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="2">
         <v>19.91</v>
@@ -1411,9 +1409,9 @@
         <v>20.39</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -1422,16 +1420,16 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2">
         <v>35</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="2">
         <v>23.28</v>
@@ -1446,9 +1444,9 @@
         <v>23.59</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -1457,16 +1455,16 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2">
         <v>31</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" s="2">
         <v>26.74</v>
@@ -1481,9 +1479,9 @@
         <v>26.05</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -1492,16 +1490,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="2">
         <v>32</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="2">
         <v>26.66</v>
@@ -1516,9 +1514,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -1527,16 +1525,16 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="2">
         <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="2">
         <v>18.350000000000001</v>
@@ -1551,9 +1549,9 @@
         <v>19.809999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -1562,16 +1560,16 @@
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="2">
         <v>33</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" s="2">
         <v>24.43</v>
@@ -1586,9 +1584,9 @@
         <v>23.87</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -1597,16 +1595,16 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="2">
         <v>13</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="2">
         <v>18.5</v>
@@ -1621,9 +1619,9 @@
         <v>20.07</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -1632,16 +1630,16 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="2">
         <v>36</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H16" s="2">
         <v>26.96</v>
@@ -1656,9 +1654,9 @@
         <v>25.54</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -1667,16 +1665,16 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="2">
         <v>17</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" s="2">
         <v>19.95</v>
@@ -1691,9 +1689,9 @@
         <v>20.420000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -1702,16 +1700,16 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="2">
         <v>37</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H18" s="2">
         <v>24.15</v>
@@ -1726,9 +1724,9 @@
         <v>23.06</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -1737,16 +1735,16 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="2">
         <v>38</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H19" s="2">
         <v>26.43</v>
@@ -1761,9 +1759,9 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -1772,16 +1770,16 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="2">
         <v>18</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H20" s="2">
         <v>17.53</v>
@@ -1796,9 +1794,9 @@
         <v>20.079999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -1807,16 +1805,16 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="2">
         <v>16</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="2">
         <v>18.48</v>
@@ -1833,621 +1831,621 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" s="2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="H22" s="2">
+        <v>23.89</v>
       </c>
       <c r="I22" s="2">
-        <v>20.45</v>
+        <v>23.01</v>
       </c>
       <c r="J22" s="2">
-        <v>21.05</v>
+        <v>23.22</v>
       </c>
       <c r="K22" s="2">
-        <v>20.68</v>
+        <v>23.34</v>
       </c>
       <c r="L22" s="2">
-        <v>21.05</v>
+        <v>24.28</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2">
         <v>10</v>
       </c>
-      <c r="F23" s="2">
-        <v>7</v>
-      </c>
       <c r="G23" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="H23" s="2">
+        <v>18.809999999999999</v>
       </c>
       <c r="I23" s="2">
-        <v>17.48</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="J23" s="2">
-        <v>17.97</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="K23" s="2">
-        <v>18.440000000000001</v>
+        <v>18.21</v>
       </c>
       <c r="L23" s="2">
-        <v>18.43</v>
+        <v>19.64</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2">
+        <v>12</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="2">
-        <v>7</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="H24" s="2">
-        <v>19.52</v>
+        <v>20.38</v>
       </c>
       <c r="I24" s="2">
-        <v>19.3</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="J24" s="2">
-        <v>18.64</v>
+        <v>19.32</v>
       </c>
       <c r="K24" s="2">
-        <v>19.260000000000002</v>
+        <v>19.84</v>
       </c>
       <c r="L24" s="2">
-        <v>19.62</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="H25" s="2">
+        <v>18.05</v>
       </c>
       <c r="I25" s="2">
-        <v>18.03</v>
+        <v>16.87</v>
       </c>
       <c r="J25" s="2">
-        <v>18.72</v>
+        <v>17.07</v>
       </c>
       <c r="K25" s="2">
-        <v>17.86</v>
+        <v>17.22</v>
       </c>
       <c r="L25" s="2">
-        <v>19.38</v>
+        <v>18.350000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2">
+        <v>7</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="2">
-        <v>9</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="I26" s="2">
-        <v>17.72</v>
+        <v>17.48</v>
       </c>
       <c r="J26" s="2">
-        <v>17.059999999999999</v>
+        <v>17.97</v>
       </c>
       <c r="K26" s="2">
-        <v>17.57</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="L26" s="2">
-        <v>17.850000000000001</v>
+        <v>18.43</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2">
+        <v>15</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="2">
-        <v>9</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="2">
-        <v>18.05</v>
-      </c>
       <c r="I27" s="2">
-        <v>16.87</v>
+        <v>24.16</v>
       </c>
       <c r="J27" s="2">
-        <v>17.07</v>
+        <v>25.55</v>
       </c>
       <c r="K27" s="2">
-        <v>17.22</v>
+        <v>25.11</v>
       </c>
       <c r="L27" s="2">
-        <v>18.350000000000001</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2">
+        <v>8</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="2">
-        <v>10</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="I28" s="2">
-        <v>16.920000000000002</v>
+        <v>18.03</v>
       </c>
       <c r="J28" s="2">
-        <v>17.34</v>
+        <v>18.72</v>
       </c>
       <c r="K28" s="2">
-        <v>16.93</v>
+        <v>17.86</v>
       </c>
       <c r="L28" s="2">
-        <v>17.86</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2">
+        <v>9</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="2">
-        <v>10</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="2">
-        <v>18.809999999999999</v>
-      </c>
       <c r="I29" s="2">
-        <v>17.440000000000001</v>
+        <v>17.72</v>
       </c>
       <c r="J29" s="2">
-        <v>17.309999999999999</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="K29" s="2">
-        <v>18.21</v>
+        <v>17.57</v>
       </c>
       <c r="L29" s="2">
-        <v>19.64</v>
+        <v>17.850000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2">
+        <v>6</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="2">
-        <v>11</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="2">
-        <v>19.2</v>
-      </c>
       <c r="I30" s="2">
-        <v>17.739999999999998</v>
+        <v>20.45</v>
       </c>
       <c r="J30" s="2">
-        <v>18.100000000000001</v>
+        <v>21.05</v>
       </c>
       <c r="K30" s="2">
-        <v>18.91</v>
+        <v>20.68</v>
       </c>
       <c r="L30" s="2">
-        <v>19.72</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2">
+        <v>17</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="2">
-        <v>12</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="2">
-        <v>20.38</v>
-      </c>
       <c r="I31" s="2">
-        <v>19.489999999999998</v>
+        <v>21.54</v>
       </c>
       <c r="J31" s="2">
-        <v>19.32</v>
+        <v>22.32</v>
       </c>
       <c r="K31" s="2">
-        <v>19.84</v>
+        <v>22.31</v>
       </c>
       <c r="L31" s="2">
-        <v>19.98</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2">
+        <v>18</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="2">
-        <v>15</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="I32" s="2">
-        <v>24.16</v>
+        <v>21.7</v>
       </c>
       <c r="J32" s="2">
-        <v>25.55</v>
+        <v>22.09</v>
       </c>
       <c r="K32" s="2">
-        <v>25.11</v>
+        <v>21.7</v>
       </c>
       <c r="L32" s="2">
-        <v>25.66</v>
+        <v>22.12</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2">
+        <v>19</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="2">
-        <v>17</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="I33" s="2">
-        <v>21.54</v>
+        <v>21.37</v>
       </c>
       <c r="J33" s="2">
-        <v>22.32</v>
+        <v>22.87</v>
       </c>
       <c r="K33" s="2">
-        <v>22.31</v>
+        <v>21.49</v>
       </c>
       <c r="L33" s="2">
-        <v>23.02</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" s="2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H34" s="2">
-        <v>25.04</v>
+        <v>19.52</v>
       </c>
       <c r="I34" s="2">
-        <v>25.41</v>
+        <v>19.3</v>
       </c>
       <c r="J34" s="2">
-        <v>25.03</v>
+        <v>18.64</v>
       </c>
       <c r="K34" s="2">
-        <v>25.84</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="L34" s="2">
-        <v>25.36</v>
+        <v>19.62</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="H35" s="2">
+        <v>19.2</v>
       </c>
       <c r="I35" s="2">
-        <v>21.7</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="J35" s="2">
-        <v>22.09</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="K35" s="2">
-        <v>21.7</v>
+        <v>18.91</v>
       </c>
       <c r="L35" s="2">
-        <v>22.12</v>
+        <v>19.72</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H36" s="2">
-        <v>26.89</v>
+        <v>25.04</v>
       </c>
       <c r="I36" s="2">
-        <v>26.54</v>
+        <v>25.41</v>
       </c>
       <c r="J36" s="2">
-        <v>26.73</v>
+        <v>25.03</v>
       </c>
       <c r="K36" s="2">
-        <v>27.57</v>
+        <v>25.84</v>
       </c>
       <c r="L36" s="2">
-        <v>27.32</v>
+        <v>25.36</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="H37" s="2">
+        <v>24.85</v>
       </c>
       <c r="I37" s="2">
-        <v>21.37</v>
+        <v>24.9</v>
       </c>
       <c r="J37" s="2">
-        <v>22.87</v>
+        <v>25.24</v>
       </c>
       <c r="K37" s="2">
-        <v>21.49</v>
+        <v>24.94</v>
       </c>
       <c r="L37" s="2">
-        <v>22.38</v>
+        <v>25.25</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="2">
+        <v>10</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="2">
-        <v>19</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H38" s="2">
-        <v>23.89</v>
-      </c>
       <c r="I38" s="2">
-        <v>23.01</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="J38" s="2">
-        <v>23.22</v>
+        <v>17.34</v>
       </c>
       <c r="K38" s="2">
-        <v>23.34</v>
+        <v>16.93</v>
       </c>
       <c r="L38" s="2">
-        <v>24.28</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2455,516 +2453,516 @@
         <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H39" s="2">
-        <v>24.85</v>
+        <v>25.87</v>
       </c>
       <c r="I39" s="2">
-        <v>24.9</v>
+        <v>25.3</v>
       </c>
       <c r="J39" s="2">
-        <v>25.24</v>
+        <v>25</v>
       </c>
       <c r="K39" s="2">
-        <v>24.94</v>
+        <v>24.78</v>
       </c>
       <c r="L39" s="2">
-        <v>25.25</v>
+        <v>25.36</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F40" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H40" s="2">
-        <v>25.87</v>
+        <v>26.89</v>
       </c>
       <c r="I40" s="2">
-        <v>25.3</v>
+        <v>26.54</v>
       </c>
       <c r="J40" s="2">
-        <v>25</v>
+        <v>26.73</v>
       </c>
       <c r="K40" s="2">
-        <v>24.78</v>
+        <v>27.57</v>
       </c>
       <c r="L40" s="2">
-        <v>25.36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>27.32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>101</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F41" s="2">
+        <v>27</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="2">
+        <v>20.02</v>
+      </c>
+      <c r="I41" s="2">
+        <v>18.28</v>
+      </c>
+      <c r="J41" s="2">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="K41" s="2">
+        <v>19.13</v>
+      </c>
+      <c r="L41" s="2">
+        <v>18.559999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="2">
+        <v>35</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="2">
+        <v>19.53</v>
+      </c>
+      <c r="I42" s="2">
+        <v>19.11</v>
+      </c>
+      <c r="J42" s="2">
+        <v>20.59</v>
+      </c>
+      <c r="K42" s="2">
+        <v>19.89</v>
+      </c>
+      <c r="L42" s="2">
+        <v>20.71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="2">
+        <v>39</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" s="2">
+        <v>18.32</v>
+      </c>
+      <c r="I43" s="2">
+        <v>17.47</v>
+      </c>
+      <c r="J43" s="2">
+        <v>19.8</v>
+      </c>
+      <c r="K43" s="2">
+        <v>17.8</v>
+      </c>
+      <c r="L43" s="2">
+        <v>18.97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="2">
         <v>26</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" s="2">
+      <c r="G44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" s="2">
         <v>18.93</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I44" s="2">
         <v>18.559999999999999</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J44" s="2">
         <v>20.52</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K44" s="2">
         <v>18.93</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L44" s="2">
         <v>18.84</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="2">
-        <v>27</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H42" s="2">
-        <v>20.02</v>
-      </c>
-      <c r="I42" s="2">
-        <v>18.28</v>
-      </c>
-      <c r="J42" s="2">
-        <v>19.649999999999999</v>
-      </c>
-      <c r="K42" s="2">
-        <v>19.13</v>
-      </c>
-      <c r="L42" s="2">
-        <v>18.559999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="2">
+        <v>28</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45" s="2">
+        <v>20.34</v>
+      </c>
+      <c r="I45" s="2">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="J45" s="2">
+        <v>21.03</v>
+      </c>
+      <c r="K45" s="2">
+        <v>21.07</v>
+      </c>
+      <c r="L45" s="2">
+        <v>21.47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="2">
-        <v>28</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H43" s="2">
-        <v>20.34</v>
-      </c>
-      <c r="I43" s="2">
-        <v>20.190000000000001</v>
-      </c>
-      <c r="J43" s="2">
-        <v>21.03</v>
-      </c>
-      <c r="K43" s="2">
-        <v>21.07</v>
-      </c>
-      <c r="L43" s="2">
-        <v>21.47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="B46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="2">
         <v>30</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44" s="2">
+      <c r="G46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" s="2">
         <v>20.059999999999999</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I46" s="2">
         <v>19.309999999999999</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J46" s="2">
         <v>21.48</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K46" s="2">
         <v>20.04</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L46" s="2">
         <v>21.21</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="2">
-        <v>32</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H45" s="2">
-        <v>20.16</v>
-      </c>
-      <c r="I45" s="2">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="J45" s="2">
-        <v>20.45</v>
-      </c>
-      <c r="K45" s="2">
-        <v>20.07</v>
-      </c>
-      <c r="L45" s="2">
-        <v>19.95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="2">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H46" s="2">
-        <v>19.53</v>
-      </c>
-      <c r="I46" s="2">
-        <v>19.11</v>
-      </c>
-      <c r="J46" s="2">
-        <v>20.59</v>
-      </c>
-      <c r="K46" s="2">
-        <v>19.89</v>
-      </c>
-      <c r="L46" s="2">
-        <v>20.71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>107</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47" s="2">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H47" s="2">
-        <v>18.32</v>
+        <v>27.55</v>
       </c>
       <c r="I47" s="2">
-        <v>17.47</v>
+        <v>25.74</v>
       </c>
       <c r="J47" s="2">
-        <v>19.8</v>
+        <v>27.31</v>
       </c>
       <c r="K47" s="2">
-        <v>17.8</v>
+        <v>26.02</v>
       </c>
       <c r="L47" s="2">
-        <v>18.97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>26.39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F48" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H48" s="2">
-        <v>17.54</v>
+        <v>24.73</v>
       </c>
       <c r="I48" s="2">
-        <v>17.22</v>
+        <v>24.43</v>
       </c>
       <c r="J48" s="2">
-        <v>18.91</v>
+        <v>25.49</v>
       </c>
       <c r="K48" s="2">
-        <v>17.53</v>
+        <v>25.09</v>
       </c>
       <c r="L48" s="2">
-        <v>19.079999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>25.88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F49" s="2">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H49" s="2">
-        <v>19.71</v>
+        <v>26.89</v>
       </c>
       <c r="I49" s="2">
-        <v>18.38</v>
+        <v>25.78</v>
       </c>
       <c r="J49" s="2">
-        <v>20</v>
+        <v>25.59</v>
       </c>
       <c r="K49" s="2">
-        <v>18.75</v>
+        <v>25.14</v>
       </c>
       <c r="L49" s="2">
-        <v>19.77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>24.56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50" s="2">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H50" s="2">
-        <v>18.32</v>
+        <v>25.36</v>
       </c>
       <c r="I50" s="2">
-        <v>18.41</v>
+        <v>23.89</v>
       </c>
       <c r="J50" s="2">
-        <v>19.5</v>
+        <v>25.51</v>
       </c>
       <c r="K50" s="2">
-        <v>17.920000000000002</v>
+        <v>24.06</v>
       </c>
       <c r="L50" s="2">
-        <v>18.88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>24.38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="2">
+        <v>70</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H51" s="2">
+        <v>30.04</v>
+      </c>
+      <c r="I51" s="2">
+        <v>28.23</v>
+      </c>
+      <c r="J51" s="2">
+        <v>29.48</v>
+      </c>
+      <c r="K51" s="2">
+        <v>28.14</v>
+      </c>
+      <c r="L51" s="2">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="2">
-        <v>68</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H51" s="2">
-        <v>27.55</v>
-      </c>
-      <c r="I51" s="2">
-        <v>25.74</v>
-      </c>
-      <c r="J51" s="2">
-        <v>27.31</v>
-      </c>
-      <c r="K51" s="2">
-        <v>26.02</v>
-      </c>
-      <c r="L51" s="2">
-        <v>26.39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>112</v>
-      </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F52" s="2">
         <v>69</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H52" s="2">
         <v>29.7</v>
@@ -2982,2029 +2980,2014 @@
         <v>27.91</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" s="2">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H53" s="2">
-        <v>23.45</v>
+        <v>17.54</v>
       </c>
       <c r="I53" s="2">
-        <v>22.48</v>
+        <v>17.22</v>
       </c>
       <c r="J53" s="2">
-        <v>22.99</v>
+        <v>18.91</v>
       </c>
       <c r="K53" s="2">
-        <v>22.27</v>
+        <v>17.53</v>
       </c>
       <c r="L53" s="2">
-        <v>22.95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19.079999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F54" s="2">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H54" s="2">
-        <v>24.16</v>
+        <v>19.71</v>
       </c>
       <c r="I54" s="2">
-        <v>23.31</v>
+        <v>18.38</v>
       </c>
       <c r="J54" s="2">
-        <v>23.81</v>
+        <v>20</v>
       </c>
       <c r="K54" s="2">
-        <v>23.93</v>
+        <v>18.75</v>
       </c>
       <c r="L54" s="2">
-        <v>23.01</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19.77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="2">
+        <v>77</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H55" s="2">
+        <v>26.71</v>
+      </c>
+      <c r="I55" s="2">
+        <v>25.98</v>
+      </c>
+      <c r="J55" s="2">
+        <v>27.29</v>
+      </c>
+      <c r="K55" s="2">
+        <v>25.78</v>
+      </c>
+      <c r="L55" s="2">
+        <v>26.07</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="2">
+        <v>51</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H56" s="2">
+        <v>18.32</v>
+      </c>
+      <c r="I56" s="2">
+        <v>18.41</v>
+      </c>
+      <c r="J56" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="K56" s="2">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="L56" s="2">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="2">
+        <v>79</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H57" s="2">
+        <v>22.73</v>
+      </c>
+      <c r="I57" s="2">
+        <v>22.18</v>
+      </c>
+      <c r="J57" s="2">
+        <v>22.95</v>
+      </c>
+      <c r="K57" s="2">
+        <v>21.98</v>
+      </c>
+      <c r="L57" s="2">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="2">
+        <v>32</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H58" s="2">
+        <v>20.16</v>
+      </c>
+      <c r="I58" s="2">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="J58" s="2">
+        <v>20.45</v>
+      </c>
+      <c r="K58" s="2">
+        <v>20.07</v>
+      </c>
+      <c r="L58" s="2">
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="2">
+        <v>71</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H59" s="2">
+        <v>24.16</v>
+      </c>
+      <c r="I59" s="2">
+        <v>23.31</v>
+      </c>
+      <c r="J59" s="2">
+        <v>23.81</v>
+      </c>
+      <c r="K59" s="2">
+        <v>23.93</v>
+      </c>
+      <c r="L59" s="2">
+        <v>23.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="2">
+        <v>72</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H60" s="2">
+        <v>23.45</v>
+      </c>
+      <c r="I60" s="2">
+        <v>22.48</v>
+      </c>
+      <c r="J60" s="2">
+        <v>22.99</v>
+      </c>
+      <c r="K60" s="2">
+        <v>22.27</v>
+      </c>
+      <c r="L60" s="2">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="2">
-        <v>70</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H55" s="2">
-        <v>30.04</v>
-      </c>
-      <c r="I55" s="2">
-        <v>28.23</v>
-      </c>
-      <c r="J55" s="2">
-        <v>29.48</v>
-      </c>
-      <c r="K55" s="2">
-        <v>28.14</v>
-      </c>
-      <c r="L55" s="2">
-        <v>28.1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>116</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="2">
-        <v>77</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H56" s="2">
-        <v>26.71</v>
-      </c>
-      <c r="I56" s="2">
-        <v>25.98</v>
-      </c>
-      <c r="J56" s="2">
-        <v>27.29</v>
-      </c>
-      <c r="K56" s="2">
-        <v>25.78</v>
-      </c>
-      <c r="L56" s="2">
-        <v>26.07</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>117</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="2">
-        <v>75</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H57" s="2">
-        <v>26.89</v>
-      </c>
-      <c r="I57" s="2">
-        <v>25.78</v>
-      </c>
-      <c r="J57" s="2">
-        <v>25.59</v>
-      </c>
-      <c r="K57" s="2">
-        <v>25.14</v>
-      </c>
-      <c r="L57" s="2">
-        <v>24.56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="2">
-        <v>74</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H58" s="2">
-        <v>24.73</v>
-      </c>
-      <c r="I58" s="2">
-        <v>24.43</v>
-      </c>
-      <c r="J58" s="2">
-        <v>25.49</v>
-      </c>
-      <c r="K58" s="2">
-        <v>25.09</v>
-      </c>
-      <c r="L58" s="2">
-        <v>25.88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="2">
-        <v>76</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H59" s="2">
-        <v>25.36</v>
-      </c>
-      <c r="I59" s="2">
-        <v>23.89</v>
-      </c>
-      <c r="J59" s="2">
-        <v>25.51</v>
-      </c>
-      <c r="K59" s="2">
-        <v>24.06</v>
-      </c>
-      <c r="L59" s="2">
-        <v>24.38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>120</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="2">
-        <v>79</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H60" s="2">
-        <v>22.73</v>
-      </c>
-      <c r="I60" s="2">
-        <v>22.18</v>
-      </c>
-      <c r="J60" s="2">
-        <v>22.95</v>
-      </c>
-      <c r="K60" s="2">
-        <v>21.98</v>
-      </c>
-      <c r="L60" s="2">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>101</v>
-      </c>
       <c r="B61" s="2" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F61" s="2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>84</v>
       </c>
       <c r="H61" s="2">
-        <v>18.93</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="I61" s="2">
-        <v>18.559999999999999</v>
+        <v>18.579999999999998</v>
       </c>
       <c r="J61" s="2">
-        <v>20.52</v>
+        <v>20.36</v>
       </c>
       <c r="K61" s="2">
-        <v>18.93</v>
+        <v>18.55</v>
       </c>
       <c r="L61" s="2">
-        <v>18.84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D62" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" s="2">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H62" s="2">
-        <v>18.420000000000002</v>
+        <v>23.06</v>
       </c>
       <c r="I62" s="2">
-        <v>18.579999999999998</v>
+        <v>22.23</v>
       </c>
       <c r="J62" s="2">
-        <v>20.36</v>
+        <v>23.01</v>
       </c>
       <c r="K62" s="2">
-        <v>18.55</v>
+        <v>22.04</v>
       </c>
       <c r="L62" s="2">
-        <v>19.41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>40</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D63" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H63" s="2">
-        <v>23.06</v>
+        <v>24.77</v>
       </c>
       <c r="I63" s="2">
-        <v>22.23</v>
+        <v>23.89</v>
       </c>
       <c r="J63" s="2">
-        <v>23.01</v>
+        <v>24.12</v>
       </c>
       <c r="K63" s="2">
-        <v>22.04</v>
+        <v>23.51</v>
       </c>
       <c r="L63" s="2">
-        <v>22.89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>23.76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>41</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" s="2">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H64" s="2">
-        <v>24.77</v>
+        <v>20.46</v>
       </c>
       <c r="I64" s="2">
-        <v>23.89</v>
+        <v>20.27</v>
       </c>
       <c r="J64" s="2">
-        <v>24.12</v>
+        <v>21.1</v>
       </c>
       <c r="K64" s="2">
-        <v>23.51</v>
+        <v>20.02</v>
       </c>
       <c r="L64" s="2">
-        <v>23.76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>42</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H65" s="2">
-        <v>20.46</v>
+        <v>20.66</v>
       </c>
       <c r="I65" s="2">
-        <v>20.27</v>
+        <v>19.91</v>
       </c>
       <c r="J65" s="2">
-        <v>21.1</v>
+        <v>21.55</v>
       </c>
       <c r="K65" s="2">
-        <v>20.02</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="L65" s="2">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20.309999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>43</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" s="2">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H66" s="2">
-        <v>20.66</v>
+        <v>20.28</v>
       </c>
       <c r="I66" s="2">
-        <v>19.91</v>
+        <v>19.22</v>
       </c>
       <c r="J66" s="2">
-        <v>21.55</v>
+        <v>20.05</v>
       </c>
       <c r="K66" s="2">
-        <v>20.309999999999999</v>
+        <v>19.7</v>
       </c>
       <c r="L66" s="2">
-        <v>20.309999999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20.95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>44</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D67" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H67" s="2">
-        <v>20.28</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="I67" s="2">
-        <v>19.22</v>
+        <v>19.14</v>
       </c>
       <c r="J67" s="2">
-        <v>20.05</v>
+        <v>20.67</v>
       </c>
       <c r="K67" s="2">
-        <v>19.7</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="L67" s="2">
-        <v>20.95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19.559999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>45</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D68" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" s="2">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H68" s="2">
-        <v>19.350000000000001</v>
+        <v>24.74</v>
       </c>
       <c r="I68" s="2">
-        <v>19.14</v>
+        <v>23.87</v>
       </c>
       <c r="J68" s="2">
-        <v>20.67</v>
+        <v>25.07</v>
       </c>
       <c r="K68" s="2">
-        <v>19.079999999999998</v>
+        <v>23.61</v>
       </c>
       <c r="L68" s="2">
-        <v>19.559999999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>46</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D69" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" s="2">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H69" s="2">
-        <v>24.74</v>
+        <v>20.98</v>
       </c>
       <c r="I69" s="2">
-        <v>23.87</v>
+        <v>20.03</v>
       </c>
       <c r="J69" s="2">
-        <v>25.07</v>
+        <v>21.24</v>
       </c>
       <c r="K69" s="2">
-        <v>23.61</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="L69" s="2">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21.11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>47</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D70" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F70" s="2">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H70" s="2">
-        <v>20.98</v>
+        <v>26.92</v>
       </c>
       <c r="I70" s="2">
-        <v>20.03</v>
+        <v>26.24</v>
       </c>
       <c r="J70" s="2">
-        <v>21.24</v>
+        <v>27</v>
       </c>
       <c r="K70" s="2">
-        <v>20.079999999999998</v>
+        <v>25.56</v>
       </c>
       <c r="L70" s="2">
-        <v>21.11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>48</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D71" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H71" s="2">
-        <v>26.92</v>
+        <v>27.08</v>
       </c>
       <c r="I71" s="2">
-        <v>26.24</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="J71" s="2">
-        <v>27</v>
+        <v>27.11</v>
       </c>
       <c r="K71" s="2">
-        <v>25.56</v>
+        <v>27.21</v>
       </c>
       <c r="L71" s="2">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>26.94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>49</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D72" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72" s="2">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H72" s="2">
-        <v>27.08</v>
+        <v>19.96</v>
       </c>
       <c r="I72" s="2">
-        <v>20.420000000000002</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="J72" s="2">
-        <v>27.11</v>
+        <v>20.59</v>
       </c>
       <c r="K72" s="2">
-        <v>27.21</v>
+        <v>19.36</v>
       </c>
       <c r="L72" s="2">
-        <v>26.94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20.45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>50</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D73" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F73" s="2">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H73" s="2">
-        <v>19.96</v>
+        <v>27.11</v>
       </c>
       <c r="I73" s="2">
-        <v>18.899999999999999</v>
+        <v>25.47</v>
       </c>
       <c r="J73" s="2">
-        <v>20.59</v>
+        <v>26.88</v>
       </c>
       <c r="K73" s="2">
-        <v>19.36</v>
+        <v>26.22</v>
       </c>
       <c r="L73" s="2">
-        <v>20.45</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>51</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D74" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" s="2">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H74" s="2">
-        <v>27.11</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="I74" s="2">
-        <v>25.47</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="J74" s="2">
-        <v>26.88</v>
+        <v>18.8</v>
       </c>
       <c r="K74" s="2">
-        <v>26.22</v>
+        <v>18.5</v>
       </c>
       <c r="L74" s="2">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18.86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>52</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D75" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75" s="2">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H75" s="2">
-        <v>19.079999999999998</v>
+        <v>25.91</v>
       </c>
       <c r="I75" s="2">
-        <v>18.149999999999999</v>
+        <v>24.79</v>
       </c>
       <c r="J75" s="2">
-        <v>18.8</v>
+        <v>26.04</v>
       </c>
       <c r="K75" s="2">
-        <v>18.5</v>
+        <v>25.42</v>
       </c>
       <c r="L75" s="2">
-        <v>18.86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>24.83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>53</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D76" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" s="2">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H76" s="2">
-        <v>25.91</v>
+        <v>20.27</v>
       </c>
       <c r="I76" s="2">
-        <v>24.79</v>
+        <v>19.54</v>
       </c>
       <c r="J76" s="2">
-        <v>26.04</v>
+        <v>20.25</v>
       </c>
       <c r="K76" s="2">
-        <v>25.42</v>
+        <v>19.3</v>
       </c>
       <c r="L76" s="2">
-        <v>24.83</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>54</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D77" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="2">
         <v>10</v>
       </c>
-      <c r="F77" s="2">
-        <v>9</v>
-      </c>
       <c r="G77" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H77" s="2">
-        <v>20.27</v>
+        <v>18.579999999999998</v>
       </c>
       <c r="I77" s="2">
-        <v>19.54</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="J77" s="2">
-        <v>20.25</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="K77" s="2">
-        <v>19.3</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="L77" s="2">
-        <v>20.22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18.48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>55</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D78" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" s="2">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H78" s="2">
-        <v>18.579999999999998</v>
+        <v>28.22</v>
       </c>
       <c r="I78" s="2">
-        <v>17.260000000000002</v>
+        <v>26.99</v>
       </c>
       <c r="J78" s="2">
-        <v>18.690000000000001</v>
+        <v>28.16</v>
       </c>
       <c r="K78" s="2">
-        <v>18.350000000000001</v>
+        <v>27.15</v>
       </c>
       <c r="L78" s="2">
-        <v>18.48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>26.41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>56</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D79" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F79" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H79" s="2">
-        <v>28.22</v>
+        <v>23.06</v>
       </c>
       <c r="I79" s="2">
-        <v>26.99</v>
+        <v>22.83</v>
       </c>
       <c r="J79" s="2">
-        <v>28.16</v>
+        <v>23.79</v>
       </c>
       <c r="K79" s="2">
-        <v>27.15</v>
+        <v>23.32</v>
       </c>
       <c r="L79" s="2">
-        <v>26.41</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>24.48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>57</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="2">
         <v>39</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" s="2">
-        <v>37</v>
-      </c>
       <c r="G80" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H80" s="2">
-        <v>23.06</v>
+        <v>24.96</v>
       </c>
       <c r="I80" s="2">
-        <v>22.83</v>
+        <v>24.34</v>
       </c>
       <c r="J80" s="2">
-        <v>23.79</v>
+        <v>25.53</v>
       </c>
       <c r="K80" s="2">
-        <v>23.32</v>
+        <v>24.6</v>
       </c>
       <c r="L80" s="2">
-        <v>24.48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+        <v>25.53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
+      </c>
+      <c r="C81" s="2">
+        <v>222</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" s="2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H81" s="2">
-        <v>24.96</v>
-      </c>
-      <c r="I81" s="2">
-        <v>24.34</v>
-      </c>
-      <c r="J81" s="2">
-        <v>25.53</v>
-      </c>
-      <c r="K81" s="2">
-        <v>24.6</v>
-      </c>
-      <c r="L81" s="2">
-        <v>25.53</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C82" s="2">
         <v>222</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C83" s="2">
         <v>222</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C84" s="2">
         <v>222</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F84" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>124</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C85" s="2">
         <v>222</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F85" s="2">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>125</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86" s="2">
         <v>222</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F86" s="2">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C87" s="2">
         <v>222</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F87" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C88" s="2">
         <v>222</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F88" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C89" s="2">
         <v>222</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F89" s="2">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>129</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C90" s="2">
         <v>222</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F90" s="2">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>130</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C91" s="2">
         <v>222</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F91" s="2">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C92" s="2">
         <v>222</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F92" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>132</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C93" s="2">
         <v>222</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F93" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94" s="2">
         <v>222</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F94" s="2">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>134</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C95" s="2">
         <v>222</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F95" s="2">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>135</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C96" s="2">
         <v>222</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>136</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C97" s="2">
         <v>222</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F97" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C98" s="2">
         <v>222</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F98" s="2">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>138</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2">
         <v>222</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>139</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100" s="2">
         <v>222</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F100" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>140</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" s="2">
         <v>222</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F101" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>141</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C102" s="2">
         <v>222</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F102" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>142</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103" s="2">
         <v>222</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F103" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>143</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="2">
         <v>222</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F104" s="2">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>144</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C105" s="2">
         <v>222</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F105" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C106" s="2">
         <v>222</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F106" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>146</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C107" s="2">
         <v>222</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F107" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>147</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C108" s="2">
         <v>222</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F108" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>148</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C109" s="2">
         <v>222</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F109" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>149</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C110" s="2">
         <v>222</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F110" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>150</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C111" s="2">
         <v>222</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F111" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>151</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C112" s="2">
         <v>222</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F112" s="2">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>152</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C113" s="2">
         <v>222</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F113" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>153</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C114" s="2">
         <v>222</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F114" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C115" s="2">
         <v>222</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F115" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>155</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C116" s="2">
         <v>222</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F116" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>156</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C117" s="2">
         <v>222</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F117" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>157</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C118" s="2">
         <v>222</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F118" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>158</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C119" s="2">
         <v>222</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F119" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>159</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C120" s="2">
         <v>222</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F120" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>160</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C121" s="2">
         <v>222</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F121" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>161</v>
       </c>
@@ -5012,610 +4995,625 @@
         <v>99</v>
       </c>
       <c r="C122" s="2">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F122" s="2">
-        <v>305</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G122" s="4">
+        <v>45859</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>162</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C123" s="2">
         <v>333</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F123" s="2">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G123" s="4">
         <v>45859</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>163</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C124" s="2">
         <v>333</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F124" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G124" s="4">
         <v>45859</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>164</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C125" s="2">
         <v>333</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="2">
         <v>61</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" s="2">
-        <v>60</v>
       </c>
       <c r="G125" s="4">
         <v>45859</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>165</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C126" s="2">
         <v>333</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F126" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G126" s="4">
         <v>45859</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>166</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C127" s="2">
         <v>333</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F127" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G127" s="4">
         <v>45859</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>167</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C128" s="2">
         <v>333</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F128" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G128" s="4">
         <v>45859</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>168</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C129" s="2">
         <v>333</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F129" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G129" s="4">
         <v>45859</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>169</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C130" s="2">
         <v>333</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F130" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G130" s="4">
         <v>45859</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>170</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C131" s="2">
         <v>333</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F131" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G131" s="4">
         <v>45859</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>171</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C132" s="2">
         <v>333</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F132" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G132" s="4">
         <v>45859</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>172</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C133" s="2">
         <v>333</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F133" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G133" s="4">
         <v>45859</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>173</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C134" s="2">
         <v>333</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F134" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G134" s="4">
         <v>45859</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>174</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C135" s="2">
         <v>333</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F135" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G135" s="4">
         <v>45859</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>175</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C136" s="2">
         <v>333</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F136" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G136" s="4">
         <v>45859</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>176</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C137" s="2">
         <v>333</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F137" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G137" s="4">
         <v>45859</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>177</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C138" s="2">
         <v>333</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F138" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G138" s="4">
         <v>45859</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>178</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C139" s="2">
         <v>333</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F139" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G139" s="4">
         <v>45859</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>179</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C140" s="2">
         <v>333</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F140" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G140" s="4">
         <v>45859</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>180</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C141" s="2">
         <v>333</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F141" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G141" s="4">
         <v>45859</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>181</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C142" s="2">
-        <v>333</v>
+        <v>182</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F142" s="2">
-        <v>80</v>
-      </c>
-      <c r="G142" s="4">
-        <v>45859</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G142" s="6">
+        <v>45936</v>
+      </c>
+      <c r="H142">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="I142">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="J142">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="K142">
+        <v>18.98</v>
+      </c>
+      <c r="L142">
+        <v>19.61</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>184</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C143" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D143" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F143" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G143" s="6">
         <v>45936</v>
       </c>
       <c r="H143">
-        <v>18.690000000000001</v>
+        <v>18.73</v>
       </c>
       <c r="I143">
-        <v>18.829999999999998</v>
+        <v>18.22</v>
       </c>
       <c r="J143">
-        <v>19.579999999999998</v>
+        <v>19.32</v>
       </c>
       <c r="K143">
-        <v>18.98</v>
+        <v>18.86</v>
       </c>
       <c r="L143">
-        <v>19.61</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18.84</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>185</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D144" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F144" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G144" s="6">
         <v>45936</v>
       </c>
       <c r="H144">
-        <v>18.73</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="I144">
-        <v>18.22</v>
+        <v>16.63</v>
       </c>
       <c r="J144">
-        <v>19.32</v>
+        <v>17.79</v>
       </c>
       <c r="K144">
-        <v>18.86</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="L144">
-        <v>18.84</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18.670000000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D145" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F145" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G145" s="6">
         <v>45936</v>
       </c>
       <c r="H145">
-        <v>16.920000000000002</v>
+        <v>23.03</v>
       </c>
       <c r="I145">
-        <v>16.63</v>
+        <v>22.24</v>
       </c>
       <c r="J145">
-        <v>17.79</v>
+        <v>22.4</v>
       </c>
       <c r="K145">
-        <v>17.059999999999999</v>
+        <v>22.23</v>
       </c>
       <c r="L145">
-        <v>18.670000000000002</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D146" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F146" s="2">
         <v>35</v>
@@ -5639,21 +5637,21 @@
         <v>17.38</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D147" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F147" s="2">
         <v>27</v>
@@ -5677,577 +5675,549 @@
         <v>19.559999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C148" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D148" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F148" s="2">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="G148" s="6">
         <v>45936</v>
       </c>
       <c r="H148">
-        <v>19.32</v>
+        <v>25.27</v>
       </c>
       <c r="I148">
-        <v>19.260000000000002</v>
+        <v>24.61</v>
       </c>
       <c r="J148">
-        <v>20.61</v>
+        <v>25.7</v>
       </c>
       <c r="K148">
-        <v>19.16</v>
+        <v>24.89</v>
       </c>
       <c r="L148">
-        <v>20.21</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+        <v>24.67</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D149" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F149" s="2">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G149" s="6">
         <v>45936</v>
       </c>
       <c r="H149">
-        <v>19.239999999999998</v>
+        <v>24.76</v>
       </c>
       <c r="I149">
-        <v>19.05</v>
+        <v>23.8</v>
       </c>
       <c r="J149">
-        <v>20.04</v>
+        <v>25.98</v>
       </c>
       <c r="K149">
-        <v>19.66</v>
+        <v>23.86</v>
       </c>
       <c r="L149">
-        <v>20.74</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+        <v>24.06</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D150" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F150" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G150" s="6">
         <v>45936</v>
       </c>
       <c r="H150">
-        <v>19.29</v>
+        <v>25.52</v>
       </c>
       <c r="I150">
-        <v>18.43</v>
+        <v>24.94</v>
       </c>
       <c r="J150">
-        <v>20.53</v>
+        <v>25.74</v>
       </c>
       <c r="K150">
-        <v>18.98</v>
+        <v>24.85</v>
       </c>
       <c r="L150">
-        <v>21.04</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+        <v>25.21</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D151" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F151" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G151" s="6">
         <v>45936</v>
       </c>
       <c r="H151">
-        <v>20.41</v>
+        <v>19.32</v>
       </c>
       <c r="I151">
-        <v>19.37</v>
+        <v>19.260000000000002</v>
       </c>
       <c r="J151">
-        <v>20.59</v>
+        <v>20.61</v>
       </c>
       <c r="K151">
-        <v>20.38</v>
+        <v>19.16</v>
       </c>
       <c r="L151">
-        <v>21.01</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20.21</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D152" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F152" s="2">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G152" s="6">
         <v>45936</v>
       </c>
       <c r="H152">
-        <v>17.829999999999998</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="I152">
-        <v>17.23</v>
+        <v>19.05</v>
       </c>
       <c r="J152">
-        <v>19.18</v>
+        <v>20.04</v>
       </c>
       <c r="K152">
-        <v>18.399999999999999</v>
+        <v>19.66</v>
       </c>
       <c r="L152">
-        <v>19.27</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20.74</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D153" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F153" s="2">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G153" s="6">
         <v>45936</v>
       </c>
       <c r="H153">
-        <v>23.03</v>
+        <v>19.29</v>
       </c>
       <c r="I153">
-        <v>22.24</v>
+        <v>18.43</v>
       </c>
       <c r="J153">
-        <v>22.4</v>
+        <v>20.53</v>
       </c>
       <c r="K153">
-        <v>22.23</v>
+        <v>18.98</v>
       </c>
       <c r="L153">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21.04</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D154" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F154" s="2">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G154" s="6">
         <v>45936</v>
       </c>
       <c r="H154">
-        <v>25.27</v>
+        <v>20.41</v>
       </c>
       <c r="I154">
-        <v>24.61</v>
+        <v>19.37</v>
       </c>
       <c r="J154">
-        <v>25.7</v>
+        <v>20.59</v>
       </c>
       <c r="K154">
-        <v>24.89</v>
+        <v>20.38</v>
       </c>
       <c r="L154">
-        <v>24.67</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+        <v>21.01</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D155" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F155" s="2">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G155" s="6">
         <v>45936</v>
       </c>
       <c r="H155">
-        <v>24.76</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="I155">
-        <v>23.8</v>
+        <v>17.23</v>
       </c>
       <c r="J155">
-        <v>25.98</v>
+        <v>19.18</v>
       </c>
       <c r="K155">
-        <v>23.86</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="L155">
-        <v>24.06</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19.27</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>197</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D156" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F156" s="2">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G156" s="6">
         <v>45936</v>
       </c>
       <c r="H156">
-        <v>25.52</v>
+        <v>25.14</v>
       </c>
       <c r="I156">
-        <v>24.94</v>
+        <v>24.64</v>
       </c>
       <c r="J156">
-        <v>25.74</v>
+        <v>25.32</v>
       </c>
       <c r="K156">
-        <v>24.85</v>
+        <v>24.47</v>
       </c>
       <c r="L156">
-        <v>25.21</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+        <v>24.92</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>198</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D157" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F157" s="2">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="G157" s="6">
         <v>45936</v>
       </c>
       <c r="H157">
-        <v>25.14</v>
+        <v>27.26</v>
       </c>
       <c r="I157">
-        <v>24.64</v>
+        <v>26.57</v>
       </c>
       <c r="J157">
-        <v>25.32</v>
+        <v>26.7</v>
       </c>
       <c r="K157">
-        <v>24.47</v>
+        <v>25.9</v>
       </c>
       <c r="L157">
-        <v>24.92</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+        <v>25.38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>199</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D158" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F158" s="2">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G158" s="6">
         <v>45936</v>
       </c>
       <c r="H158">
-        <v>27.26</v>
+        <v>23.52</v>
       </c>
       <c r="I158">
-        <v>26.57</v>
+        <v>22.96</v>
       </c>
       <c r="J158">
-        <v>26.7</v>
+        <v>23.92</v>
       </c>
       <c r="K158">
-        <v>25.9</v>
+        <v>23.18</v>
       </c>
       <c r="L158">
-        <v>25.38</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+        <v>23.86</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>200</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D159" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F159" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G159" s="6">
         <v>45936</v>
       </c>
       <c r="H159">
-        <v>23.52</v>
+        <v>22.71</v>
       </c>
       <c r="I159">
-        <v>22.96</v>
+        <v>21.77</v>
       </c>
       <c r="J159">
-        <v>23.92</v>
+        <v>22.82</v>
       </c>
       <c r="K159">
-        <v>23.18</v>
+        <v>21.97</v>
       </c>
       <c r="L159">
-        <v>23.86</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+        <v>22.45</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>201</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D160" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F160" s="2">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="G160" s="6">
         <v>45936</v>
       </c>
       <c r="H160">
-        <v>22.71</v>
+        <v>22.58</v>
       </c>
       <c r="I160">
-        <v>21.77</v>
+        <v>22.24</v>
       </c>
       <c r="J160">
-        <v>22.82</v>
+        <v>23.03</v>
       </c>
       <c r="K160">
-        <v>21.97</v>
+        <v>22.39</v>
       </c>
       <c r="L160">
-        <v>22.45</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+        <v>23.56</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>202</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D161" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F161" s="2">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G161" s="6">
         <v>45936</v>
       </c>
       <c r="H161">
-        <v>22.58</v>
+        <v>22.69</v>
       </c>
       <c r="I161">
-        <v>22.24</v>
+        <v>22.13</v>
       </c>
       <c r="J161">
-        <v>23.03</v>
+        <v>22.67</v>
       </c>
       <c r="K161">
-        <v>22.39</v>
+        <v>22.31</v>
       </c>
       <c r="L161">
-        <v>23.56</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>203</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F162" s="2">
-        <v>39</v>
-      </c>
-      <c r="G162" s="6">
-        <v>45936</v>
-      </c>
-      <c r="H162">
-        <v>22.69</v>
-      </c>
-      <c r="I162">
-        <v>22.13</v>
-      </c>
-      <c r="J162">
-        <v>22.67</v>
-      </c>
-      <c r="K162">
-        <v>22.31</v>
-      </c>
-      <c r="L162">
         <v>22.78</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L161" xr:uid="{2BF4FCBB-AC4B-4BE1-B463-C994B1598E3A}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="DNMT3a"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A142:L161">
+      <sortCondition ref="A1:A161"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Bandit paper Key.xlsx
+++ b/Data/Bandit paper Key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gowustl-my.sharepoint.com/personal/sebastiana_wustl_edu/Documents/Documents/GitHub/Murrell2025/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="8_{F8E0B11F-43C0-4782-8D95-C5B9BD28F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61EC67B2-6B6B-48BF-9A54-391CF1BFB348}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="8_{F8E0B11F-43C0-4782-8D95-C5B9BD28F34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24D3E4B9-315D-41E9-AEEC-99D40A62FEC6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D69361D2-749D-4D5A-8D7C-5685B1F0A3DD}"/>
   </bookViews>
@@ -754,6 +754,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1829,7 +1833,7 @@
         <v>19.68</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -1867,7 +1871,7 @@
         <v>24.28</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -1905,7 +1909,7 @@
         <v>19.64</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -1943,7 +1947,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -1981,7 +1985,7 @@
         <v>18.350000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -2016,7 +2020,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -2051,7 +2055,7 @@
         <v>25.66</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -2086,7 +2090,7 @@
         <v>19.38</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>68</v>
       </c>
@@ -2121,7 +2125,7 @@
         <v>17.850000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -2156,7 +2160,7 @@
         <v>21.05</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -2191,7 +2195,7 @@
         <v>23.02</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -2226,7 +2230,7 @@
         <v>22.12</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -2261,7 +2265,7 @@
         <v>22.38</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -2299,7 +2303,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -2337,7 +2341,7 @@
         <v>19.72</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2375,7 +2379,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -2413,7 +2417,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -2448,7 +2452,7 @@
         <v>17.86</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -2486,7 +2490,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -2524,7 +2528,7 @@
         <v>27.32</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -2562,7 +2566,7 @@
         <v>18.559999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>105</v>
       </c>
@@ -2600,7 +2604,7 @@
         <v>20.71</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>106</v>
       </c>
@@ -2638,7 +2642,7 @@
         <v>18.97</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -2676,7 +2680,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -2714,7 +2718,7 @@
         <v>21.47</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -2752,7 +2756,7 @@
         <v>21.21</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>110</v>
       </c>
@@ -2790,7 +2794,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>117</v>
       </c>
@@ -2828,7 +2832,7 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>116</v>
       </c>
@@ -2866,7 +2870,7 @@
         <v>24.56</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -2904,7 +2908,7 @@
         <v>24.38</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>114</v>
       </c>
@@ -2942,7 +2946,7 @@
         <v>28.1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -2980,7 +2984,7 @@
         <v>27.91</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>107</v>
       </c>
@@ -3018,7 +3022,7 @@
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>108</v>
       </c>
@@ -3056,7 +3060,7 @@
         <v>19.77</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -3094,7 +3098,7 @@
         <v>26.07</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -3132,7 +3136,7 @@
         <v>18.88</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>119</v>
       </c>
@@ -3170,7 +3174,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -3208,7 +3212,7 @@
         <v>19.95</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -3246,7 +3250,7 @@
         <v>23.01</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -6211,10 +6215,10 @@
   <autoFilter ref="A1:L161" xr:uid="{2BF4FCBB-AC4B-4BE1-B463-C994B1598E3A}">
     <filterColumn colId="1">
       <filters>
-        <filter val="DNMT3a"/>
+        <filter val="NF1Cohort 2"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A142:L161">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A41:L60">
       <sortCondition ref="A1:A161"/>
     </sortState>
   </autoFilter>
